--- a/KiCad/out/bom/FreeEEG32.xlsx
+++ b/KiCad/out/bom/FreeEEG32.xlsx
@@ -11,12 +11,12 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'FreeEEG32'!$I$1</definedName>
-    <definedName name="digikey_part_data">'FreeEEG32'!$J$5:$O$34</definedName>
-    <definedName name="farnell_part_data">'FreeEEG32'!$P$5:$U$34</definedName>
-    <definedName name="global_part_data">'FreeEEG32'!$A$5:$I$34</definedName>
-    <definedName name="mouser_part_data">'FreeEEG32'!$V$5:$AA$34</definedName>
-    <definedName name="newark_part_data">'FreeEEG32'!$AB$5:$AG$34</definedName>
-    <definedName name="rs_part_data">'FreeEEG32'!$AH$5:$AM$34</definedName>
+    <definedName name="digikey_part_data">'FreeEEG32'!$J$5:$O$38</definedName>
+    <definedName name="farnell_part_data">'FreeEEG32'!$P$5:$U$38</definedName>
+    <definedName name="global_part_data">'FreeEEG32'!$A$5:$I$38</definedName>
+    <definedName name="mouser_part_data">'FreeEEG32'!$V$5:$AA$38</definedName>
+    <definedName name="newark_part_data">'FreeEEG32'!$AB$5:$AG$38</definedName>
+    <definedName name="rs_part_data">'FreeEEG32'!$AH$5:$AM$38</definedName>
     <definedName name="TotalCost">'FreeEEG32'!$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="193">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -573,19 +573,10 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x02</t>
-  </si>
-  <si>
-    <t>CONN_01X02</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
-    <t>SN6505BDBVT</t>
+    <t>SN6505ADBVT</t>
   </si>
   <si>
     <t>TO_SOT_Packages_SMD:SOT-23-6</t>
@@ -594,6 +585,15 @@
     <t>SN6505A</t>
   </si>
   <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>ESP-12F</t>
+  </si>
+  <si>
+    <t>ESP-12E:ESP-12E</t>
+  </si>
+  <si>
     <t>P11</t>
   </si>
   <si>
@@ -615,13 +615,16 @@
     <t>ISO7342c_uart</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Resistors_SMD:R_0603</t>
-  </si>
-  <si>
-    <t>REXT</t>
+    <t>U1,U2,U39</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-3.3</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-3.3_TSOT</t>
   </si>
   <si>
     <t>T1</t>
@@ -636,159 +639,195 @@
     <t>da2303</t>
   </si>
   <si>
+    <t>P6,P7</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_2x03</t>
+  </si>
+  <si>
+    <t>CONN_02X03</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>MBR0520LT1G</t>
+  </si>
+  <si>
+    <t>SOD-123:SOD−123</t>
+  </si>
+  <si>
+    <t>D_Schottky_SMD</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>STM32F427ZI_4side</t>
+  </si>
+  <si>
+    <t>C1,C5-C11,C16-C24,C26-C28,C34,C39-C50,C52,C57,C62-C72,C78,C83-C93,C99-C101,C103-C105,C107-C110,C115,C118</t>
+  </si>
+  <si>
+    <t>MC0402B104K160CT</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0402</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
     <t>Y2</t>
   </si>
   <si>
     <t>KX-9A 8.0 MHz</t>
   </si>
   <si>
-    <t>Crystals:Crystal_SMD_5032-4pin_5.0x3.2mm</t>
+    <t>Crystals:Crystal_SMD_5032_4Pads</t>
   </si>
   <si>
     <t>8MHz</t>
   </si>
   <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
-    <t>MBR0520LT1G</t>
-  </si>
-  <si>
-    <t>SOD-123:SOD−123</t>
-  </si>
-  <si>
-    <t>D_Schottky_SMD</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Crystals:Crystal_SMD_0603_2Pads_obsolete</t>
-  </si>
-  <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>Capacitors_SMD:C_0402</t>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>7W-8.192MBC-T</t>
+  </si>
+  <si>
+    <t>osc_smd0705c:oscillator_SMD_7050_4Pads</t>
+  </si>
+  <si>
+    <t>8.192MHz</t>
+  </si>
+  <si>
+    <t>U36</t>
+  </si>
+  <si>
+    <t>ISO7341CDW</t>
+  </si>
+  <si>
+    <t>ISO7341c_spi</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_SMD:SW_SPST_B3U-1000P-B</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>SP0503BAHTG</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-143</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CL2</t>
+  </si>
+  <si>
+    <t>U40</t>
+  </si>
+  <si>
+    <t>CP2102N-A01-GQFN24</t>
+  </si>
+  <si>
+    <t>Housings_DFN_QFN:QFN-24-1EP_4x4mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>CP2102N-24</t>
+  </si>
+  <si>
+    <t>C102,C117,C119-C124</t>
+  </si>
+  <si>
+    <t>GRM188R60J225KE19D</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0603</t>
   </si>
   <si>
     <t>2.2u</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>STM32F427ZI_4side</t>
-  </si>
-  <si>
-    <t>C5-C11,C16-C23,C26-C28,C34,C39-C41,C43-C50,C57,C62-C72,C78,C83-C93,C99-C101,C103-C105</t>
-  </si>
-  <si>
-    <t>MC0402B104K160CT</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>U1,U2,U39</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SOT-23-5</t>
-  </si>
-  <si>
-    <t>ADP7118_TSOT</t>
-  </si>
-  <si>
-    <t>U36</t>
-  </si>
-  <si>
-    <t>ISO7341CDW</t>
-  </si>
-  <si>
-    <t>ISO7341c_spi</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>Buttons_Switches_SMD:SW_SPST_B3U-1000P-B</t>
-  </si>
-  <si>
-    <t>NRST</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>7W-8.192MBC-T</t>
-  </si>
-  <si>
-    <t>Crystals:Crystal_SMD_7050-4pin_7.0x5.0mm</t>
-  </si>
-  <si>
-    <t>8.192MHz</t>
-  </si>
-  <si>
-    <t>C2,C4</t>
-  </si>
-  <si>
-    <t>CL2</t>
-  </si>
-  <si>
-    <t>C106</t>
+    <t>C2,C12-C15,C25,C29-C33,C35-C38,C51,C53-C56,C58-C61,C73-C77,C79-C82,C94-C98,C116</t>
+  </si>
+  <si>
+    <t>GRM155R60J105KE19D</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>U8-U11,U15-U18,U22-U25,U29-U32</t>
+  </si>
+  <si>
+    <t>TPD4E1B06DCKR</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SC-70-6</t>
+  </si>
+  <si>
+    <t>TPD4E1B06</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>MPU-6500</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>105017-0001</t>
+  </si>
+  <si>
+    <t>Connect:USB_Micro-B</t>
+  </si>
+  <si>
+    <t>USB_B</t>
+  </si>
+  <si>
+    <t>U37</t>
+  </si>
+  <si>
+    <t>STM32F427ZIT6</t>
+  </si>
+  <si>
+    <t>Housings_QFP:LQFP-144_20x20mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>STM32F427ZI_4side_short</t>
+  </si>
+  <si>
+    <t>SW2,SW3</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_SMD:SW_SPST_B3U-1100P-B</t>
+  </si>
+  <si>
+    <t>SWITCH_INV</t>
+  </si>
+  <si>
+    <t>C106,C111,C112</t>
+  </si>
+  <si>
+    <t>GRM188R60J475KE19D</t>
   </si>
   <si>
     <t>4.7u</t>
   </si>
   <si>
-    <t>C12-C15,C24,C25,C29-C33,C35-C38,C51,C53-C56,C58-C61,C73-C77,C79-C82,C94-C98</t>
-  </si>
-  <si>
-    <t>GRM155R60J105KE19D</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>U8-U12,U15-U19,U22-U26,U29-U33</t>
-  </si>
-  <si>
-    <t>TPD4E1B06DCKR</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SC-70-6</t>
-  </si>
-  <si>
-    <t>TPD4E1B06</t>
-  </si>
-  <si>
-    <t>U37</t>
-  </si>
-  <si>
-    <t>STM32F427ZIT6</t>
-  </si>
-  <si>
-    <t>Housings_QFP:LQFP-144_20x20mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t>STM32F427ZI_4side_short</t>
-  </si>
-  <si>
-    <t>P6,P7</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_1x06</t>
-  </si>
-  <si>
-    <t>CONN_01X06</t>
-  </si>
-  <si>
     <t>U7,U14,U21,U28</t>
   </si>
   <si>
@@ -801,13 +840,10 @@
     <t>ADR4525</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>ESP-12E</t>
-  </si>
-  <si>
-    <t>ESP-12E:ESP-12E</t>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>TLV73333PDBVT</t>
   </si>
   <si>
     <t>U13,U20,U27,U34</t>
@@ -822,6 +858,24 @@
     <t>AD7770</t>
   </si>
   <si>
+    <t>U43</t>
+  </si>
+  <si>
+    <t>473521001</t>
+  </si>
+  <si>
+    <t>473521001:473521001</t>
+  </si>
+  <si>
+    <t>C113,C114</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69D</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
     <t>P1-P4</t>
   </si>
   <si>
@@ -834,16 +888,7 @@
     <t>CONN_02X10</t>
   </si>
   <si>
-    <t>U38</t>
-  </si>
-  <si>
-    <t>LP5907MFX-3.3/NOPB</t>
-  </si>
-  <si>
-    <t>LP5907_WIFI</t>
-  </si>
-  <si>
-    <t>C1,C3</t>
+    <t>C3</t>
   </si>
   <si>
     <t>CL1</t>
@@ -873,46 +918,13 @@
     <t>Cat#</t>
   </si>
   <si>
+    <t>Farnell</t>
+  </si>
+  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>296-43154-1-ND</t>
-  </si>
-  <si>
-    <t>296-38515-5-ND</t>
-  </si>
-  <si>
-    <t>MBR0520LT1GOSCT-ND</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-R7CT-ND</t>
-  </si>
-  <si>
-    <t>296-38680-5-ND</t>
-  </si>
-  <si>
-    <t>7W-8.192MBC-T-ND</t>
-  </si>
-  <si>
-    <t>490-1320-1-ND</t>
-  </si>
-  <si>
-    <t>296-39346-1-ND</t>
-  </si>
-  <si>
-    <t>497-14050-ND</t>
-  </si>
-  <si>
-    <t>ADR4525BRZ-ND</t>
-  </si>
-  <si>
-    <t>AD7770ACPZ-ND</t>
-  </si>
-  <si>
-    <t>296-38557-1-ND</t>
-  </si>
-  <si>
-    <t>Farnell</t>
+    <t>2507107</t>
   </si>
   <si>
     <t>2455501</t>
@@ -924,34 +936,46 @@
     <t>1758896</t>
   </si>
   <si>
-    <t>2473018</t>
-  </si>
-  <si>
     <t>2396800</t>
   </si>
   <si>
+    <t>1827633</t>
+  </si>
+  <si>
+    <t>2577278</t>
+  </si>
+  <si>
+    <t>2494231</t>
+  </si>
+  <si>
     <t>1845729</t>
   </si>
   <si>
     <t>2496528</t>
   </si>
   <si>
-    <t>2333371</t>
+    <t>2293836</t>
+  </si>
+  <si>
+    <t>1735527</t>
   </si>
   <si>
     <t>2112686</t>
   </si>
   <si>
+    <t>2455145</t>
+  </si>
+  <si>
     <t>2576407</t>
   </si>
   <si>
-    <t>2492304</t>
+    <t>2494233</t>
   </si>
   <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>595-SN6505BDBVT</t>
+    <t>595-SN6505ADBVT</t>
   </si>
   <si>
     <t>595-ISO7342CDW</t>
@@ -960,36 +984,51 @@
     <t>863-MBR0520LT1G</t>
   </si>
   <si>
-    <t>584-ADP7118AUJZ-R7</t>
-  </si>
-  <si>
     <t>595-ISO7341CDW</t>
   </si>
   <si>
+    <t>576-SP0503BAHTG</t>
+  </si>
+  <si>
+    <t>634-CP2102NA01GQFN24</t>
+  </si>
+  <si>
+    <t>81-GRM18R60J225KE19D</t>
+  </si>
+  <si>
     <t>81-GRM155R60J105KE19</t>
   </si>
   <si>
     <t>595-TPD4E1B06DCKR</t>
   </si>
   <si>
+    <t>538-105017-0001</t>
+  </si>
+  <si>
     <t>511-STM32F427ZIT6</t>
   </si>
   <si>
+    <t>81-GRM18R60J475KE19D</t>
+  </si>
+  <si>
     <t>584-ADR4525BRZ</t>
   </si>
   <si>
-    <t>485-2491</t>
+    <t>595-TLV73333PDBVT</t>
   </si>
   <si>
     <t>584-AD7770ACPZ</t>
   </si>
   <si>
-    <t>595-LP5907MFX-3.3NPB</t>
+    <t>81-GRM188R61A106KE9D</t>
   </si>
   <si>
     <t>Newark</t>
   </si>
   <si>
+    <t>75Y3105</t>
+  </si>
+  <si>
     <t>93X6704</t>
   </si>
   <si>
@@ -999,31 +1038,49 @@
     <t>33R0276</t>
   </si>
   <si>
-    <t>53Y0648</t>
-  </si>
-  <si>
     <t>29X6514</t>
   </si>
   <si>
-    <t>13T1188</t>
+    <t>92K8959</t>
+  </si>
+  <si>
+    <t>91Y4214</t>
+  </si>
+  <si>
+    <t>55Y9853</t>
+  </si>
+  <si>
+    <t>03AC2550</t>
   </si>
   <si>
     <t>58Y3907</t>
   </si>
   <si>
-    <t>99W9929</t>
+    <t>78R1699</t>
+  </si>
+  <si>
+    <t>03AC2654</t>
   </si>
   <si>
     <t>93T9995</t>
   </si>
   <si>
+    <t>93X5199</t>
+  </si>
+  <si>
     <t>84Y7163</t>
   </si>
   <si>
+    <t>56R0644</t>
+  </si>
+  <si>
+    <t>03AC2657</t>
+  </si>
+  <si>
     <t>Rs Components</t>
   </si>
   <si>
-    <t>133-0701</t>
+    <t>133-0700</t>
   </si>
   <si>
     <t>900-9905</t>
@@ -1032,25 +1089,37 @@
     <t>463-432</t>
   </si>
   <si>
-    <t>865-2252</t>
-  </si>
-  <si>
     <t>900-9891</t>
   </si>
   <si>
+    <t>793-1967</t>
+  </si>
+  <si>
+    <t>723-5547</t>
+  </si>
+  <si>
     <t>723-5180</t>
   </si>
   <si>
     <t>825-5330</t>
   </si>
   <si>
+    <t>848-6764</t>
+  </si>
+  <si>
     <t>880-5402</t>
   </si>
   <si>
+    <t>723-5556</t>
+  </si>
+  <si>
     <t>802-3884</t>
   </si>
   <si>
-    <t>456-8162</t>
+    <t>720-6016</t>
+  </si>
+  <si>
+    <t>846-7293</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM63"/>
+  <dimension ref="A1:AM71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
@@ -1569,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2">
         <v>100</v>
@@ -1577,36 +1646,36 @@
     </row>
     <row r="2" spans="1:39">
       <c r="H2" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I2" s="4">
-        <f>sum(I7:I34)</f>
+        <f>sum(I7:I38)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>sum(M7:M34)</f>
+        <f>sum(M7:M38)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>sum(S7:S34)</f>
+        <f>sum(S7:S38)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>sum(Y7:Y34)</f>
+        <f>sum(Y7:Y38)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>sum(AE7:AE34)</f>
+        <f>sum(AE7:AE38)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="4">
-        <f>sum(AK7:AK34)</f>
+        <f>sum(AK7:AK38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I3" s="5">
         <f>TotalCost/BoardQty</f>
@@ -1626,7 +1695,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1634,7 +1703,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1642,7 +1711,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1650,7 +1719,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="10" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
@@ -1658,7 +1727,7 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="11" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
@@ -1695,10 +1764,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>3</v>
@@ -1707,16 +1776,16 @@
         <v>2</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>3</v>
@@ -1725,16 +1794,16 @@
         <v>2</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="X6" s="12" t="s">
         <v>3</v>
@@ -1743,16 +1812,16 @@
         <v>2</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AD6" s="12" t="s">
         <v>3</v>
@@ -1761,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AH6" s="12" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>3</v>
@@ -1779,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1790,9 +1859,12 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7">
@@ -1807,19 +1879,87 @@
         <f>iferror(G7*H7,"")</f>
         <v>0</v>
       </c>
+      <c r="P7">
+        <v>330</v>
+      </c>
+      <c r="R7" s="13">
+        <f>iferror(lookup(if(Q7="",G7,Q7),{0,1,10,100,250,500},{0.0,4.275285,4.275285,3.975265,3.77168,2.65732}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <f>iferror(if(Q7="",G7,Q7)*R7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7">
+        <v>1216</v>
+      </c>
+      <c r="X7" s="13">
+        <f>iferror(lookup(if(W7="",G7,W7),{0,1,10,25,50,100,250,500,1000},{0.0,5.34,4.8,4.47,4.23,3.93,3.73,3.35,2.62}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
+        <f>iferror(if(W7="",G7,W7)*X7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB7">
+        <v>325</v>
+      </c>
+      <c r="AD7" s="13">
+        <f>iferror(lookup(if(AC7="",G7,AC7),{0,1,10,25,50,100},{0.0,5.32,4.82,4.46,4.25,3.98}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="13">
+        <f>iferror(if(AC7="",G7,AC7)*AD7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH7">
+        <v>250</v>
+      </c>
+      <c r="AJ7" s="13">
+        <f>iferror(lookup(if(AI7="",G7,AI7),{0,1,10},{0.0,5.63609,5.3575}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="13">
+        <f>iferror(if(AI7="",G7,AI7)*AJ7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM7" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
       </c>
       <c r="G8">
         <f>BoardQty*1</f>
@@ -1832,63 +1972,6 @@
       <c r="I8" s="13">
         <f>iferror(G8*H8,"")</f>
         <v>0</v>
-      </c>
-      <c r="J8">
-        <v>555</v>
-      </c>
-      <c r="L8" s="13">
-        <f>iferror(lookup(if(K8="",G8,K8),{0,1,10,100,250,500,1250,3000},{0.0,5.51,4.949,4.0552,3.73516,3.35154,2.52375,2.19377}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <f>iferror(if(K8="",G8,K8)*L8,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V8">
-        <v>1092</v>
-      </c>
-      <c r="X8" s="13">
-        <f>iferror(lookup(if(W8="",G8,W8),{0,1,10,25,50,100,250,500,1000},{0.0,5.34,4.8,4.47,4.23,3.93,3.73,3.35,2.62}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="13">
-        <f>iferror(if(W8="",G8,W8)*X8,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH8">
-        <v>238</v>
-      </c>
-      <c r="AJ8" s="13">
-        <f>iferror(lookup(if(AI8="",G8,AI8),{0,1,10},{0.0,6.25756,5.625375}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="13">
-        <f>iferror(if(AI8="",G8,AI8)*AJ8,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM8" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1939,25 +2022,8 @@
         <f>iferror(G10*H10,"")</f>
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>1372</v>
-      </c>
-      <c r="L10" s="13">
-        <f>iferror(lookup(if(K10="",G10,K10),{0,1,10,100,500,1000,2000},{0.0,5.15,4.627,3.7908,3.22704,2.7216,2.025}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <f>iferror(if(K10="",G10,K10)*L10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="P10">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="R10" s="13">
         <f>iferror(lookup(if(Q10="",G10,Q10),{0,1,5,10,40,100,400,1250},{0.0,5.796815,5.20749,4.361005,4.125275,3.632385,3.075205,2.50731}),"")</f>
@@ -1968,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V10">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="X10" s="13">
         <f>iferror(lookup(if(W10="",G10,W10),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
@@ -1985,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AB10">
         <v>18</v>
@@ -2002,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AG10" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AH10">
         <v>40</v>
       </c>
       <c r="AJ10" s="13">
-        <f>iferror(lookup(if(AI10="",G10,AI10),{0,1,2,10},{0.0,4.56459,4.56459,4.3342175}),"")</f>
+        <f>iferror(lookup(if(AI10="",G10,AI10),{0,1,2,10},{0.0,4.35029,4.35029,4.1306325}),"")</f>
         <v>0</v>
       </c>
       <c r="AK10" s="13">
@@ -2019,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AM10" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -2030,13 +2096,16 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
       <c r="G11">
-        <f>BoardQty*1</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H11" s="13">
@@ -2047,19 +2116,25 @@
         <f>iferror(G11*H11,"")</f>
         <v>0</v>
       </c>
+      <c r="AA11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG11" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
       </c>
       <c r="G12">
         <f>BoardQty*1</f>
@@ -2076,7 +2151,7 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -2084,11 +2159,8 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
       <c r="G13">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H13" s="13">
@@ -2125,28 +2197,11 @@
         <f>iferror(G14*H14,"")</f>
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>75911</v>
-      </c>
-      <c r="L14" s="13">
-        <f>iferror(lookup(if(K14="",G14,K14),{0,1,10,100,500,1000,3000,6000,15000,30000,75000},{0.0,0.35,0.286,0.1517,0.09978,0.06785,0.05941,0.05166,0.04391,0.04133,0.03875}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <f>iferror(if(K14="",G14,K14)*L14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="P14">
-        <v>20276</v>
+        <v>33330</v>
       </c>
       <c r="R14" s="13">
-        <f>iferror(lookup(if(Q14="",G14,Q14),{0,1,80,250,750,1500},{0.0,0.09997095,0.09997095,0.0912918,0.06289705,0.05603945}),"")</f>
+        <f>iferror(lookup(if(Q14="",G14,Q14),{0,1,80,250,750,1500},{0.0,0.096435,0.096435,0.096435,0.06429,0.053575}),"")</f>
         <v>0</v>
       </c>
       <c r="S14" s="13">
@@ -2154,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V14">
-        <v>50491</v>
+        <v>30077</v>
       </c>
       <c r="X14" s="13">
         <f>iferror(lookup(if(W14="",G14,W14),{0,1,10,100,1000,3000,9000,24000,45000,99000},{0.0,0.32,0.22,0.092,0.063,0.049,0.042,0.039,0.037,0.032}),"")</f>
@@ -2171,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="Z14" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AA14" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AB14">
-        <v>1038</v>
+        <v>825</v>
       </c>
       <c r="AD14" s="13">
         <f>iferror(lookup(if(AC14="",G14,AC14),{0,1,10,25,50,100,500,1000},{0.0,0.32,0.221,0.178,0.135,0.092,0.078,0.063}),"")</f>
@@ -2188,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="AG14" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AH14">
         <v>400</v>
@@ -2205,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AM14" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2216,9 +2271,6 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="G15">
@@ -2236,7 +2288,7 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -2244,8 +2296,11 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
       <c r="G16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*70</f>
         <v>0</v>
       </c>
       <c r="H16" s="13">
@@ -2255,6 +2310,40 @@
       <c r="I16" s="13">
         <f>iferror(G16*H16,"")</f>
         <v>0</v>
+      </c>
+      <c r="P16">
+        <v>83923</v>
+      </c>
+      <c r="R16" s="13">
+        <f>iferror(lookup(if(Q16="",G16,Q16),{0,1,100,500,2500,5000},{0.0,0.0,0.0,0.0,0.0,0.0}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <f>iferror(if(Q16="",G16,Q16)*R16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>130</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB16">
+        <v>50350</v>
+      </c>
+      <c r="AD16" s="13">
+        <f>iferror(lookup(if(AC16="",G16,AC16),{0,1,10,25,100,250,500,1000},{0.0,0.014,0.014,0.01,0.007,0.006,0.005,0.004}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13">
+        <f>iferror(if(AC16="",G16,AC16)*AD16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG16" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -2262,6 +2351,12 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="G17">
@@ -2279,19 +2374,19 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <f>BoardQty*60</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H18" s="13">
@@ -2303,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>387480</v>
+        <v>656</v>
       </c>
       <c r="R18" s="13">
-        <f>iferror(lookup(if(Q18="",G18,Q18),{0,1,100,500,2500,5000},{0.0,0.00482175,0.00482175,0.004286,0.0030002,0.0025716}),"")</f>
+        <f>iferror(lookup(if(Q18="",G18,Q18),{0,1,10,50,100,500},{0.0,1.553675,1.47867,1.446525,1.232225,1.20008}),"")</f>
         <v>0</v>
       </c>
       <c r="S18" s="13">
@@ -2314,16 +2409,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="AB18">
-        <v>348075</v>
+        <v>656</v>
       </c>
       <c r="AD18" s="13">
-        <f>iferror(lookup(if(AC18="",G18,AC18),{0,1,10,25,100,250,500,1000},{0.0,0.014,0.014,0.01,0.007,0.006,0.005,0.004}),"")</f>
+        <f>iferror(lookup(if(AC18="",G18,AC18),{0,1,10,50,100,500},{0.0,1.47,1.4,1.37,1.17,1.14}),"")</f>
         <v>0</v>
       </c>
       <c r="AE18" s="13">
@@ -2331,27 +2429,27 @@
         <v>0</v>
       </c>
       <c r="AF18" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AG18" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H19" s="13">
@@ -2362,28 +2460,14 @@
         <f>iferror(G19*H19,"")</f>
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>2786</v>
-      </c>
-      <c r="L19" s="13">
-        <f>iferror(lookup(if(K19="",G19,K19),{0,1,10,100,500,1000,3000,6000},{0.0,2.34,2.102,1.6893,1.38792,1.15,1.0395,1.001}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="13">
-        <f>iferror(if(K19="",G19,K19)*L19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>114</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>110</v>
+      <c r="U19" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="V19">
-        <v>3238</v>
+        <v>641</v>
       </c>
       <c r="X19" s="13">
-        <f>iferror(lookup(if(W19="",G19,W19),{0,1,10,25,100,250,500,1000,3000},{0.0,2.14,1.94,1.73,1.55,1.38,1.21,1.0,1.0}),"")</f>
+        <f>iferror(lookup(if(W19="",G19,W19),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
         <v>0</v>
       </c>
       <c r="Y19" s="13">
@@ -2391,19 +2475,16 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG19" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AH19">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="AJ19" s="13">
-        <f>iferror(lookup(if(AI19="",G19,AI19),{0,1,2,10},{0.0,2.01442,2.01442,1.97156}),"")</f>
+        <f>iferror(lookup(if(AI19="",G19,AI19),{0,1,2,10},{0.0,4.9985475,4.9985475,4.4842275}),"")</f>
         <v>0</v>
       </c>
       <c r="AK19" s="13">
@@ -2411,24 +2492,21 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AM19" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G20">
         <f>BoardQty*1</f>
@@ -2442,101 +2520,19 @@
         <f>iferror(G20*H20,"")</f>
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>98</v>
-      </c>
-      <c r="L20" s="13">
-        <f>iferror(lookup(if(K20="",G20,K20),{0,1,10,100,500,1000,2000},{0.0,5.15,4.627,3.7908,3.22704,2.7216,2.025}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <f>iferror(if(K20="",G20,K20)*L20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20">
-        <v>44</v>
-      </c>
-      <c r="R20" s="13">
-        <f>iferror(lookup(if(Q20="",G20,Q20),{0,1,10,100,250,500,1000},{0.0,5.711095,4.082415,3.803825,3.60024,3.23593,2.539455}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="13">
-        <f>iferror(if(Q20="",G20,Q20)*R20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>127</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V20">
-        <v>641</v>
-      </c>
-      <c r="X20" s="13">
-        <f>iferror(lookup(if(W20="",G20,W20),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="13">
-        <f>iferror(if(W20="",G20,W20)*X20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB20">
-        <v>44</v>
-      </c>
-      <c r="AD20" s="13">
-        <f>iferror(lookup(if(AC20="",G20,AC20),{0,1,10,25,50,100,250,500,1000},{0.0,5.92,5.24,4.88,4.62,4.29,4.07,3.65,2.75}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="13">
-        <f>iferror(if(AC20="",G20,AC20)*AD20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH20">
-        <v>140</v>
-      </c>
-      <c r="AJ20" s="13">
-        <f>iferror(lookup(if(AI20="",G20,AI20),{0,1,2,10},{0.0,4.56459,4.56459,4.3342175}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="13">
-        <f>iferror(if(AI20="",G20,AI20)*AJ20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM20" s="14" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
       </c>
       <c r="G21">
         <f>BoardQty*1</f>
@@ -2550,19 +2546,84 @@
         <f>iferror(G21*H21,"")</f>
         <v>0</v>
       </c>
+      <c r="P21">
+        <v>2925</v>
+      </c>
+      <c r="R21" s="13">
+        <f>iferror(lookup(if(Q21="",G21,Q21),{0,1,10,40,100,300,1000,3000,10000},{0.0,0.62147,0.62147,0.62147,0.53575,0.45003,0.36431,0.27859,0.27859}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <f>iferror(if(Q21="",G21,Q21)*R21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V21">
+        <v>16096</v>
+      </c>
+      <c r="X21" s="13">
+        <f>iferror(lookup(if(W21="",G21,W21),{0,1,10,100,500,1000,3000,9000},{0.0,0.88,0.678,0.515,0.438,0.351,0.287,0.277}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="13">
+        <f>iferror(if(W21="",G21,W21)*X21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB21">
+        <v>1211</v>
+      </c>
+      <c r="AD21" s="13">
+        <f>iferror(lookup(if(AC21="",G21,AC21),{0,1,10,25,100,250,500,1000},{0.0,0.874,0.769,0.68,0.593,0.516,0.439,0.352}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="13">
+        <f>iferror(if(AC21="",G21,AC21)*AD21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH21">
+        <v>40</v>
+      </c>
+      <c r="AJ21" s="13">
+        <f>iferror(lookup(if(AI21="",G21,AI21),{0,1,10,50},{0.0,0.6053975,0.6053975,0.6032545}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="13">
+        <f>iferror(if(AI21="",G21,AI21)*AJ21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <f>BoardQty*1</f>
@@ -2575,60 +2636,6 @@
       <c r="I22" s="13">
         <f>iferror(G22*H22,"")</f>
         <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13">
-        <f>iferror(lookup(if(K22="",G22,K22),{0,1,1000},{0.0,0.9558,0.9558}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="13">
-        <f>iferror(if(K22="",G22,K22)*L22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="P22">
-        <v>790</v>
-      </c>
-      <c r="R22" s="13">
-        <f>iferror(lookup(if(Q22="",G22,Q22),{0,1,10,50,100,500},{0.0,1.60725,1.510815,1.489385,1.275085,1.24294}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="13">
-        <f>iferror(if(Q22="",G22,Q22)*R22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
-        <v>128</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB22">
-        <v>790</v>
-      </c>
-      <c r="AD22" s="13">
-        <f>iferror(lookup(if(AC22="",G22,AC22),{0,1,10,50,100,500},{0.0,1.47,1.4,1.37,1.17,1.14}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <f>iferror(if(AC22="",G22,AC22)*AD22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG22" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -2636,13 +2643,16 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
       <c r="G23">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H23" s="13">
@@ -2653,19 +2663,73 @@
         <f>iferror(G23*H23,"")</f>
         <v>0</v>
       </c>
+      <c r="P23">
+        <v>237</v>
+      </c>
+      <c r="R23" s="13">
+        <f>iferror(lookup(if(Q23="",G23,Q23),{0,1,25,100},{0.0,2.046565,1.7144,1.52153}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <f>iferror(if(Q23="",G23,Q23)*R23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V23">
+        <v>181</v>
+      </c>
+      <c r="X23" s="13">
+        <f>iferror(lookup(if(W23="",G23,W23),{0,1,10,25,50,100,250,500,1000},{0.0,1.69,1.6,1.55,1.51,1.41,1.37,1.29,1.27}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="13">
+        <f>iferror(if(W23="",G23,W23)*X23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB23">
+        <v>237</v>
+      </c>
+      <c r="AD23" s="13">
+        <f>iferror(lookup(if(AC23="",G23,AC23),{0,1,100,250,500,1000},{0.0,2.8,2.29,2.1,1.95,1.83}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <f>iferror(if(AC23="",G23,AC23)*AD23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG23" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
       </c>
       <c r="G24">
-        <f>BoardQty*1</f>
+        <f>BoardQty*8</f>
         <v>0</v>
       </c>
       <c r="H24" s="13">
@@ -2676,22 +2740,90 @@
         <f>iferror(G24*H24,"")</f>
         <v>0</v>
       </c>
+      <c r="P24">
+        <v>1590</v>
+      </c>
+      <c r="R24" s="13">
+        <f>iferror(lookup(if(Q24="",G24,Q24),{0,1,100,500,1000,2000},{0.0,0.053575,0.053575,0.032145,0.02143,0.02143}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
+        <f>iferror(if(Q24="",G24,Q24)*R24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V24">
+        <v>41428</v>
+      </c>
+      <c r="X24" s="13">
+        <f>iferror(lookup(if(W24="",G24,W24),{0,1,10,100,500,1000,4000,8000},{0.0,0.149,0.057,0.039,0.032,0.027,0.021,0.018}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="13">
+        <f>iferror(if(W24="",G24,W24)*X24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB24">
+        <v>1401</v>
+      </c>
+      <c r="AD24" s="13">
+        <f>iferror(lookup(if(AC24="",G24,AC24),{0,1,250,500,1000,5000},{0.0,0.039,0.029,0.026,0.024,0.021}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <f>iferror(if(AC24="",G24,AC24)*AD24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH24">
+        <v>150</v>
+      </c>
+      <c r="AJ24" s="13">
+        <f>iferror(lookup(if(AI24="",G24,AI24),{0,1,50,500},{0.0,0.047146,0.047146,0.0460745}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="13">
+        <f>iferror(if(AI24="",G24,AI24)*AJ24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G25">
-        <f>BoardQty*38</f>
+        <f>BoardQty*39</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
@@ -2702,28 +2834,11 @@
         <f>iferror(G25*H25,"")</f>
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>5025266</v>
-      </c>
-      <c r="L25" s="13">
-        <f>iferror(lookup(if(K25="",G25,K25),{0,1,10,50,100,250,500,1000,5000,10000,20000,30000,50000,100000},{0.0,0.1,0.021,0.0114,0.0097,0.00792,0.00676,0.00527,0.00439,0.00369,0.00352,0.00334,0.00299,0.00242}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <f>iferror(if(K25="",G25,K25)*L25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="P25">
-        <v>97017</v>
+        <v>93777</v>
       </c>
       <c r="R25" s="13">
-        <f>iferror(lookup(if(Q25="",G25,Q25),{0,1,100,500,2500,5000},{0.0,0.0218586,0.0218586,0.01703685,0.0139295,0.01275085}),"")</f>
+        <f>iferror(lookup(if(Q25="",G25,Q25),{0,1,100,500,2500,5000},{0.0,0.02143,0.02143,0.02143,0.010715,0.010715}),"")</f>
         <v>0</v>
       </c>
       <c r="S25" s="13">
@@ -2731,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V25">
-        <v>229980</v>
+        <v>583038</v>
       </c>
       <c r="X25" s="13">
-        <f>iferror(lookup(if(W25="",G25,W25),{0,1,10,100,500,10000},{0.0,0.1,0.011,0.007,0.006,0.006}),"")</f>
+        <f>iferror(lookup(if(W25="",G25,W25),{0,1,10,100,1000,2500,10000},{0.0,0.11,0.013,0.008,0.006,0.005,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="Y25" s="13">
@@ -2748,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AA25" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AB25">
-        <v>43124</v>
+        <v>10000</v>
       </c>
       <c r="AD25" s="13">
-        <f>iferror(lookup(if(AC25="",G25,AC25),{0,1,250,500,1000,5000},{0.0,0.037,0.028,0.025,0.023,0.021}),"")</f>
+        <f>iferror(lookup(if(AC25="",G25,AC25),{0,1,5000},{0.0,0.019,0.019}),"")</f>
         <v>0</v>
       </c>
       <c r="AE25" s="13">
@@ -2765,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AH25">
         <v>500</v>
@@ -2782,27 +2897,27 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="AM25" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G26">
-        <f>BoardQty*20</f>
+        <f>BoardQty*16</f>
         <v>0</v>
       </c>
       <c r="H26" s="13">
@@ -2813,25 +2928,8 @@
         <f>iferror(G26*H26,"")</f>
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>1997</v>
-      </c>
-      <c r="L26" s="13">
-        <f>iferror(lookup(if(K26="",G26,K26),{0,1,10,100,500,1000,3000,6000,15000},{0.0,0.58,0.494,0.3692,0.29004,0.22413,0.1984,0.1856,0.1728}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="13">
-        <f>iferror(if(K26="",G26,K26)*L26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>118</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="P26">
-        <v>2768</v>
+        <v>2922</v>
       </c>
       <c r="R26" s="13">
         <f>iferror(lookup(if(Q26="",G26,Q26),{0,1,10,100,250,500,1000},{0.0,0.6375425,0.330022,0.285019,0.252874,0.2196575,0.1875125}),"")</f>
@@ -2842,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V26">
-        <v>287</v>
+        <v>8901</v>
       </c>
       <c r="X26" s="13">
         <f>iferror(lookup(if(W26="",G26,W26),{0,1,10,100,1000,3000,9000,24000},{0.0,0.55,0.462,0.282,0.218,0.186,0.173,0.166}),"")</f>
@@ -2859,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AA26" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AB26">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AD26" s="13">
         <f>iferror(lookup(if(AC26="",G26,AC26),{0,1,10,100,1000,2500,10000,25000,50000},{0.0,0.635,0.533,0.324,0.251,0.214,0.199,0.188,0.181}),"")</f>
@@ -2876,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AG26" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AH26">
         <v>80</v>
       </c>
       <c r="AJ26" s="13">
-        <f>iferror(lookup(if(AI26="",G26,AI26),{0,1,20,200},{0.0,0.2153715,0.2153715,0.199299}),"")</f>
+        <f>iferror(lookup(if(AI26="",G26,AI26),{0,1,20,200},{0.0,0.2475165,0.2475165,0.229301}),"")</f>
         <v>0</v>
       </c>
       <c r="AK26" s="13">
@@ -2893,24 +2991,24 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G27">
         <f>BoardQty*1</f>
@@ -2924,104 +3022,22 @@
         <f>iferror(G27*H27,"")</f>
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>620</v>
-      </c>
-      <c r="L27" s="13">
-        <f>iferror(lookup(if(K27="",G27,K27),{0,1,10,100,500,1000},{0.0,15.43,14.184,11.9789,10.65606,9.77417}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <f>iferror(if(K27="",G27,K27)*L27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>119</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="P27">
-        <v>160</v>
-      </c>
-      <c r="R27" s="13">
-        <f>iferror(lookup(if(Q27="",G27,Q27),{0,1,5,10,40,150,400},{0.0,17.10114,16.383235,14.561685,12.718705,12.12938,10.13639}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="13">
-        <f>iferror(if(Q27="",G27,Q27)*R27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T27" t="s">
-        <v>131</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V27">
-        <v>769</v>
-      </c>
-      <c r="X27" s="13">
-        <f>iferror(lookup(if(W27="",G27,W27),{0,1,10,25,50,100,250,500,1000},{0.0,15.41,14.17,13.59,12.86,11.97,11.31,10.6,9.55}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="13">
-        <f>iferror(if(W27="",G27,W27)*X27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB27">
-        <v>186</v>
-      </c>
-      <c r="AD27" s="13">
-        <f>iferror(lookup(if(AC27="",G27,AC27),{0,1,10,25,50,100,250,500},{0.0,15.42,14.18,13.59,12.86,11.97,11.32,10.6}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="13">
-        <f>iferror(if(AC27="",G27,AC27)*AD27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH27">
-        <v>29</v>
-      </c>
-      <c r="AJ27" s="13">
-        <f>iferror(lookup(if(AI27="",G27,AI27),{0,1,30},{0.0,14.647405,12.911575}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="13">
-        <f>iferror(if(AI27="",G27,AI27)*AJ27,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM27" s="14" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
       </c>
       <c r="G28">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H28" s="13">
@@ -3032,22 +3048,90 @@
         <f>iferror(G28*H28,"")</f>
         <v>0</v>
       </c>
+      <c r="P28">
+        <v>23692</v>
+      </c>
+      <c r="R28" s="13">
+        <f>iferror(lookup(if(Q28="",G28,Q28),{0,1,10,25,50,100,250},{0.0,0.505748,0.4811035,0.4553875,0.430743,0.4082415,0.3846685}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <f>iferror(if(Q28="",G28,Q28)*R28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>137</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V28">
+        <v>21170</v>
+      </c>
+      <c r="X28" s="13">
+        <f>iferror(lookup(if(W28="",G28,W28),{0,1,10,100,250,500,1000,2000,4000,10000},{0.0,0.729,0.667,0.57,0.517,0.476,0.408,0.394,0.381,0.354}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="13">
+        <f>iferror(if(W28="",G28,W28)*X28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB28">
+        <v>35517</v>
+      </c>
+      <c r="AD28" s="13">
+        <f>iferror(lookup(if(AC28="",G28,AC28),{0,1,10,100,250,500,1000,2000},{0.0,0.73,0.667,0.571,0.517,0.476,0.408,0.354}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="13">
+        <f>iferror(if(AC28="",G28,AC28)*AD28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH28">
+        <v>10</v>
+      </c>
+      <c r="AJ28" s="13">
+        <f>iferror(lookup(if(AI28="",G28,AI28),{0,1,5,75},{0.0,0.454316,0.454316,0.398598}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13">
+        <f>iferror(if(AI28="",G28,AI28)*AJ28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G29">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H29" s="13">
@@ -3058,45 +3142,14 @@
         <f>iferror(G29*H29,"")</f>
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>395</v>
-      </c>
-      <c r="L29" s="13">
-        <f>iferror(lookup(if(K29="",G29,K29),{0,1,10,100,196,500,588,1000,1078,2000},{0.0,8.21,7.418,6.1671,6.14102,5.37022,5.3475,4.6575,4.6575,4.485}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="13">
-        <f>iferror(if(K29="",G29,K29)*L29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>120</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="P29">
-        <v>734</v>
-      </c>
-      <c r="R29" s="13">
-        <f>iferror(lookup(if(Q29="",G29,Q29),{0,1,5,20,60,200,600},{0.0,8.475565,6.975465,5.93611,5.76467,4.811035,4.5003}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="13">
-        <f>iferror(if(Q29="",G29,Q29)*R29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
-        <v>132</v>
-      </c>
       <c r="U29" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V29">
-        <v>196</v>
+        <v>751</v>
       </c>
       <c r="X29" s="13">
-        <f>iferror(lookup(if(W29="",G29,W29),{0,1,10,25,50,100,250,500,1000},{0.0,7.76,6.97,6.36,5.93,5.73,5.27,4.79,4.48}),"")</f>
+        <f>iferror(lookup(if(W29="",G29,W29),{0,1,10,25,50,100,250,500,1000},{0.0,15.41,14.17,13.59,12.86,11.97,11.31,10.6,9.55}),"")</f>
         <v>0</v>
       </c>
       <c r="Y29" s="13">
@@ -3104,33 +3157,19 @@
         <v>0</v>
       </c>
       <c r="Z29" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AA29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB29">
-        <v>30</v>
-      </c>
-      <c r="AD29" s="13">
-        <f>iferror(lookup(if(AC29="",G29,AC29),{0,1,10,25,50,100,250,500},{0.0,7.76,6.98,6.36,5.93,5.74,5.27,4.79}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="13">
-        <f>iferror(if(AC29="",G29,AC29)*AD29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="AG29" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AH29">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ29" s="13">
-        <f>iferror(lookup(if(AI29="",G29,AI29),{0,1,10},{0.0,6.92189,6.225415}),"")</f>
+        <f>iferror(lookup(if(AI29="",G29,AI29),{0,1,30},{0.0,14.647405,12.911575}),"")</f>
         <v>0</v>
       </c>
       <c r="AK29" s="13">
@@ -3138,27 +3177,24 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AM29" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H30" s="13">
@@ -3169,59 +3205,22 @@
         <f>iferror(G30*H30,"")</f>
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="X30" s="13">
-        <f>iferror(lookup(if(W30="",G30,W30),{0,1,10},{0.0,6.94,6.37}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="13">
-        <f>iferror(if(W30="",G30,W30)*X30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA30" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG30" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH30">
-        <v>16</v>
-      </c>
-      <c r="AJ30" s="13">
-        <f>iferror(lookup(if(AI30="",G30,AI30),{0,1,10},{0.0,99.32805,95.3635}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="13">
-        <f>iferror(if(AI30="",G30,AI30)*AJ30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM30" s="14" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G31">
-        <f>BoardQty*4</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H31" s="13">
@@ -3232,28 +3231,11 @@
         <f>iferror(G31*H31,"")</f>
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>34</v>
-      </c>
-      <c r="L31" s="13">
-        <f>iferror(lookup(if(K31="",G31,K31),{0,1,10,100,500,1000,2500},{0.0,15.48,14.224,12.0131,10.6865,9.8021,9.4336}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <f>iferror(if(K31="",G31,K31)*L31,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="P31">
-        <v>43</v>
+        <v>19932</v>
       </c>
       <c r="R31" s="13">
-        <f>iferror(lookup(if(Q31="",G31,Q31),{0,1,10,25,50,100,250},{0.0,14.65812,12.654415,11.304325,10.86501,9.77208,9.397055}),"")</f>
+        <f>iferror(lookup(if(Q31="",G31,Q31),{0,1,100,500,1000,2000},{0.0,0.04286,0.04286,0.032145,0.02143,0.02143}),"")</f>
         <v>0</v>
       </c>
       <c r="S31" s="13">
@@ -3261,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V31">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="X31" s="13">
-        <f>iferror(lookup(if(W31="",G31,W31),{0,1,5,10,25,50,100,250,500},{0.0,14.59,13.65,13.25,12.26,11.6,11.27,10.24,9.58}),"")</f>
+        <f>iferror(lookup(if(W31="",G31,W31),{0,1,10,100,500,1000,4000,8000,24000},{0.0,0.13,0.047,0.033,0.028,0.022,0.017,0.016,0.014}),"")</f>
         <v>0</v>
       </c>
       <c r="Y31" s="13">
@@ -3278,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AA31" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AB31">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="AD31" s="13">
-        <f>iferror(lookup(if(AC31="",G31,AC31),{0,1,5,10,25,50,100,250,500},{0.0,14.6,13.64,13.27,12.24,11.57,11.28,10.25,9.59}),"")</f>
+        <f>iferror(lookup(if(AC31="",G31,AC31),{0,1,1000,5000},{0.0,0.031,0.031,0.028}),"")</f>
         <v>0</v>
       </c>
       <c r="AE31" s="13">
@@ -3295,24 +3277,41 @@
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="AG31" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
+      </c>
+      <c r="AH31">
+        <v>150</v>
+      </c>
+      <c r="AJ31" s="13">
+        <f>iferror(lookup(if(AI31="",G31,AI31),{0,1,50,250},{0.0,0.087863,0.087863,0.0760765}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="13">
+        <f>iferror(if(AI31="",G31,AI31)*AJ31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM31" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" t="s">
-        <v>94</v>
       </c>
       <c r="G32">
         <f>BoardQty*4</f>
@@ -3326,19 +3325,87 @@
         <f>iferror(G32*H32,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="P32">
+        <v>699</v>
+      </c>
+      <c r="R32" s="13">
+        <f>iferror(lookup(if(Q32="",G32,Q32),{0,1,5,20,60,200,600},{0.0,8.475565,6.975465,5.93611,5.76467,4.811035,4.5003}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
+        <f>iferror(if(Q32="",G32,Q32)*R32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>139</v>
+      </c>
+      <c r="U32" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V32">
+        <v>837</v>
+      </c>
+      <c r="X32" s="13">
+        <f>iferror(lookup(if(W32="",G32,W32),{0,1,10,25,50,100,250,500,1000},{0.0,7.76,6.97,6.36,5.93,5.73,5.27,4.79,4.48}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="13">
+        <f>iferror(if(W32="",G32,W32)*X32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA32" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB32">
+        <v>28</v>
+      </c>
+      <c r="AD32" s="13">
+        <f>iferror(lookup(if(AC32="",G32,AC32),{0,1,10,25,50,100,250,500},{0.0,7.76,6.98,6.36,5.93,5.74,5.27,4.79}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="13">
+        <f>iferror(if(AC32="",G32,AC32)*AD32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG32" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH32">
+        <v>26</v>
+      </c>
+      <c r="AJ32" s="13">
+        <f>iferror(lookup(if(AI32="",G32,AI32),{0,1,10},{0.0,6.92189,6.225415}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="13">
+        <f>iferror(if(AI32="",G32,AI32)*AJ32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G33">
         <f>BoardQty*1</f>
@@ -3352,28 +3419,11 @@
         <f>iferror(G33*H33,"")</f>
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>59016</v>
-      </c>
-      <c r="L33" s="13">
-        <f>iferror(lookup(if(K33="",G33,K33),{0,1,10,100,500,1000,3000},{0.0,0.57,0.487,0.3634,0.28552,0.22063,0.1575}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="13">
-        <f>iferror(if(K33="",G33,K33)*L33,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>122</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>110</v>
-      </c>
       <c r="P33">
-        <v>358</v>
+        <v>1067</v>
       </c>
       <c r="R33" s="13">
-        <f>iferror(lookup(if(Q33="",G33,Q33),{0,1,10,100,250,500,1000},{0.0,0.632185,0.426457,0.362167,0.3268075,0.276447,0.162868}),"")</f>
+        <f>iferror(lookup(if(Q33="",G33,Q33),{0,1,20,50,150,400,1250,4000,10000},{0.0,0.4168135,0.3568095,0.2882335,0.244302,0.242159,0.2410875,0.2389445,0.2218005}),"")</f>
         <v>0</v>
       </c>
       <c r="S33" s="13">
@@ -3381,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="V33">
-        <v>6</v>
+        <v>2204</v>
       </c>
       <c r="X33" s="13">
-        <f>iferror(lookup(if(W33="",G33,W33),{0,1,10,25,50,100,250,500,1000,3000},{0.0,0.56,0.487,0.428,0.383,0.364,0.328,0.277,0.164,0.164}),"")</f>
+        <f>iferror(lookup(if(W33="",G33,W33),{0,1,10,25,50,100,250,500,1000},{0.0,0.4,0.352,0.308,0.276,0.263,0.236,0.2,0.119}),"")</f>
         <v>0</v>
       </c>
       <c r="Y33" s="13">
@@ -3398,24 +3448,44 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AA33" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37">
+        <v>126</v>
+      </c>
+      <c r="AB33">
+        <v>173</v>
+      </c>
+      <c r="AD33" s="13">
+        <f>iferror(lookup(if(AC33="",G33,AC33),{0,1,10,100,1000,2000,5000,10000},{0.0,0.381,0.32,0.206,0.165,0.14,0.137,0.132}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="13">
+        <f>iferror(if(AC33="",G33,AC33)*AD33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG33" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
       </c>
       <c r="G34">
-        <f>BoardQty*2</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H34" s="13">
@@ -3426,1740 +3496,2248 @@
         <f>iferror(G34*H34,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:37">
-      <c r="K36">
-        <f t="array" ref="K36">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="array" ref="L36">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="array" ref="M36">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <f t="array" ref="Q36">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <f t="array" ref="R36">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="array" ref="S36">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <f t="array" ref="W36">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <f t="array" ref="X36">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <f t="array" ref="Y36">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <f t="array" ref="AC36">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <f t="array" ref="AD36">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <f t="array" ref="AE36">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <f t="array" ref="AI36">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <f t="array" ref="AJ36">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <f t="array" ref="AK36">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37">
-      <c r="K37">
-        <f t="array" ref="K37">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f t="array" ref="L37">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="array" ref="M37">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <f t="array" ref="Q37">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <f t="array" ref="R37">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="array" ref="S37">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <f t="array" ref="W37">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <f t="array" ref="X37">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <f t="array" ref="Y37">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <f t="array" ref="AC37">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <f t="array" ref="AD37">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <f t="array" ref="AE37">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <f t="array" ref="AI37">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <f t="array" ref="AJ37">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <f t="array" ref="AK37">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37">
-      <c r="K38">
-        <f t="array" ref="K38">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f t="array" ref="L38">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f t="array" ref="M38">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <f t="array" ref="Q38">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <f t="array" ref="R38">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f t="array" ref="S38">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <f t="array" ref="W38">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <f t="array" ref="X38">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <f t="array" ref="Y38">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <f t="array" ref="AC38">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <f t="array" ref="AD38">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <f t="array" ref="AE38">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <f t="array" ref="AI38">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <f t="array" ref="AJ38">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <f t="array" ref="AK38">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37">
-      <c r="K39">
-        <f t="array" ref="K39">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f t="array" ref="L39">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <f t="array" ref="M39">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f t="array" ref="Q39">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <f t="array" ref="R39">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="array" ref="S39">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f t="array" ref="W39">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f t="array" ref="X39">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f t="array" ref="Y39">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="array" ref="AC39">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <f t="array" ref="AD39">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <f t="array" ref="AI39">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <f t="array" ref="AJ39">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <f t="array" ref="AK39">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37">
+      <c r="P34">
+        <v>43</v>
+      </c>
+      <c r="R34" s="13">
+        <f>iferror(lookup(if(Q34="",G34,Q34),{0,1,10,25,50,100,250},{0.0,14.65812,12.654415,11.304325,10.86501,9.77208,9.397055}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="13">
+        <f>iferror(if(Q34="",G34,Q34)*R34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>141</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V34">
+        <v>129</v>
+      </c>
+      <c r="X34" s="13">
+        <f>iferror(lookup(if(W34="",G34,W34),{0,1,5,10,25,50,100,250,500},{0.0,14.59,13.65,13.25,12.26,11.6,11.27,10.24,9.58}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="13">
+        <f>iferror(if(W34="",G34,W34)*X34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB34">
+        <v>10</v>
+      </c>
+      <c r="AD34" s="13">
+        <f>iferror(lookup(if(AC34="",G34,AC34),{0,1,5,10,25,50,100,250,500},{0.0,14.6,13.64,13.27,12.24,11.57,11.28,10.25,9.59}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="13">
+        <f>iferror(if(AC34="",G34,AC34)*AD34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG34" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <f>iferror(G35*H35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB35">
+        <v>2400</v>
+      </c>
+      <c r="AD35" s="13">
+        <f>iferror(lookup(if(AC35="",G35,AC35),{0,1,2400,4800},{0.0,1.88,1.84,1.77}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="13">
+        <f>iferror(if(AC35="",G35,AC35)*AD35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH35">
+        <v>7</v>
+      </c>
+      <c r="AJ35" s="13">
+        <f>iferror(lookup(if(AI35="",G35,AI35),{0,1,25},{0.0,4.62888,3.94312}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13">
+        <f>iferror(if(AI35="",G35,AI35)*AJ35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM35" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <f>BoardQty*2</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <f>iferror(G36*H36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>132563</v>
+      </c>
+      <c r="R36" s="13">
+        <f>iferror(lookup(if(Q36="",G36,Q36),{0,1,100,500,1000,2000},{0.0,0.06429,0.06429,0.04286,0.032145,0.032145}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <f>iferror(if(Q36="",G36,Q36)*R36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>142</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="V36">
+        <v>308885</v>
+      </c>
+      <c r="X36" s="13">
+        <f>iferror(lookup(if(W36="",G36,W36),{0,1,10,100,500,1000,4000,8000,24000},{0.0,0.2,0.08,0.055,0.047,0.038,0.03,0.027,0.025}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="13">
+        <f>iferror(if(W36="",G36,W36)*X36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB36">
+        <v>12000</v>
+      </c>
+      <c r="AD36" s="13">
+        <f>iferror(lookup(if(AC36="",G36,AC36),{0,1,1000,5000},{0.0,0.033,0.033,0.03}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="13">
+        <f>iferror(if(AC36="",G36,AC36)*AD36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG36" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH36">
+        <v>100</v>
+      </c>
+      <c r="AJ36" s="13">
+        <f>iferror(lookup(if(AI36="",G36,AI36),{0,1,100,500},{0.0,0.053575,0.053575,0.0417885}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="13">
+        <f>iferror(if(AI36="",G36,AI36)*AJ36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM36" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37">
+        <f>BoardQty*4</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <f>iferror(G37*H37,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <f>iferror(G38*H38,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
       <c r="K40">
-        <f t="array" ref="K40">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K40">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="array" ref="L40">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L40">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="array" ref="M40">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="array" ref="Q40">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q40">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="array" ref="R40">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R40">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="array" ref="W40">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W40">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="array" ref="X40">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X40">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="array" ref="Y40">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD40">
-        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI40">
-        <f t="array" ref="AI40">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI40">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ40">
-        <f t="array" ref="AJ40">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK40">
-        <f t="array" ref="AK40">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37">
+        <f t="array" ref="AK40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
       <c r="K41">
-        <f t="array" ref="K41">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K41">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="array" ref="L41">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L41">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="array" ref="M41">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="array" ref="Q41">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q41">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="array" ref="R41">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R41">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="array" ref="W41">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W41">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="array" ref="X41">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X41">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="array" ref="Y41">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD41">
-        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="array" ref="AI41">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI41">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ41">
-        <f t="array" ref="AJ41">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK41">
-        <f t="array" ref="AK41">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37">
+        <f t="array" ref="AK41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
       <c r="K42">
-        <f t="array" ref="K42">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K42">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="array" ref="L42">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L42">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="array" ref="M42">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="array" ref="Q42">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q42">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="array" ref="R42">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R42">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="array" ref="W42">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W42">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="array" ref="X42">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X42">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="array" ref="Y42">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="array" ref="AI42">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI42">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ42">
-        <f t="array" ref="AJ42">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK42">
-        <f t="array" ref="AK42">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37">
+        <f t="array" ref="AK42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
       <c r="K43">
-        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="array" ref="Q43">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q43">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="array" ref="R43">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R43">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="array" ref="X43">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X43">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="array" ref="Y43">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD43">
-        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="array" ref="AI43">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI43">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="array" ref="AJ43">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK43">
-        <f t="array" ref="AK43">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37">
+        <f t="array" ref="AK43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
       <c r="K44">
-        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="array" ref="Q44">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q44">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="array" ref="R44">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R44">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="array" ref="X44">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X44">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="array" ref="Y44">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="array" ref="AI44">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI44">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="array" ref="AJ44">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK44">
-        <f t="array" ref="AK44">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37">
+        <f t="array" ref="AK44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
       <c r="K45">
-        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="array" ref="Q45">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q45">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="array" ref="R45">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R45">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="array" ref="X45">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X45">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="array" ref="Y45">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI45">
-        <f t="array" ref="AI45">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI45">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f t="array" ref="AJ45">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK45">
-        <f t="array" ref="AK45">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37">
+        <f t="array" ref="AK45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
       <c r="K46">
-        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="array" ref="Q46">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q46">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="array" ref="R46">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R46">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="array" ref="X46">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X46">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="array" ref="Y46">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI46">
-        <f t="array" ref="AI46">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI46">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="array" ref="AJ46">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK46">
-        <f t="array" ref="AK46">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37">
+        <f t="array" ref="AK46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="array" ref="Q47">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q47">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="array" ref="R47">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R47">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="array" ref="X47">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X47">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="array" ref="Y47">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD47">
-        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI47">
-        <f t="array" ref="AI47">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI47">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK47">
-        <f t="array" ref="AK47">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37">
+        <f t="array" ref="AK47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="array" ref="Q48">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q48">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="array" ref="R48">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R48">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="array" ref="X48">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X48">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="array" ref="Y48">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI48">
-        <f t="array" ref="AI48">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI48">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK48">
-        <f t="array" ref="AK48">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:37">
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="array" ref="Q49">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q49">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="array" ref="R49">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R49">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="array" ref="X49">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X49">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="array" ref="Y49">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD49">
-        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="array" ref="AI49">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI49">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK49">
-        <f t="array" ref="AK49">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:37">
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="array" ref="Q50">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q50">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="array" ref="R50">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R50">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W50">
-        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="array" ref="X50">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X50">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="array" ref="Y50">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD50">
-        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI50">
-        <f t="array" ref="AI50">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI50">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK50">
-        <f t="array" ref="AK50">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:37">
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="array" ref="Q51">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q51">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="array" ref="R51">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R51">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="array" ref="X51">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X51">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="array" ref="Y51">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="array" ref="AI51">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI51">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK51">
-        <f t="array" ref="AK51">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:37">
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="array" ref="Q52">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q52">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="array" ref="R52">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R52">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="array" ref="X52">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X52">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="array" ref="Y52">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD52">
-        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI52">
-        <f t="array" ref="AI52">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI52">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK52">
-        <f t="array" ref="AK52">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:37">
       <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="array" ref="Q53">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q53">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="array" ref="R53">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R53">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="array" ref="X53">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X53">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="array" ref="Y53">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD53">
-        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI53">
-        <f t="array" ref="AI53">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI53">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ53">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="array" ref="AK53">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:37">
       <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="array" ref="Q54">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q54">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="array" ref="R54">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R54">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="array" ref="X54">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X54">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="array" ref="Y54">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD54">
-        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI54">
-        <f t="array" ref="AI54">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI54">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ54">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK54">
-        <f t="array" ref="AK54">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:37">
       <c r="K55">
-        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="array" ref="Q55">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q55">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="array" ref="R55">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R55">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="array" ref="X55">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X55">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="array" ref="Y55">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC55">
-        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD55">
-        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI55">
-        <f t="array" ref="AI55">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI55">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ55">
-        <f t="array" ref="AJ55">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ55">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK55">
-        <f t="array" ref="AK55">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:37">
       <c r="K56">
-        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="array" ref="Q56">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q56">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="array" ref="R56">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R56">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="array" ref="X56">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X56">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="array" ref="Y56">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC56">
-        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD56">
-        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI56">
-        <f t="array" ref="AI56">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI56">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="array" ref="AJ56">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ56">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK56">
-        <f t="array" ref="AK56">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:37">
       <c r="K57">
-        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="array" ref="Q57">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q57">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="array" ref="R57">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R57">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W57">
-        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="array" ref="X57">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X57">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="array" ref="Y57">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC57">
-        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE57">
-        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI57">
-        <f t="array" ref="AI57">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI57">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ57">
-        <f t="array" ref="AJ57">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ57">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK57">
-        <f t="array" ref="AK57">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:37">
       <c r="K58">
-        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="array" ref="Q58">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q58">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="array" ref="R58">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R58">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X58">
-        <f t="array" ref="X58">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X58">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="array" ref="Y58">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC58">
-        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD58">
-        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE58">
-        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI58">
-        <f t="array" ref="AI58">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI58">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ58">
-        <f t="array" ref="AJ58">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ58">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK58">
-        <f t="array" ref="AK58">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:37">
       <c r="K59">
-        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="array" ref="Q59">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q59">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="array" ref="R59">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R59">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="array" ref="X59">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X59">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="array" ref="Y59">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC59">
-        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD59">
-        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI59">
-        <f t="array" ref="AI59">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI59">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="array" ref="AJ59">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ59">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK59">
-        <f t="array" ref="AK59">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:37">
       <c r="K60">
-        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="array" ref="Q60">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q60">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="array" ref="R60">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R60">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W60">
-        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X60">
-        <f t="array" ref="X60">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X60">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="array" ref="Y60">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC60">
-        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD60">
-        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI60">
-        <f t="array" ref="AI60">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI60">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="array" ref="AJ60">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ60">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f t="array" ref="AK60">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="11:37">
       <c r="K61">
-        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="array" ref="Q61">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q61">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="array" ref="R61">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R61">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W61">
-        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X61">
-        <f t="array" ref="X61">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X61">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="array" ref="Y61">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC61">
-        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD61">
-        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI61">
-        <f t="array" ref="AI61">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI61">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f t="array" ref="AJ61">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ61">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK61">
-        <f t="array" ref="AK61">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="11:37">
       <c r="K62">
-        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="array" ref="Q62">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q62">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="array" ref="R62">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R62">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X62">
-        <f t="array" ref="X62">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X62">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="array" ref="Y62">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC62">
-        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD62">
-        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI62">
-        <f t="array" ref="AI62">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI62">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="array" ref="AJ62">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ62">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f t="array" ref="AK62">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="11:37">
       <c r="K63">
-        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($N$7:$N$34&lt;&gt;"",IF($K$7:$K$34&lt;&gt;"",ROW($K$7:$K$34)-MIN(ROW($K$7:$K$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="array" ref="Q63">IFERROR(CONCATENATE((INDEX($T$7:$T$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="Q63">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="array" ref="R63">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R63">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S63">
-        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($T$7:$T$34&lt;&gt;"",IF($Q$7:$Q$34&lt;&gt;"",ROW($Q$7:$Q$34)-MIN(ROW($Q$7:$Q$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($Z$7:$Z$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="array" ref="X63">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X63">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="array" ref="Y63">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($Z$7:$Z$34&lt;&gt;"",IF($W$7:$W$34&lt;&gt;"",ROW($W$7:$W$34)-MIN(ROW($W$7:$W$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="Y63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),","),"")</f>
+        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AF$7:$AF$34&lt;&gt;"",IF($AC$7:$AC$34&lt;&gt;"",ROW($AC$7:$AC$34)-MIN(ROW($AC$7:$AC$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI63">
-        <f t="array" ref="AI63">IFERROR(CONCATENATE((INDEX($AL$7:$AL$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)))," "),"")</f>
+        <f t="array" ref="AI63">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ63">
-        <f t="array" ref="AJ63">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ63">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK63">
-        <f t="array" ref="AK63">IFERROR(CONCATENATE((INDEX($A$7:$A$34,SMALL(IF($AL$7:$AL$34&lt;&gt;"",IF($AI$7:$AI$34&lt;&gt;"",ROW($AI$7:$AI$34)-MIN(ROW($AI$7:$AI$34))+1,""),""),ROW()-ROW(A$36)+1))),),"")</f>
+        <f t="array" ref="AK63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="11:37">
+      <c r="K64">
+        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="array" ref="Q64">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="array" ref="R64">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f t="array" ref="X64">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="array" ref="Y64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <f t="array" ref="AI64">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <f t="array" ref="AJ64">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <f t="array" ref="AK64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="11:37">
+      <c r="K65">
+        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="array" ref="Q65">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="array" ref="R65">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="array" ref="X65">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <f t="array" ref="Y65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <f t="array" ref="AI65">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <f t="array" ref="AJ65">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <f t="array" ref="AK65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="11:37">
+      <c r="K66">
+        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="array" ref="Q66">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="array" ref="R66">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="array" ref="X66">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="array" ref="Y66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <f t="array" ref="AI66">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <f t="array" ref="AJ66">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <f t="array" ref="AK66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="11:37">
+      <c r="K67">
+        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="array" ref="Q67">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="array" ref="R67">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="array" ref="X67">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="array" ref="Y67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <f t="array" ref="AI67">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <f t="array" ref="AJ67">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <f t="array" ref="AK67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="11:37">
+      <c r="K68">
+        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="array" ref="Q68">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="array" ref="R68">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="array" ref="X68">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="array" ref="Y68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <f t="array" ref="AI68">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <f t="array" ref="AJ68">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <f t="array" ref="AK68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="11:37">
+      <c r="K69">
+        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="array" ref="Q69">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="array" ref="R69">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="array" ref="X69">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="array" ref="Y69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <f t="array" ref="AI69">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <f t="array" ref="AJ69">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <f t="array" ref="AK69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="11:37">
+      <c r="K70">
+        <f t="array" ref="K70">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="array" ref="L70">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="array" ref="M70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="array" ref="Q70">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="array" ref="R70">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="array" ref="S70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="array" ref="W70">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f t="array" ref="X70">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f t="array" ref="Y70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="array" ref="AC70">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <f t="array" ref="AD70">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <f t="array" ref="AE70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <f t="array" ref="AI70">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <f t="array" ref="AJ70">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <f t="array" ref="AK70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="11:37">
+      <c r="K71">
+        <f t="array" ref="K71">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="array" ref="L71">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f t="array" ref="M71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="array" ref="Q71">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="array" ref="R71">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="array" ref="S71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="array" ref="W71">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <f t="array" ref="X71">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f t="array" ref="Y71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <f t="array" ref="AC71">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <f t="array" ref="AD71">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <f t="array" ref="AE71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <f t="array" ref="AI71">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <f t="array" ref="AJ71">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <f t="array" ref="AK71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -5173,28 +5751,38 @@
     <mergeCell ref="AH5:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="AD10">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
     <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD14">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD18">
     <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD18">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD21">
     <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD20">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD23">
     <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD22">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24">
     <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
-      <formula>H22</formula>
+      <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
@@ -5207,44 +5795,79 @@
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD27">
+  <conditionalFormatting sqref="AD28">
     <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD29">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
     <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD32">
     <cfRule type="cellIs" dxfId="0" priority="89" operator="lessThanOrEqual">
-      <formula>H31</formula>
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
+      <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="0" priority="72" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE18">
     <cfRule type="cellIs" dxfId="0" priority="74" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE18">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
     <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
     <cfRule type="cellIs" dxfId="0" priority="80" operator="lessThanOrEqual">
-      <formula>I22</formula>
+      <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE25">
@@ -5257,534 +5880,580 @@
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+  <conditionalFormatting sqref="AE28">
     <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
     <cfRule type="cellIs" dxfId="0" priority="88" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="0" priority="92" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ19">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="lessThanOrEqual">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19">
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="cellIs" dxfId="0" priority="120" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ19">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="cellIs" dxfId="0" priority="96" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK19">
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
     <cfRule type="cellIs" dxfId="0" priority="100" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK26">
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="cellIs" dxfId="0" priority="108" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="R14">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThanOrEqual">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="R16">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThanOrEqual">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
+  <conditionalFormatting sqref="R28">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="R32">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="R34">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="S14">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
+  <conditionalFormatting sqref="S16">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThanOrEqual">
       <formula>I19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y26">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y31">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y32">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y33">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
+  <conditionalFormatting sqref="Y34">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y36">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
     <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S31">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S33">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X30">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X33">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y30">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y33">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
-      <formula>I8</formula>
+      <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O8" r:id="rId1"/>
-    <hyperlink ref="U8" r:id="rId2"/>
-    <hyperlink ref="AA8" r:id="rId3"/>
-    <hyperlink ref="AG8" r:id="rId4"/>
-    <hyperlink ref="AM8" r:id="rId5"/>
-    <hyperlink ref="O10" r:id="rId6"/>
-    <hyperlink ref="U10" r:id="rId7"/>
-    <hyperlink ref="AA10" r:id="rId8"/>
-    <hyperlink ref="AG10" r:id="rId9"/>
-    <hyperlink ref="AM10" r:id="rId10"/>
-    <hyperlink ref="O14" r:id="rId11"/>
-    <hyperlink ref="U14" r:id="rId12"/>
-    <hyperlink ref="AA14" r:id="rId13"/>
-    <hyperlink ref="AG14" r:id="rId14"/>
-    <hyperlink ref="AM14" r:id="rId15"/>
-    <hyperlink ref="U18" r:id="rId16"/>
-    <hyperlink ref="AG18" r:id="rId17"/>
-    <hyperlink ref="O19" r:id="rId18"/>
-    <hyperlink ref="AA19" r:id="rId19"/>
-    <hyperlink ref="AG19" r:id="rId20"/>
-    <hyperlink ref="AM19" r:id="rId21"/>
-    <hyperlink ref="O20" r:id="rId22"/>
-    <hyperlink ref="U20" r:id="rId23"/>
-    <hyperlink ref="AA20" r:id="rId24"/>
-    <hyperlink ref="AG20" r:id="rId25"/>
-    <hyperlink ref="AM20" r:id="rId26"/>
-    <hyperlink ref="O22" r:id="rId27"/>
-    <hyperlink ref="U22" r:id="rId28"/>
-    <hyperlink ref="AA22" r:id="rId29"/>
-    <hyperlink ref="AG22" r:id="rId30"/>
-    <hyperlink ref="O25" r:id="rId31"/>
-    <hyperlink ref="U25" r:id="rId32"/>
-    <hyperlink ref="AA25" r:id="rId33"/>
-    <hyperlink ref="AG25" r:id="rId34"/>
-    <hyperlink ref="AM25" r:id="rId35"/>
-    <hyperlink ref="O26" r:id="rId36"/>
-    <hyperlink ref="U26" r:id="rId37"/>
-    <hyperlink ref="AA26" r:id="rId38"/>
-    <hyperlink ref="AG26" r:id="rId39"/>
-    <hyperlink ref="AM26" r:id="rId40"/>
-    <hyperlink ref="O27" r:id="rId41"/>
-    <hyperlink ref="U27" r:id="rId42"/>
-    <hyperlink ref="AA27" r:id="rId43"/>
-    <hyperlink ref="AG27" r:id="rId44"/>
-    <hyperlink ref="AM27" r:id="rId45"/>
-    <hyperlink ref="O29" r:id="rId46"/>
-    <hyperlink ref="U29" r:id="rId47"/>
-    <hyperlink ref="AA29" r:id="rId48"/>
-    <hyperlink ref="AG29" r:id="rId49"/>
-    <hyperlink ref="AM29" r:id="rId50"/>
-    <hyperlink ref="AA30" r:id="rId51"/>
-    <hyperlink ref="AG30" r:id="rId52"/>
-    <hyperlink ref="AM30" r:id="rId53"/>
-    <hyperlink ref="O31" r:id="rId54"/>
-    <hyperlink ref="U31" r:id="rId55"/>
-    <hyperlink ref="AA31" r:id="rId56"/>
-    <hyperlink ref="AG31" r:id="rId57"/>
-    <hyperlink ref="O33" r:id="rId58"/>
-    <hyperlink ref="U33" r:id="rId59"/>
-    <hyperlink ref="AA33" r:id="rId60"/>
+    <hyperlink ref="U7" r:id="rId1"/>
+    <hyperlink ref="AA7" r:id="rId2"/>
+    <hyperlink ref="AG7" r:id="rId3"/>
+    <hyperlink ref="AM7" r:id="rId4"/>
+    <hyperlink ref="U10" r:id="rId5"/>
+    <hyperlink ref="AA10" r:id="rId6"/>
+    <hyperlink ref="AG10" r:id="rId7"/>
+    <hyperlink ref="AM10" r:id="rId8"/>
+    <hyperlink ref="AA11" r:id="rId9"/>
+    <hyperlink ref="AG11" r:id="rId10"/>
+    <hyperlink ref="U14" r:id="rId11"/>
+    <hyperlink ref="AA14" r:id="rId12"/>
+    <hyperlink ref="AG14" r:id="rId13"/>
+    <hyperlink ref="AM14" r:id="rId14"/>
+    <hyperlink ref="U16" r:id="rId15"/>
+    <hyperlink ref="AG16" r:id="rId16"/>
+    <hyperlink ref="U18" r:id="rId17"/>
+    <hyperlink ref="AA18" r:id="rId18"/>
+    <hyperlink ref="AG18" r:id="rId19"/>
+    <hyperlink ref="U19" r:id="rId20"/>
+    <hyperlink ref="AA19" r:id="rId21"/>
+    <hyperlink ref="AM19" r:id="rId22"/>
+    <hyperlink ref="U21" r:id="rId23"/>
+    <hyperlink ref="AA21" r:id="rId24"/>
+    <hyperlink ref="AG21" r:id="rId25"/>
+    <hyperlink ref="AM21" r:id="rId26"/>
+    <hyperlink ref="U23" r:id="rId27"/>
+    <hyperlink ref="AA23" r:id="rId28"/>
+    <hyperlink ref="AG23" r:id="rId29"/>
+    <hyperlink ref="U24" r:id="rId30"/>
+    <hyperlink ref="AA24" r:id="rId31"/>
+    <hyperlink ref="AG24" r:id="rId32"/>
+    <hyperlink ref="AM24" r:id="rId33"/>
+    <hyperlink ref="U25" r:id="rId34"/>
+    <hyperlink ref="AA25" r:id="rId35"/>
+    <hyperlink ref="AG25" r:id="rId36"/>
+    <hyperlink ref="AM25" r:id="rId37"/>
+    <hyperlink ref="U26" r:id="rId38"/>
+    <hyperlink ref="AA26" r:id="rId39"/>
+    <hyperlink ref="AG26" r:id="rId40"/>
+    <hyperlink ref="AM26" r:id="rId41"/>
+    <hyperlink ref="U28" r:id="rId42"/>
+    <hyperlink ref="AA28" r:id="rId43"/>
+    <hyperlink ref="AG28" r:id="rId44"/>
+    <hyperlink ref="AM28" r:id="rId45"/>
+    <hyperlink ref="U29" r:id="rId46"/>
+    <hyperlink ref="AA29" r:id="rId47"/>
+    <hyperlink ref="AG29" r:id="rId48"/>
+    <hyperlink ref="AM29" r:id="rId49"/>
+    <hyperlink ref="U31" r:id="rId50"/>
+    <hyperlink ref="AA31" r:id="rId51"/>
+    <hyperlink ref="AG31" r:id="rId52"/>
+    <hyperlink ref="AM31" r:id="rId53"/>
+    <hyperlink ref="U32" r:id="rId54"/>
+    <hyperlink ref="AA32" r:id="rId55"/>
+    <hyperlink ref="AG32" r:id="rId56"/>
+    <hyperlink ref="AM32" r:id="rId57"/>
+    <hyperlink ref="U33" r:id="rId58"/>
+    <hyperlink ref="AA33" r:id="rId59"/>
+    <hyperlink ref="AG33" r:id="rId60"/>
+    <hyperlink ref="U34" r:id="rId61"/>
+    <hyperlink ref="AA34" r:id="rId62"/>
+    <hyperlink ref="AG34" r:id="rId63"/>
+    <hyperlink ref="U35" r:id="rId64"/>
+    <hyperlink ref="AA35" r:id="rId65"/>
+    <hyperlink ref="AG35" r:id="rId66"/>
+    <hyperlink ref="AM35" r:id="rId67"/>
+    <hyperlink ref="U36" r:id="rId68"/>
+    <hyperlink ref="AA36" r:id="rId69"/>
+    <hyperlink ref="AG36" r:id="rId70"/>
+    <hyperlink ref="AM36" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId61"/>
+  <legacyDrawing r:id="rId72"/>
 </worksheet>
 </file>
--- a/KiCad/out/bom/FreeEEG32.xlsx
+++ b/KiCad/out/bom/FreeEEG32.xlsx
@@ -11,12 +11,12 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'FreeEEG32'!$I$1</definedName>
-    <definedName name="digikey_part_data">'FreeEEG32'!$J$5:$O$38</definedName>
-    <definedName name="farnell_part_data">'FreeEEG32'!$P$5:$U$38</definedName>
-    <definedName name="global_part_data">'FreeEEG32'!$A$5:$I$38</definedName>
-    <definedName name="mouser_part_data">'FreeEEG32'!$V$5:$AA$38</definedName>
-    <definedName name="newark_part_data">'FreeEEG32'!$AB$5:$AG$38</definedName>
-    <definedName name="rs_part_data">'FreeEEG32'!$AH$5:$AM$38</definedName>
+    <definedName name="digikey_part_data">'FreeEEG32'!$J$5:$O$37</definedName>
+    <definedName name="farnell_part_data">'FreeEEG32'!$P$5:$U$37</definedName>
+    <definedName name="global_part_data">'FreeEEG32'!$A$5:$I$37</definedName>
+    <definedName name="mouser_part_data">'FreeEEG32'!$V$5:$AA$37</definedName>
+    <definedName name="newark_part_data">'FreeEEG32'!$AB$5:$AG$37</definedName>
+    <definedName name="rs_part_data">'FreeEEG32'!$AH$5:$AM$37</definedName>
     <definedName name="TotalCost">'FreeEEG32'!$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -597,127 +597,124 @@
     <t>P11</t>
   </si>
   <si>
+    <t>PBS-3</t>
+  </si>
+  <si>
     <t>Socket_Strips:Socket_Strip_Straight_1x03</t>
   </si>
   <si>
     <t>CONN_01X03</t>
   </si>
   <si>
+    <t>U1,U2,U39</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-3.3</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>ADP7118AUJZ-3.3_TSOT</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>DA2303</t>
+  </si>
+  <si>
+    <t>SMT_Power_Transformer:SMT Power Transformer</t>
+  </si>
+  <si>
+    <t>da2303</t>
+  </si>
+  <si>
+    <t>P6,P7</t>
+  </si>
+  <si>
+    <t>PBD-3</t>
+  </si>
+  <si>
+    <t>Socket_Strips:Socket_Strip_Straight_2x03</t>
+  </si>
+  <si>
+    <t>CONN_02X03</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>MBR0520LT1G</t>
+  </si>
+  <si>
+    <t>SOD-123:SOD−123</t>
+  </si>
+  <si>
+    <t>D_Schottky_SMD</t>
+  </si>
+  <si>
+    <t>C1,C5-C11,C16-C24,C26-C28,C34,C39-C50,C52,C57,C62-C72,C78,C83-C93,C99-C101,C103-C105,C107-C110,C115,C118</t>
+  </si>
+  <si>
+    <t>MC0402B104K160CT</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0402</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>KX-9A 8.0 MHz</t>
+  </si>
+  <si>
+    <t>Crystals:Crystal_SMD_5032_4Pads</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>7W-8.192MBA-T</t>
+  </si>
+  <si>
+    <t>osc_smd0705c:oscillator_SMD_7050_4Pads</t>
+  </si>
+  <si>
+    <t>8.192MHz</t>
+  </si>
+  <si>
+    <t>U36</t>
+  </si>
+  <si>
+    <t>ISO7341CDW</t>
+  </si>
+  <si>
+    <t>Housings_SOIC:SOIC-16_7.5x10.3mm_Pitch1.27mm</t>
+  </si>
+  <si>
+    <t>ISO7341c_spi</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_SMD:SW_SPST_B3U-1000P-B</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
     <t>U35</t>
   </si>
   <si>
-    <t>ISO7342CDW</t>
-  </si>
-  <si>
-    <t>Housings_SOIC:SOIC-16_7.5x10.3mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>ISO7342c_uart</t>
-  </si>
-  <si>
-    <t>U1,U2,U39</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-3.3</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SOT-23-5</t>
-  </si>
-  <si>
-    <t>ADP7118AUJZ-3.3_TSOT</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>DA2303-ALD</t>
-  </si>
-  <si>
-    <t>SMT_Power_Transformer:SMT Power Transformer</t>
-  </si>
-  <si>
-    <t>da2303</t>
-  </si>
-  <si>
-    <t>P6,P7</t>
-  </si>
-  <si>
-    <t>Socket_Strips:Socket_Strip_Straight_2x03</t>
-  </si>
-  <si>
-    <t>CONN_02X03</t>
-  </si>
-  <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
-    <t>MBR0520LT1G</t>
-  </si>
-  <si>
-    <t>SOD-123:SOD−123</t>
-  </si>
-  <si>
-    <t>D_Schottky_SMD</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>STM32F427ZI_4side</t>
-  </si>
-  <si>
-    <t>C1,C5-C11,C16-C24,C26-C28,C34,C39-C50,C52,C57,C62-C72,C78,C83-C93,C99-C101,C103-C105,C107-C110,C115,C118</t>
-  </si>
-  <si>
-    <t>MC0402B104K160CT</t>
-  </si>
-  <si>
-    <t>Capacitors_SMD:C_0402</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>KX-9A 8.0 MHz</t>
-  </si>
-  <si>
-    <t>Crystals:Crystal_SMD_5032_4Pads</t>
-  </si>
-  <si>
-    <t>8MHz</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>7W-8.192MBC-T</t>
-  </si>
-  <si>
-    <t>osc_smd0705c:oscillator_SMD_7050_4Pads</t>
-  </si>
-  <si>
-    <t>8.192MHz</t>
-  </si>
-  <si>
-    <t>U36</t>
-  </si>
-  <si>
-    <t>ISO7341CDW</t>
-  </si>
-  <si>
-    <t>ISO7341c_spi</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>Buttons_Switches_SMD:SW_SPST_B3U-1000P-B</t>
-  </si>
-  <si>
-    <t>NRST</t>
+    <t>ADUM1402BRWZ</t>
   </si>
   <si>
     <t>D3</t>
@@ -744,7 +741,25 @@
     <t>Housings_DFN_QFN:QFN-24-1EP_4x4mm_Pitch0.5mm</t>
   </si>
   <si>
-    <t>CP2102N-24</t>
+    <t>C2,C12-C15,C25,C29-C33,C35-C38,C51,C53-C56,C58-C61,C73-C77,C79-C82,C94-C98,C116</t>
+  </si>
+  <si>
+    <t>GRM155R60J105KE19D</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>U8-U11,U15-U18,U22-U25,U29-U32</t>
+  </si>
+  <si>
+    <t>TPD4E1B06DCKR</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SC-70-6</t>
+  </si>
+  <si>
+    <t>TPD4E1B06</t>
   </si>
   <si>
     <t>C102,C117,C119-C124</t>
@@ -759,27 +774,6 @@
     <t>2.2u</t>
   </si>
   <si>
-    <t>C2,C12-C15,C25,C29-C33,C35-C38,C51,C53-C56,C58-C61,C73-C77,C79-C82,C94-C98,C116</t>
-  </si>
-  <si>
-    <t>GRM155R60J105KE19D</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>U8-U11,U15-U18,U22-U25,U29-U32</t>
-  </si>
-  <si>
-    <t>TPD4E1B06DCKR</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SC-70-6</t>
-  </si>
-  <si>
-    <t>TPD4E1B06</t>
-  </si>
-  <si>
     <t>U12</t>
   </si>
   <si>
@@ -927,16 +921,13 @@
     <t>2507107</t>
   </si>
   <si>
-    <t>2455501</t>
-  </si>
-  <si>
     <t>9556915</t>
   </si>
   <si>
     <t>1758896</t>
   </si>
   <si>
-    <t>2396800</t>
+    <t>1226224</t>
   </si>
   <si>
     <t>1827633</t>
@@ -945,15 +936,15 @@
     <t>2577278</t>
   </si>
   <si>
+    <t>1845729</t>
+  </si>
+  <si>
+    <t>2496528</t>
+  </si>
+  <si>
     <t>2494231</t>
   </si>
   <si>
-    <t>1845729</t>
-  </si>
-  <si>
-    <t>2496528</t>
-  </si>
-  <si>
     <t>2293836</t>
   </si>
   <si>
@@ -978,67 +969,46 @@
     <t>595-SN6505ADBVT</t>
   </si>
   <si>
-    <t>595-ISO7342CDW</t>
-  </si>
-  <si>
-    <t>863-MBR0520LT1G</t>
+    <t>604-APBD3224LZGKSYKC</t>
   </si>
   <si>
     <t>595-ISO7341CDW</t>
   </si>
   <si>
+    <t>584-ADUM1402BRWZ</t>
+  </si>
+  <si>
     <t>576-SP0503BAHTG</t>
   </si>
   <si>
     <t>634-CP2102NA01GQFN24</t>
   </si>
   <si>
-    <t>81-GRM18R60J225KE19D</t>
-  </si>
-  <si>
-    <t>81-GRM155R60J105KE19</t>
-  </si>
-  <si>
     <t>595-TPD4E1B06DCKR</t>
   </si>
   <si>
-    <t>538-105017-0001</t>
-  </si>
-  <si>
     <t>511-STM32F427ZIT6</t>
   </si>
   <si>
-    <t>81-GRM18R60J475KE19D</t>
-  </si>
-  <si>
-    <t>584-ADR4525BRZ</t>
-  </si>
-  <si>
     <t>595-TLV73333PDBVT</t>
   </si>
   <si>
     <t>584-AD7770ACPZ</t>
   </si>
   <si>
-    <t>81-GRM188R61A106KE9D</t>
-  </si>
-  <si>
     <t>Newark</t>
   </si>
   <si>
     <t>75Y3105</t>
   </si>
   <si>
-    <t>93X6704</t>
-  </si>
-  <si>
     <t>48K7498</t>
   </si>
   <si>
     <t>33R0276</t>
   </si>
   <si>
-    <t>29X6514</t>
+    <t>86R1626</t>
   </si>
   <si>
     <t>92K8959</t>
@@ -1047,15 +1017,15 @@
     <t>91Y4214</t>
   </si>
   <si>
+    <t>03AC2550</t>
+  </si>
+  <si>
+    <t>58Y3907</t>
+  </si>
+  <si>
     <t>55Y9853</t>
   </si>
   <si>
-    <t>03AC2550</t>
-  </si>
-  <si>
-    <t>58Y3907</t>
-  </si>
-  <si>
     <t>78R1699</t>
   </si>
   <si>
@@ -1083,7 +1053,7 @@
     <t>133-0700</t>
   </si>
   <si>
-    <t>900-9905</t>
+    <t>860-8918</t>
   </si>
   <si>
     <t>463-432</t>
@@ -1095,13 +1065,13 @@
     <t>793-1967</t>
   </si>
   <si>
+    <t>723-5180</t>
+  </si>
+  <si>
+    <t>825-5330</t>
+  </si>
+  <si>
     <t>723-5547</t>
-  </si>
-  <si>
-    <t>723-5180</t>
-  </si>
-  <si>
-    <t>825-5330</t>
   </si>
   <si>
     <t>848-6764</t>
@@ -1584,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
@@ -1638,7 +1608,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I1" s="2">
         <v>100</v>
@@ -1646,36 +1616,36 @@
     </row>
     <row r="2" spans="1:39">
       <c r="H2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="4">
-        <f>sum(I7:I38)</f>
+        <f>sum(I7:I37)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>sum(M7:M38)</f>
+        <f>sum(M7:M37)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>sum(S7:S38)</f>
+        <f>sum(S7:S37)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>sum(Y7:Y38)</f>
+        <f>sum(Y7:Y37)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>sum(AE7:AE38)</f>
+        <f>sum(AE7:AE37)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="4">
-        <f>sum(AK7:AK38)</f>
+        <f>sum(AK7:AK37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" s="5">
         <f>TotalCost/BoardQty</f>
@@ -1695,7 +1665,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1703,7 +1673,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1711,7 +1681,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1719,7 +1689,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
@@ -1727,7 +1697,7 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
@@ -1764,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>3</v>
@@ -1776,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>3</v>
@@ -1794,16 +1764,16 @@
         <v>2</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="X6" s="12" t="s">
         <v>3</v>
@@ -1812,16 +1782,16 @@
         <v>2</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC6" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="AD6" s="12" t="s">
         <v>3</v>
@@ -1830,16 +1800,16 @@
         <v>2</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI6" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="AH6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI6" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>3</v>
@@ -1848,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1880,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="R7" s="13">
         <f>iferror(lookup(if(Q7="",G7,Q7),{0,1,10,100,250,500},{0.0,4.275285,4.275285,3.975265,3.77168,2.65732}),"")</f>
@@ -1891,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V7">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="X7" s="13">
         <f>iferror(lookup(if(W7="",G7,W7),{0,1,10,25,50,100,250,500,1000},{0.0,5.34,4.8,4.47,4.23,3.93,3.73,3.35,2.62}),"")</f>
@@ -1908,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB7">
         <v>325</v>
@@ -1925,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AG7" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH7">
         <v>250</v>
@@ -1942,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AM7" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1979,9 +1949,12 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9">
@@ -1996,22 +1969,25 @@
         <f>iferror(G9*H9,"")</f>
         <v>0</v>
       </c>
+      <c r="AG9" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
       <c r="G10">
-        <f>BoardQty*1</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H10" s="13">
@@ -2022,90 +1998,25 @@
         <f>iferror(G10*H10,"")</f>
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>41</v>
-      </c>
-      <c r="R10" s="13">
-        <f>iferror(lookup(if(Q10="",G10,Q10),{0,1,5,10,40,100,400,1250},{0.0,5.796815,5.20749,4.361005,4.125275,3.632385,3.075205,2.50731}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
-        <f>iferror(if(Q10="",G10,Q10)*R10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V10">
-        <v>291</v>
-      </c>
-      <c r="X10" s="13">
-        <f>iferror(lookup(if(W10="",G10,W10),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
-        <f>iferror(if(W10="",G10,W10)*X10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA10" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB10">
-        <v>18</v>
-      </c>
-      <c r="AD10" s="13">
-        <f>iferror(lookup(if(AC10="",G10,AC10),{0,1,10,25,50,100,250,500},{0.0,5.81,5.14,4.8,4.54,4.22,4.0,3.59}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="13">
-        <f>iferror(if(AC10="",G10,AC10)*AD10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>162</v>
-      </c>
       <c r="AG10" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH10">
-        <v>40</v>
-      </c>
-      <c r="AJ10" s="13">
-        <f>iferror(lookup(if(AI10="",G10,AI10),{0,1,2,10},{0.0,4.35029,4.35029,4.1306325}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="13">
-        <f>iferror(if(AI10="",G10,AI10)*AJ10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AM10" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
       <c r="G11">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H11" s="13">
@@ -2116,28 +2027,22 @@
         <f>iferror(G11*H11,"")</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG11" s="14" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
       <c r="G12">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H12" s="13">
@@ -2148,16 +2053,53 @@
         <f>iferror(G12*H12,"")</f>
         <v>0</v>
       </c>
+      <c r="V12">
+        <v>1350</v>
+      </c>
+      <c r="X12" s="13">
+        <f>iferror(lookup(if(W12="",G12,W12),{0,1,10,100,1500,3000,9000,24000},{0.0,0.69,0.44,0.296,0.234,0.21,0.207,0.202}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <f>iferror(if(W12="",G12,W12)*X12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH12">
+        <v>350</v>
+      </c>
+      <c r="AJ12" s="13">
+        <f>iferror(lookup(if(AI12="",G12,AI12),{0,1,25,100},{0.0,0.27859,0.27859,0.229301}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <f>iferror(if(AI12="",G12,AI12)*AJ12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
       </c>
       <c r="G13">
         <f>BoardQty*2</f>
@@ -2171,22 +2113,73 @@
         <f>iferror(G13*H13,"")</f>
         <v>0</v>
       </c>
+      <c r="P13">
+        <v>33285</v>
+      </c>
+      <c r="R13" s="13">
+        <f>iferror(lookup(if(Q13="",G13,Q13),{0,1,80,250,750,1500},{0.0,0.096435,0.096435,0.096435,0.06429,0.053575}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <f>iferror(if(Q13="",G13,Q13)*R13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB13">
+        <v>825</v>
+      </c>
+      <c r="AD13" s="13">
+        <f>iferror(lookup(if(AC13="",G13,AC13),{0,1,10,25,50,100,500,1000},{0.0,0.32,0.221,0.178,0.135,0.092,0.078,0.063}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
+        <f>iferror(if(AC13="",G13,AC13)*AD13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH13">
+        <v>400</v>
+      </c>
+      <c r="AJ13" s="13">
+        <f>iferror(lookup(if(AI13="",G13,AI13),{0,1,100,200},{0.0,0.08572,0.08572,0.077148}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <f>iferror(if(AI13="",G13,AI13)*AJ13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM13" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
       <c r="G14">
-        <f>BoardQty*2</f>
+        <f>BoardQty*70</f>
         <v>0</v>
       </c>
       <c r="H14" s="13">
@@ -2198,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>33330</v>
+        <v>83473</v>
       </c>
       <c r="R14" s="13">
-        <f>iferror(lookup(if(Q14="",G14,Q14),{0,1,80,250,750,1500},{0.0,0.096435,0.096435,0.096435,0.06429,0.053575}),"")</f>
+        <f>iferror(lookup(if(Q14="",G14,Q14),{0,1,100,500,2500,5000},{0.0,0.0,0.0,0.0,0.0,0.0}),"")</f>
         <v>0</v>
       </c>
       <c r="S14" s="13">
@@ -2209,33 +2202,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V14">
-        <v>30077</v>
-      </c>
-      <c r="X14" s="13">
-        <f>iferror(lookup(if(W14="",G14,W14),{0,1,10,100,1000,3000,9000,24000,45000,99000},{0.0,0.32,0.22,0.092,0.063,0.049,0.042,0.039,0.037,0.032}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="13">
-        <f>iferror(if(W14="",G14,W14)*X14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB14">
-        <v>825</v>
+        <v>50350</v>
       </c>
       <c r="AD14" s="13">
-        <f>iferror(lookup(if(AC14="",G14,AC14),{0,1,10,25,50,100,500,1000},{0.0,0.32,0.221,0.178,0.135,0.092,0.078,0.063}),"")</f>
+        <f>iferror(lookup(if(AC14="",G14,AC14),{0,1,10,25,100,250,500,1000},{0.0,0.014,0.014,0.01,0.007,0.006,0.005,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AE14" s="13">
@@ -2243,35 +2219,24 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AG14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH14">
-        <v>400</v>
-      </c>
-      <c r="AJ14" s="13">
-        <f>iferror(lookup(if(AI14="",G14,AI14),{0,1,100,200},{0.0,0.08572,0.08572,0.077148}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="13">
-        <f>iferror(if(AI14="",G14,AI14)*AJ14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM14" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
       </c>
       <c r="G15">
         <f>BoardQty*1</f>
@@ -2288,19 +2253,19 @@
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G16">
-        <f>BoardQty*70</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H16" s="13">
@@ -2311,28 +2276,14 @@
         <f>iferror(G16*H16,"")</f>
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>83923</v>
-      </c>
-      <c r="R16" s="13">
-        <f>iferror(lookup(if(Q16="",G16,Q16),{0,1,100,500,2500,5000},{0.0,0.0,0.0,0.0,0.0,0.0}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
-        <f>iferror(if(Q16="",G16,Q16)*R16,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>130</v>
-      </c>
       <c r="U16" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB16">
-        <v>50350</v>
+        <v>12</v>
       </c>
       <c r="AD16" s="13">
-        <f>iferror(lookup(if(AC16="",G16,AC16),{0,1,10,25,100,250,500,1000},{0.0,0.014,0.014,0.01,0.007,0.006,0.005,0.004}),"")</f>
+        <f>iferror(lookup(if(AC16="",G16,AC16),{0,1,10,50,100,500},{0.0,3.19,2.77,2.43,1.92,1.62}),"")</f>
         <v>0</v>
       </c>
       <c r="AE16" s="13">
@@ -2340,24 +2291,24 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AG16" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <f>BoardQty*1</f>
@@ -2371,19 +2322,56 @@
         <f>iferror(G17*H17,"")</f>
         <v>0</v>
       </c>
+      <c r="U17" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17">
+        <v>641</v>
+      </c>
+      <c r="X17" s="13">
+        <f>iferror(lookup(if(W17="",G17,W17),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="13">
+        <f>iferror(if(W17="",G17,W17)*X17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG17" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH17">
+        <v>136</v>
+      </c>
+      <c r="AJ17" s="13">
+        <f>iferror(lookup(if(AI17="",G17,AI17),{0,1,2,10},{0.0,4.9985475,4.9985475,4.4842275}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="13">
+        <f>iferror(if(AI17="",G17,AI17)*AJ17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM17" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G18">
         <f>BoardQty*1</f>
@@ -2397,56 +2385,19 @@
         <f>iferror(G18*H18,"")</f>
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>656</v>
-      </c>
-      <c r="R18" s="13">
-        <f>iferror(lookup(if(Q18="",G18,Q18),{0,1,10,50,100,500},{0.0,1.553675,1.47867,1.446525,1.232225,1.20008}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="13">
-        <f>iferror(if(Q18="",G18,Q18)*R18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA18" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB18">
-        <v>656</v>
-      </c>
-      <c r="AD18" s="13">
-        <f>iferror(lookup(if(AC18="",G18,AC18),{0,1,10,50,100,500},{0.0,1.47,1.4,1.37,1.17,1.14}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="13">
-        <f>iferror(if(AC18="",G18,AC18)*AD18,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG18" s="14" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <f>BoardQty*1</f>
@@ -2460,14 +2411,28 @@
         <f>iferror(G19*H19,"")</f>
         <v>0</v>
       </c>
+      <c r="P19">
+        <v>902</v>
+      </c>
+      <c r="R19" s="13">
+        <f>iferror(lookup(if(Q19="",G19,Q19),{0,1,5,10,40,100,400,1000},{0.0,6.246845,5.625375,4.52173,4.232425,3.718105,3.310935,2.860905}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <f>iferror(if(Q19="",G19,Q19)*R19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>128</v>
+      </c>
       <c r="U19" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V19">
-        <v>641</v>
+        <v>69</v>
       </c>
       <c r="X19" s="13">
-        <f>iferror(lookup(if(W19="",G19,W19),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
+        <f>iferror(lookup(if(W19="",G19,W19),{0,1,10,25,50,100,250,500,1000},{0.0,5.73,5.13,4.61,4.32,4.2,3.78,3.38,2.97}),"")</f>
         <v>0</v>
       </c>
       <c r="Y19" s="13">
@@ -2475,38 +2440,30 @@
         <v>0</v>
       </c>
       <c r="Z19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH19">
-        <v>136</v>
-      </c>
-      <c r="AJ19" s="13">
-        <f>iferror(lookup(if(AI19="",G19,AI19),{0,1,2,10},{0.0,4.9985475,4.9985475,4.4842275}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="13">
-        <f>iferror(if(AI19="",G19,AI19)*AJ19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>182</v>
+        <v>124</v>
+      </c>
+      <c r="AG19" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="AM19" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
       </c>
       <c r="G20">
         <f>BoardQty*1</f>
@@ -2520,19 +2477,84 @@
         <f>iferror(G20*H20,"")</f>
         <v>0</v>
       </c>
+      <c r="P20">
+        <v>785</v>
+      </c>
+      <c r="R20" s="13">
+        <f>iferror(lookup(if(Q20="",G20,Q20),{0,1,10,40,100,300,1000,3000,10000},{0.0,0.62147,0.62147,0.62147,0.53575,0.45003,0.36431,0.27859,0.27859}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <f>iferror(if(Q20="",G20,Q20)*R20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V20">
+        <v>10071</v>
+      </c>
+      <c r="X20" s="13">
+        <f>iferror(lookup(if(W20="",G20,W20),{0,1,10,100,500,1000,3000,9000},{0.0,0.88,0.678,0.515,0.438,0.351,0.287,0.277}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="13">
+        <f>iferror(if(W20="",G20,W20)*X20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB20">
+        <v>1211</v>
+      </c>
+      <c r="AD20" s="13">
+        <f>iferror(lookup(if(AC20="",G20,AC20),{0,1,10,25,100,250,500,1000},{0.0,0.874,0.769,0.68,0.593,0.516,0.439,0.352}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13">
+        <f>iferror(if(AC20="",G20,AC20)*AD20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH20">
+        <v>40</v>
+      </c>
+      <c r="AJ20" s="13">
+        <f>iferror(lookup(if(AI20="",G20,AI20),{0,1,10,50},{0.0,0.6053975,0.6053975,0.6032545}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="13">
+        <f>iferror(if(AI20="",G20,AI20)*AJ20,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM20" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <f>BoardQty*1</f>
@@ -2546,84 +2568,19 @@
         <f>iferror(G21*H21,"")</f>
         <v>0</v>
       </c>
-      <c r="P21">
-        <v>2925</v>
-      </c>
-      <c r="R21" s="13">
-        <f>iferror(lookup(if(Q21="",G21,Q21),{0,1,10,40,100,300,1000,3000,10000},{0.0,0.62147,0.62147,0.62147,0.53575,0.45003,0.36431,0.27859,0.27859}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="13">
-        <f>iferror(if(Q21="",G21,Q21)*R21,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>132</v>
-      </c>
-      <c r="U21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V21">
-        <v>16096</v>
-      </c>
-      <c r="X21" s="13">
-        <f>iferror(lookup(if(W21="",G21,W21),{0,1,10,100,500,1000,3000,9000},{0.0,0.88,0.678,0.515,0.438,0.351,0.287,0.277}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="13">
-        <f>iferror(if(W21="",G21,W21)*X21,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB21">
-        <v>1211</v>
-      </c>
-      <c r="AD21" s="13">
-        <f>iferror(lookup(if(AC21="",G21,AC21),{0,1,10,25,100,250,500,1000},{0.0,0.874,0.769,0.68,0.593,0.516,0.439,0.352}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="13">
-        <f>iferror(if(AC21="",G21,AC21)*AD21,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH21">
-        <v>40</v>
-      </c>
-      <c r="AJ21" s="13">
-        <f>iferror(lookup(if(AI21="",G21,AI21),{0,1,10,50},{0.0,0.6053975,0.6053975,0.6032545}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="13">
-        <f>iferror(if(AI21="",G21,AI21)*AJ21,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM21" s="14" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
       </c>
       <c r="G22">
         <f>BoardQty*1</f>
@@ -2637,22 +2594,73 @@
         <f>iferror(G22*H22,"")</f>
         <v>0</v>
       </c>
+      <c r="P22">
+        <v>237</v>
+      </c>
+      <c r="R22" s="13">
+        <f>iferror(lookup(if(Q22="",G22,Q22),{0,1,25,100},{0.0,2.046565,1.7144,1.52153}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <f>iferror(if(Q22="",G22,Q22)*R22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>130</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V22">
+        <v>181</v>
+      </c>
+      <c r="X22" s="13">
+        <f>iferror(lookup(if(W22="",G22,W22),{0,1,10,25,50,100,250,500,1000},{0.0,1.69,1.6,1.55,1.51,1.41,1.37,1.29,1.27}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <f>iferror(if(W22="",G22,W22)*X22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB22">
+        <v>237</v>
+      </c>
+      <c r="AD22" s="13">
+        <f>iferror(lookup(if(AC22="",G22,AC22),{0,1,100,250,500,1000},{0.0,2.8,2.29,2.1,1.95,1.83}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <f>iferror(if(AC22="",G22,AC22)*AD22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG22" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
       <c r="G23">
-        <f>BoardQty*1</f>
+        <f>BoardQty*39</f>
         <v>0</v>
       </c>
       <c r="H23" s="13">
@@ -2664,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>237</v>
+        <v>92197</v>
       </c>
       <c r="R23" s="13">
-        <f>iferror(lookup(if(Q23="",G23,Q23),{0,1,25,100},{0.0,2.046565,1.7144,1.52153}),"")</f>
+        <f>iferror(lookup(if(Q23="",G23,Q23),{0,1,100,500,2500,5000},{0.0,0.02143,0.02143,0.02143,0.010715,0.010715}),"")</f>
         <v>0</v>
       </c>
       <c r="S23" s="13">
@@ -2675,33 +2683,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V23">
-        <v>181</v>
-      </c>
-      <c r="X23" s="13">
-        <f>iferror(lookup(if(W23="",G23,W23),{0,1,10,25,50,100,250,500,1000},{0.0,1.69,1.6,1.55,1.51,1.41,1.37,1.29,1.27}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="13">
-        <f>iferror(if(W23="",G23,W23)*X23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA23" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB23">
-        <v>237</v>
+        <v>10000</v>
       </c>
       <c r="AD23" s="13">
-        <f>iferror(lookup(if(AC23="",G23,AC23),{0,1,100,250,500,1000},{0.0,2.8,2.29,2.1,1.95,1.83}),"")</f>
+        <f>iferror(lookup(if(AC23="",G23,AC23),{0,1,5000},{0.0,0.019,0.019}),"")</f>
         <v>0</v>
       </c>
       <c r="AE23" s="13">
@@ -2709,27 +2700,44 @@
         <v>0</v>
       </c>
       <c r="AF23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AG23" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AH23">
+        <v>500</v>
+      </c>
+      <c r="AJ23" s="13">
+        <f>iferror(lookup(if(AI23="",G23,AI23),{0,1,100,500},{0.0,0.023573,0.023573,0.0182155}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="13">
+        <f>iferror(if(AI23="",G23,AI23)*AJ23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
       <c r="G24">
-        <f>BoardQty*8</f>
+        <f>BoardQty*16</f>
         <v>0</v>
       </c>
       <c r="H24" s="13">
@@ -2741,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1590</v>
+        <v>2922</v>
       </c>
       <c r="R24" s="13">
-        <f>iferror(lookup(if(Q24="",G24,Q24),{0,1,100,500,1000,2000},{0.0,0.053575,0.053575,0.032145,0.02143,0.02143}),"")</f>
+        <f>iferror(lookup(if(Q24="",G24,Q24),{0,1,10,100,250,500,1000},{0.0,0.6375425,0.330022,0.285019,0.252874,0.2196575,0.1875125}),"")</f>
         <v>0</v>
       </c>
       <c r="S24" s="13">
@@ -2752,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V24">
-        <v>41428</v>
+        <v>8901</v>
       </c>
       <c r="X24" s="13">
-        <f>iferror(lookup(if(W24="",G24,W24),{0,1,10,100,500,1000,4000,8000},{0.0,0.149,0.057,0.039,0.032,0.027,0.021,0.018}),"")</f>
+        <f>iferror(lookup(if(W24="",G24,W24),{0,1,10,100,1000,3000,9000,24000},{0.0,0.55,0.462,0.282,0.218,0.186,0.173,0.166}),"")</f>
         <v>0</v>
       </c>
       <c r="Y24" s="13">
@@ -2769,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="Z24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA24" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB24">
-        <v>1401</v>
+        <v>2754</v>
       </c>
       <c r="AD24" s="13">
-        <f>iferror(lookup(if(AC24="",G24,AC24),{0,1,250,500,1000,5000},{0.0,0.039,0.029,0.026,0.024,0.021}),"")</f>
+        <f>iferror(lookup(if(AC24="",G24,AC24),{0,1,10,100,1000,2500,10000,25000,50000},{0.0,0.635,0.533,0.324,0.251,0.214,0.199,0.188,0.181}),"")</f>
         <v>0</v>
       </c>
       <c r="AE24" s="13">
@@ -2786,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="AF24" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AG24" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH24">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ24" s="13">
-        <f>iferror(lookup(if(AI24="",G24,AI24),{0,1,50,500},{0.0,0.047146,0.047146,0.0460745}),"")</f>
+        <f>iferror(lookup(if(AI24="",G24,AI24),{0,1,20,200},{0.0,0.2475165,0.2475165,0.229301}),"")</f>
         <v>0</v>
       </c>
       <c r="AK24" s="13">
@@ -2803,27 +2811,27 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
       <c r="G25">
-        <f>BoardQty*39</f>
+        <f>BoardQty*8</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
@@ -2835,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>93777</v>
+        <v>1570</v>
       </c>
       <c r="R25" s="13">
-        <f>iferror(lookup(if(Q25="",G25,Q25),{0,1,100,500,2500,5000},{0.0,0.02143,0.02143,0.02143,0.010715,0.010715}),"")</f>
+        <f>iferror(lookup(if(Q25="",G25,Q25),{0,1,100,500,1000,2000},{0.0,0.053575,0.053575,0.032145,0.02143,0.02143}),"")</f>
         <v>0</v>
       </c>
       <c r="S25" s="13">
@@ -2846,33 +2854,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V25">
-        <v>583038</v>
-      </c>
-      <c r="X25" s="13">
-        <f>iferror(lookup(if(W25="",G25,W25),{0,1,10,100,1000,2500,10000},{0.0,0.11,0.013,0.008,0.006,0.005,0.005}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="13">
-        <f>iferror(if(W25="",G25,W25)*X25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA25" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB25">
-        <v>10000</v>
+        <v>1401</v>
       </c>
       <c r="AD25" s="13">
-        <f>iferror(lookup(if(AC25="",G25,AC25),{0,1,5000},{0.0,0.019,0.019}),"")</f>
+        <f>iferror(lookup(if(AC25="",G25,AC25),{0,1,250,500,1000,5000},{0.0,0.039,0.029,0.026,0.024,0.021}),"")</f>
         <v>0</v>
       </c>
       <c r="AE25" s="13">
@@ -2880,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH25">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AJ25" s="13">
-        <f>iferror(lookup(if(AI25="",G25,AI25),{0,1,100,500},{0.0,0.023573,0.023573,0.0182155}),"")</f>
+        <f>iferror(lookup(if(AI25="",G25,AI25),{0,1,50,500},{0.0,0.047146,0.047146,0.0460745}),"")</f>
         <v>0</v>
       </c>
       <c r="AK25" s="13">
@@ -2897,27 +2888,27 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AM25" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26">
-        <f>BoardQty*16</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H26" s="13">
@@ -2927,74 +2918,6 @@
       <c r="I26" s="13">
         <f>iferror(G26*H26,"")</f>
         <v>0</v>
-      </c>
-      <c r="P26">
-        <v>2922</v>
-      </c>
-      <c r="R26" s="13">
-        <f>iferror(lookup(if(Q26="",G26,Q26),{0,1,10,100,250,500,1000},{0.0,0.6375425,0.330022,0.285019,0.252874,0.2196575,0.1875125}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="13">
-        <f>iferror(if(Q26="",G26,Q26)*R26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>136</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V26">
-        <v>8901</v>
-      </c>
-      <c r="X26" s="13">
-        <f>iferror(lookup(if(W26="",G26,W26),{0,1,10,100,1000,3000,9000,24000},{0.0,0.55,0.462,0.282,0.218,0.186,0.173,0.166}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="13">
-        <f>iferror(if(W26="",G26,W26)*X26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB26">
-        <v>2754</v>
-      </c>
-      <c r="AD26" s="13">
-        <f>iferror(lookup(if(AC26="",G26,AC26),{0,1,10,100,1000,2500,10000,25000,50000},{0.0,0.635,0.533,0.324,0.251,0.214,0.199,0.188,0.181}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="13">
-        <f>iferror(if(AC26="",G26,AC26)*AD26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH26">
-        <v>80</v>
-      </c>
-      <c r="AJ26" s="13">
-        <f>iferror(lookup(if(AI26="",G26,AI26),{0,1,20,200},{0.0,0.2475165,0.2475165,0.229301}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="13">
-        <f>iferror(if(AI26="",G26,AI26)*AJ26,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM26" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -3002,10 +2925,10 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>80</v>
@@ -3022,19 +2945,70 @@
         <f>iferror(G27*H27,"")</f>
         <v>0</v>
       </c>
+      <c r="P27">
+        <v>23673</v>
+      </c>
+      <c r="R27" s="13">
+        <f>iferror(lookup(if(Q27="",G27,Q27),{0,1,10,25,50,100,250},{0.0,0.505748,0.4811035,0.4553875,0.430743,0.4082415,0.3846685}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <f>iferror(if(Q27="",G27,Q27)*R27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>134</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB27">
+        <v>35517</v>
+      </c>
+      <c r="AD27" s="13">
+        <f>iferror(lookup(if(AC27="",G27,AC27),{0,1,10,100,250,500,1000,2000},{0.0,0.73,0.667,0.571,0.517,0.476,0.408,0.354}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="13">
+        <f>iferror(if(AC27="",G27,AC27)*AD27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH27">
+        <v>10</v>
+      </c>
+      <c r="AJ27" s="13">
+        <f>iferror(lookup(if(AI27="",G27,AI27),{0,1,5,75},{0.0,0.454316,0.454316,0.398598}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="13">
+        <f>iferror(if(AI27="",G27,AI27)*AJ27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM27" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
       </c>
       <c r="G28">
         <f>BoardQty*1</f>
@@ -3048,28 +3022,14 @@
         <f>iferror(G28*H28,"")</f>
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>23692</v>
-      </c>
-      <c r="R28" s="13">
-        <f>iferror(lookup(if(Q28="",G28,Q28),{0,1,10,25,50,100,250},{0.0,0.505748,0.4811035,0.4553875,0.430743,0.4082415,0.3846685}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="13">
-        <f>iferror(if(Q28="",G28,Q28)*R28,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
-        <v>137</v>
-      </c>
       <c r="U28" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V28">
-        <v>21170</v>
+        <v>746</v>
       </c>
       <c r="X28" s="13">
-        <f>iferror(lookup(if(W28="",G28,W28),{0,1,10,100,250,500,1000,2000,4000,10000},{0.0,0.729,0.667,0.57,0.517,0.476,0.408,0.394,0.381,0.354}),"")</f>
+        <f>iferror(lookup(if(W28="",G28,W28),{0,1,10,25,50,100,250,500,1000},{0.0,15.41,14.17,13.59,12.86,11.97,11.31,10.6,9.55}),"")</f>
         <v>0</v>
       </c>
       <c r="Y28" s="13">
@@ -3077,33 +3037,19 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AA28" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB28">
-        <v>35517</v>
-      </c>
-      <c r="AD28" s="13">
-        <f>iferror(lookup(if(AC28="",G28,AC28),{0,1,10,100,250,500,1000,2000},{0.0,0.73,0.667,0.571,0.517,0.476,0.408,0.354}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="13">
-        <f>iferror(if(AC28="",G28,AC28)*AD28,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="AG28" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH28">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AJ28" s="13">
-        <f>iferror(lookup(if(AI28="",G28,AI28),{0,1,5,75},{0.0,0.454316,0.454316,0.398598}),"")</f>
+        <f>iferror(lookup(if(AI28="",G28,AI28),{0,1,30},{0.0,14.647405,12.911575}),"")</f>
         <v>0</v>
       </c>
       <c r="AK28" s="13">
@@ -3111,27 +3057,24 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AM28" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>86</v>
-      </c>
       <c r="G29">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H29" s="13">
@@ -3142,59 +3085,22 @@
         <f>iferror(G29*H29,"")</f>
         <v>0</v>
       </c>
-      <c r="U29" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V29">
-        <v>751</v>
-      </c>
-      <c r="X29" s="13">
-        <f>iferror(lookup(if(W29="",G29,W29),{0,1,10,25,50,100,250,500,1000},{0.0,15.41,14.17,13.59,12.86,11.97,11.31,10.6,9.55}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="13">
-        <f>iferror(if(W29="",G29,W29)*X29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA29" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG29" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH29">
-        <v>18</v>
-      </c>
-      <c r="AJ29" s="13">
-        <f>iferror(lookup(if(AI29="",G29,AI29),{0,1,30},{0.0,14.647405,12.911575}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="13">
-        <f>iferror(if(AI29="",G29,AI29)*AJ29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM29" s="14" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
       <c r="G30">
-        <f>BoardQty*2</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H30" s="13">
@@ -3205,22 +3111,73 @@
         <f>iferror(G30*H30,"")</f>
         <v>0</v>
       </c>
+      <c r="P30">
+        <v>19882</v>
+      </c>
+      <c r="R30" s="13">
+        <f>iferror(lookup(if(Q30="",G30,Q30),{0,1,100,500,1000,2000},{0.0,0.04286,0.04286,0.032145,0.02143,0.02143}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="13">
+        <f>iferror(if(Q30="",G30,Q30)*R30,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>135</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB30">
+        <v>4000</v>
+      </c>
+      <c r="AD30" s="13">
+        <f>iferror(lookup(if(AC30="",G30,AC30),{0,1,1000,5000},{0.0,0.031,0.031,0.028}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="13">
+        <f>iferror(if(AC30="",G30,AC30)*AD30,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG30" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH30">
+        <v>150</v>
+      </c>
+      <c r="AJ30" s="13">
+        <f>iferror(lookup(if(AI30="",G30,AI30),{0,1,50,250},{0.0,0.087863,0.087863,0.0760765}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="13">
+        <f>iferror(if(AI30="",G30,AI30)*AJ30,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>93</v>
-      </c>
       <c r="G31">
-        <f>BoardQty*3</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H31" s="13">
@@ -3232,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>19932</v>
+        <v>1091</v>
       </c>
       <c r="R31" s="13">
-        <f>iferror(lookup(if(Q31="",G31,Q31),{0,1,100,500,1000,2000},{0.0,0.04286,0.04286,0.032145,0.02143,0.02143}),"")</f>
+        <f>iferror(lookup(if(Q31="",G31,Q31),{0,1,5,20,60,200,600},{0.0,8.475565,6.975465,5.93611,5.76467,4.811035,4.5003}),"")</f>
         <v>0</v>
       </c>
       <c r="S31" s="13">
@@ -3243,33 +3200,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="X31" s="13">
-        <f>iferror(lookup(if(W31="",G31,W31),{0,1,10,100,500,1000,4000,8000,24000},{0.0,0.13,0.047,0.033,0.028,0.022,0.017,0.016,0.014}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="13">
-        <f>iferror(if(W31="",G31,W31)*X31,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA31" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB31">
-        <v>4000</v>
+        <v>28</v>
       </c>
       <c r="AD31" s="13">
-        <f>iferror(lookup(if(AC31="",G31,AC31),{0,1,1000,5000},{0.0,0.031,0.031,0.028}),"")</f>
+        <f>iferror(lookup(if(AC31="",G31,AC31),{0,1,10,25,50,100,250,500},{0.0,7.76,6.98,6.36,5.93,5.74,5.27,4.79}),"")</f>
         <v>0</v>
       </c>
       <c r="AE31" s="13">
@@ -3277,16 +3217,16 @@
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG31" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH31">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AJ31" s="13">
-        <f>iferror(lookup(if(AI31="",G31,AI31),{0,1,50,250},{0.0,0.087863,0.087863,0.0760765}),"")</f>
+        <f>iferror(lookup(if(AI31="",G31,AI31),{0,1,10},{0.0,6.92189,6.225415}),"")</f>
         <v>0</v>
       </c>
       <c r="AK31" s="13">
@@ -3294,27 +3234,27 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AM31" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G32">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H32" s="13">
@@ -3326,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>699</v>
+        <v>1067</v>
       </c>
       <c r="R32" s="13">
-        <f>iferror(lookup(if(Q32="",G32,Q32),{0,1,5,20,60,200,600},{0.0,8.475565,6.975465,5.93611,5.76467,4.811035,4.5003}),"")</f>
+        <f>iferror(lookup(if(Q32="",G32,Q32),{0,1,20,50,150,400,1250,4000,10000},{0.0,0.4168135,0.3568095,0.2882335,0.244302,0.242159,0.2410875,0.2389445,0.2218005}),"")</f>
         <v>0</v>
       </c>
       <c r="S32" s="13">
@@ -3337,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V32">
-        <v>837</v>
+        <v>2204</v>
       </c>
       <c r="X32" s="13">
-        <f>iferror(lookup(if(W32="",G32,W32),{0,1,10,25,50,100,250,500,1000},{0.0,7.76,6.97,6.36,5.93,5.73,5.27,4.79,4.48}),"")</f>
+        <f>iferror(lookup(if(W32="",G32,W32),{0,1,10,25,50,100,250,500,1000},{0.0,0.4,0.352,0.308,0.276,0.263,0.236,0.2,0.119}),"")</f>
         <v>0</v>
       </c>
       <c r="Y32" s="13">
@@ -3354,16 +3294,16 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AA32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB32">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="AD32" s="13">
-        <f>iferror(lookup(if(AC32="",G32,AC32),{0,1,10,25,50,100,250,500},{0.0,7.76,6.98,6.36,5.93,5.74,5.27,4.79}),"")</f>
+        <f>iferror(lookup(if(AC32="",G32,AC32),{0,1,10,100,1000,2000,5000,10000},{0.0,0.381,0.32,0.206,0.165,0.14,0.137,0.132}),"")</f>
         <v>0</v>
       </c>
       <c r="AE32" s="13">
@@ -3371,27 +3311,10 @@
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG32" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH32">
-        <v>26</v>
-      </c>
-      <c r="AJ32" s="13">
-        <f>iferror(lookup(if(AI32="",G32,AI32),{0,1,10},{0.0,6.92189,6.225415}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="13">
-        <f>iferror(if(AI32="",G32,AI32)*AJ32,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:39">
@@ -3399,16 +3322,16 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
         <v>100</v>
       </c>
       <c r="G33">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H33" s="13">
@@ -3420,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1067</v>
+        <v>43</v>
       </c>
       <c r="R33" s="13">
-        <f>iferror(lookup(if(Q33="",G33,Q33),{0,1,20,50,150,400,1250,4000,10000},{0.0,0.4168135,0.3568095,0.2882335,0.244302,0.242159,0.2410875,0.2389445,0.2218005}),"")</f>
+        <f>iferror(lookup(if(Q33="",G33,Q33),{0,1,10,25,50,100,250},{0.0,14.65812,12.654415,11.304325,10.86501,9.77208,9.397055}),"")</f>
         <v>0</v>
       </c>
       <c r="S33" s="13">
@@ -3431,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V33">
-        <v>2204</v>
+        <v>129</v>
       </c>
       <c r="X33" s="13">
-        <f>iferror(lookup(if(W33="",G33,W33),{0,1,10,25,50,100,250,500,1000},{0.0,0.4,0.352,0.308,0.276,0.263,0.236,0.2,0.119}),"")</f>
+        <f>iferror(lookup(if(W33="",G33,W33),{0,1,5,10,25,50,100,250,500},{0.0,14.59,13.65,13.25,12.26,11.6,11.27,10.24,9.58}),"")</f>
         <v>0</v>
       </c>
       <c r="Y33" s="13">
@@ -3448,16 +3371,16 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AA33" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB33">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="AD33" s="13">
-        <f>iferror(lookup(if(AC33="",G33,AC33),{0,1,10,100,1000,2000,5000,10000},{0.0,0.381,0.32,0.206,0.165,0.14,0.137,0.132}),"")</f>
+        <f>iferror(lookup(if(AC33="",G33,AC33),{0,1,5,10,25,50,100,250,500},{0.0,14.6,13.64,13.27,12.24,11.57,11.28,10.25,9.59}),"")</f>
         <v>0</v>
       </c>
       <c r="AE33" s="13">
@@ -3465,27 +3388,27 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AG33" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G34">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H34" s="13">
@@ -3496,45 +3419,17 @@
         <f>iferror(G34*H34,"")</f>
         <v>0</v>
       </c>
-      <c r="P34">
-        <v>43</v>
-      </c>
-      <c r="R34" s="13">
-        <f>iferror(lookup(if(Q34="",G34,Q34),{0,1,10,25,50,100,250},{0.0,14.65812,12.654415,11.304325,10.86501,9.77208,9.397055}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="13">
-        <f>iferror(if(Q34="",G34,Q34)*R34,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
-        <v>141</v>
-      </c>
       <c r="U34" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V34">
-        <v>129</v>
-      </c>
-      <c r="X34" s="13">
-        <f>iferror(lookup(if(W34="",G34,W34),{0,1,5,10,25,50,100,250,500},{0.0,14.59,13.65,13.25,12.26,11.6,11.27,10.24,9.58}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="13">
-        <f>iferror(if(W34="",G34,W34)*X34,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="AA34" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB34">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="AD34" s="13">
-        <f>iferror(lookup(if(AC34="",G34,AC34),{0,1,5,10,25,50,100,250,500},{0.0,14.6,13.64,13.27,12.24,11.57,11.28,10.25,9.59}),"")</f>
+        <f>iferror(lookup(if(AC34="",G34,AC34),{0,1,2400,4800},{0.0,1.88,1.84,1.77}),"")</f>
         <v>0</v>
       </c>
       <c r="AE34" s="13">
@@ -3542,27 +3437,44 @@
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AG34" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="AH34">
+        <v>7</v>
+      </c>
+      <c r="AJ34" s="13">
+        <f>iferror(lookup(if(AI34="",G34,AI34),{0,1,25},{0.0,4.62888,3.94312}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="13">
+        <f>iferror(if(AI34="",G34,AI34)*AJ34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
         <v>107</v>
       </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
       <c r="G35">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H35" s="13">
@@ -3573,17 +3485,28 @@
         <f>iferror(G35*H35,"")</f>
         <v>0</v>
       </c>
+      <c r="P35">
+        <v>129583</v>
+      </c>
+      <c r="R35" s="13">
+        <f>iferror(lookup(if(Q35="",G35,Q35),{0,1,100,500,1000,2000},{0.0,0.06429,0.06429,0.04286,0.032145,0.032145}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="13">
+        <f>iferror(if(Q35="",G35,Q35)*R35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>139</v>
+      </c>
       <c r="U35" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA35" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB35">
-        <v>2400</v>
+        <v>12000</v>
       </c>
       <c r="AD35" s="13">
-        <f>iferror(lookup(if(AC35="",G35,AC35),{0,1,2400,4800},{0.0,1.88,1.84,1.77}),"")</f>
+        <f>iferror(lookup(if(AC35="",G35,AC35),{0,1,1000,5000},{0.0,0.033,0.033,0.03}),"")</f>
         <v>0</v>
       </c>
       <c r="AE35" s="13">
@@ -3591,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG35" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AH35">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ35" s="13">
-        <f>iferror(lookup(if(AI35="",G35,AI35),{0,1,25},{0.0,4.62888,3.94312}),"")</f>
+        <f>iferror(lookup(if(AI35="",G35,AI35),{0,1,100,500},{0.0,0.053575,0.053575,0.0417885}),"")</f>
         <v>0</v>
       </c>
       <c r="AK35" s="13">
@@ -3608,27 +3531,27 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AM35" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>109</v>
-      </c>
       <c r="G36">
-        <f>BoardQty*2</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H36" s="13">
@@ -3639,90 +3562,19 @@
         <f>iferror(G36*H36,"")</f>
         <v>0</v>
       </c>
-      <c r="P36">
-        <v>132563</v>
-      </c>
-      <c r="R36" s="13">
-        <f>iferror(lookup(if(Q36="",G36,Q36),{0,1,100,500,1000,2000},{0.0,0.06429,0.06429,0.04286,0.032145,0.032145}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="13">
-        <f>iferror(if(Q36="",G36,Q36)*R36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T36" t="s">
-        <v>142</v>
-      </c>
-      <c r="U36" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="V36">
-        <v>308885</v>
-      </c>
-      <c r="X36" s="13">
-        <f>iferror(lookup(if(W36="",G36,W36),{0,1,10,100,500,1000,4000,8000,24000},{0.0,0.2,0.08,0.055,0.047,0.038,0.03,0.027,0.025}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="13">
-        <f>iferror(if(W36="",G36,W36)*X36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA36" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB36">
-        <v>12000</v>
-      </c>
-      <c r="AD36" s="13">
-        <f>iferror(lookup(if(AC36="",G36,AC36),{0,1,1000,5000},{0.0,0.033,0.033,0.03}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="13">
-        <f>iferror(if(AC36="",G36,AC36)*AD36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG36" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH36">
-        <v>100</v>
-      </c>
-      <c r="AJ36" s="13">
-        <f>iferror(lookup(if(AI36="",G36,AI36),{0,1,100,500},{0.0,0.053575,0.053575,0.0417885}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="13">
-        <f>iferror(if(AI36="",G36,AI36)*AJ36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM36" s="14" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="G37">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H37" s="13">
@@ -3734,2010 +3586,1925 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <f>iferror(G38*H38,"")</f>
+    <row r="39" spans="1:39">
+      <c r="K39">
+        <f t="array" ref="K39">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="array" ref="L39">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="array" ref="M39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="array" ref="Q39">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="array" ref="R39">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="array" ref="S39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="array" ref="W39">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="array" ref="X39">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="array" ref="Y39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="array" ref="AC39">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="array" ref="AD39">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <f t="array" ref="AI39">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <f t="array" ref="AJ39">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <f t="array" ref="AK39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="K40">
-        <f t="array" ref="K40">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K40">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="array" ref="L40">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L40">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="array" ref="M40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="array" ref="Q40">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q40">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R40">
-        <f t="array" ref="R40">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R40">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S40">
-        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="array" ref="W40">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W40">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="array" ref="X40">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X40">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="array" ref="Y40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD40">
-        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI40">
-        <f t="array" ref="AI40">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI40">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ40">
-        <f t="array" ref="AJ40">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK40">
-        <f t="array" ref="AK40">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="K41">
-        <f t="array" ref="K41">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K41">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="array" ref="L41">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L41">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="array" ref="M41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="array" ref="Q41">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q41">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R41">
-        <f t="array" ref="R41">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R41">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="array" ref="W41">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W41">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="array" ref="X41">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X41">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="array" ref="Y41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD41">
-        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="array" ref="AI41">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI41">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ41">
-        <f t="array" ref="AJ41">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK41">
-        <f t="array" ref="AK41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="K42">
-        <f t="array" ref="K42">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K42">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="array" ref="L42">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L42">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="array" ref="M42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="array" ref="Q42">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q42">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R42">
-        <f t="array" ref="R42">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R42">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="array" ref="W42">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W42">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="array" ref="X42">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X42">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="array" ref="Y42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="array" ref="AI42">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI42">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ42">
-        <f t="array" ref="AJ42">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK42">
-        <f t="array" ref="AK42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="K43">
-        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="array" ref="Q43">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q43">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="array" ref="R43">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R43">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="array" ref="X43">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X43">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="array" ref="Y43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD43">
-        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="array" ref="AI43">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI43">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="array" ref="AJ43">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK43">
-        <f t="array" ref="AK43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="K44">
-        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="array" ref="Q44">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q44">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="array" ref="R44">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R44">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="array" ref="X44">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X44">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="array" ref="Y44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="array" ref="AI44">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI44">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="array" ref="AJ44">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK44">
-        <f t="array" ref="AK44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="K45">
-        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="array" ref="Q45">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q45">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="array" ref="R45">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R45">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="array" ref="X45">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X45">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="array" ref="Y45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI45">
-        <f t="array" ref="AI45">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI45">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f t="array" ref="AJ45">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK45">
-        <f t="array" ref="AK45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="K46">
-        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="array" ref="Q46">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q46">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="array" ref="R46">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R46">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="array" ref="X46">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X46">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="array" ref="Y46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI46">
-        <f t="array" ref="AI46">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI46">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="array" ref="AJ46">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK46">
-        <f t="array" ref="AK46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="array" ref="Q47">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q47">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="array" ref="R47">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R47">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="array" ref="X47">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X47">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="array" ref="Y47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD47">
-        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI47">
-        <f t="array" ref="AI47">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI47">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK47">
-        <f t="array" ref="AK47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="array" ref="Q48">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q48">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="array" ref="R48">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R48">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="array" ref="X48">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X48">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="array" ref="Y48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI48">
-        <f t="array" ref="AI48">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI48">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK48">
-        <f t="array" ref="AK48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:37">
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="array" ref="Q49">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q49">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="array" ref="R49">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R49">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="array" ref="X49">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X49">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="array" ref="Y49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD49">
-        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="array" ref="AI49">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI49">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK49">
-        <f t="array" ref="AK49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:37">
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="array" ref="Q50">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q50">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="array" ref="R50">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R50">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W50">
-        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="array" ref="X50">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X50">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="array" ref="Y50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD50">
-        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI50">
-        <f t="array" ref="AI50">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI50">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK50">
-        <f t="array" ref="AK50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:37">
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="array" ref="Q51">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q51">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="array" ref="R51">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R51">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="array" ref="X51">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X51">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="array" ref="Y51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="array" ref="AI51">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI51">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK51">
-        <f t="array" ref="AK51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:37">
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="array" ref="Q52">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q52">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="array" ref="R52">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R52">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="array" ref="X52">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X52">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="array" ref="Y52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD52">
-        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI52">
-        <f t="array" ref="AI52">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI52">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK52">
-        <f t="array" ref="AK52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:37">
       <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="array" ref="Q53">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q53">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="array" ref="R53">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R53">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="array" ref="X53">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X53">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="array" ref="Y53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD53">
-        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI53">
-        <f t="array" ref="AI53">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI53">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ53">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="array" ref="AK53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:37">
       <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="array" ref="Q54">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q54">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="array" ref="R54">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R54">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="array" ref="X54">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X54">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="array" ref="Y54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD54">
-        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI54">
-        <f t="array" ref="AI54">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI54">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ54">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK54">
-        <f t="array" ref="AK54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:37">
       <c r="K55">
-        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="array" ref="Q55">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q55">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="array" ref="R55">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R55">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="array" ref="X55">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X55">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="array" ref="Y55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC55">
-        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD55">
-        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI55">
-        <f t="array" ref="AI55">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI55">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ55">
-        <f t="array" ref="AJ55">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ55">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK55">
-        <f t="array" ref="AK55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:37">
       <c r="K56">
-        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="array" ref="Q56">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q56">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="array" ref="R56">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R56">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="array" ref="X56">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X56">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="array" ref="Y56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC56">
-        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD56">
-        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI56">
-        <f t="array" ref="AI56">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI56">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="array" ref="AJ56">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ56">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK56">
-        <f t="array" ref="AK56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:37">
       <c r="K57">
-        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="array" ref="Q57">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q57">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="array" ref="R57">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R57">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W57">
-        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="array" ref="X57">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X57">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="array" ref="Y57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC57">
-        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE57">
-        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI57">
-        <f t="array" ref="AI57">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI57">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ57">
-        <f t="array" ref="AJ57">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ57">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK57">
-        <f t="array" ref="AK57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:37">
       <c r="K58">
-        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="array" ref="Q58">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q58">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="array" ref="R58">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R58">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X58">
-        <f t="array" ref="X58">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X58">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="array" ref="Y58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC58">
-        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD58">
-        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE58">
-        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI58">
-        <f t="array" ref="AI58">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI58">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ58">
-        <f t="array" ref="AJ58">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ58">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK58">
-        <f t="array" ref="AK58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:37">
       <c r="K59">
-        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="array" ref="Q59">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q59">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="array" ref="R59">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R59">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="array" ref="X59">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X59">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="array" ref="Y59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC59">
-        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD59">
-        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI59">
-        <f t="array" ref="AI59">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI59">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="array" ref="AJ59">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ59">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK59">
-        <f t="array" ref="AK59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:37">
       <c r="K60">
-        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="array" ref="Q60">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q60">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="array" ref="R60">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R60">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W60">
-        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X60">
-        <f t="array" ref="X60">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X60">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="array" ref="Y60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC60">
-        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD60">
-        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI60">
-        <f t="array" ref="AI60">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI60">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="array" ref="AJ60">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ60">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f t="array" ref="AK60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="11:37">
       <c r="K61">
-        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="array" ref="Q61">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q61">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="array" ref="R61">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R61">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W61">
-        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X61">
-        <f t="array" ref="X61">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X61">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="array" ref="Y61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC61">
-        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD61">
-        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI61">
-        <f t="array" ref="AI61">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI61">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f t="array" ref="AJ61">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ61">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK61">
-        <f t="array" ref="AK61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="11:37">
       <c r="K62">
-        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="array" ref="Q62">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q62">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="array" ref="R62">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R62">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X62">
-        <f t="array" ref="X62">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X62">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="array" ref="Y62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC62">
-        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD62">
-        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI62">
-        <f t="array" ref="AI62">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI62">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="array" ref="AJ62">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ62">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f t="array" ref="AK62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="11:37">
       <c r="K63">
-        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="array" ref="Q63">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q63">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="array" ref="R63">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R63">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S63">
-        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="array" ref="X63">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X63">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="array" ref="Y63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI63">
-        <f t="array" ref="AI63">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI63">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ63">
-        <f t="array" ref="AJ63">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ63">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK63">
-        <f t="array" ref="AK63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="11:37">
       <c r="K64">
-        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="array" ref="Q64">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q64">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="array" ref="R64">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R64">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S64">
-        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W64">
-        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X64">
-        <f t="array" ref="X64">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X64">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y64">
-        <f t="array" ref="Y64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC64">
-        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD64">
-        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI64">
-        <f t="array" ref="AI64">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI64">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f t="array" ref="AJ64">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ64">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK64">
-        <f t="array" ref="AK64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="11:37">
       <c r="K65">
-        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="array" ref="Q65">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q65">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="array" ref="R65">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R65">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S65">
-        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W65">
-        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X65">
-        <f t="array" ref="X65">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X65">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y65">
-        <f t="array" ref="Y65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC65">
-        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD65">
-        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE65">
-        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI65">
-        <f t="array" ref="AI65">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI65">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="array" ref="AJ65">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ65">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f t="array" ref="AK65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="11:37">
       <c r="K66">
-        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="array" ref="Q66">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q66">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="array" ref="R66">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R66">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S66">
-        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f t="array" ref="X66">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X66">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y66">
-        <f t="array" ref="Y66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC66">
-        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD66">
-        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE66">
-        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI66">
-        <f t="array" ref="AI66">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI66">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ66">
-        <f t="array" ref="AJ66">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ66">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK66">
-        <f t="array" ref="AK66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="11:37">
       <c r="K67">
-        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="array" ref="Q67">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q67">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="array" ref="R67">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R67">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S67">
-        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X67">
-        <f t="array" ref="X67">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X67">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="array" ref="Y67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD67">
-        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE67">
-        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI67">
-        <f t="array" ref="AI67">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI67">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ67">
-        <f t="array" ref="AJ67">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ67">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK67">
-        <f t="array" ref="AK67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="11:37">
       <c r="K68">
-        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="array" ref="Q68">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q68">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="array" ref="R68">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R68">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X68">
-        <f t="array" ref="X68">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X68">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y68">
-        <f t="array" ref="Y68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC68">
-        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD68">
-        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI68">
-        <f t="array" ref="AI68">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI68">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="array" ref="AJ68">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ68">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f t="array" ref="AK68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="11:37">
       <c r="K69">
-        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="array" ref="Q69">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="Q69">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="array" ref="R69">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R69">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S69">
-        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W69">
-        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X69">
-        <f t="array" ref="X69">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X69">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y69">
-        <f t="array" ref="Y69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="Y69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC69">
-        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD69">
-        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE69">
-        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI69">
-        <f t="array" ref="AI69">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <f t="array" ref="AI69">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ69">
-        <f t="array" ref="AJ69">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ69">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK69">
-        <f t="array" ref="AK69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="11:37">
-      <c r="K70">
-        <f t="array" ref="K70">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f t="array" ref="L70">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <f t="array" ref="M70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <f t="array" ref="Q70">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <f t="array" ref="R70">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <f t="array" ref="S70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <f t="array" ref="W70">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <f t="array" ref="X70">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <f t="array" ref="Y70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <f t="array" ref="AC70">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <f t="array" ref="AD70">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <f t="array" ref="AE70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI70">
-        <f t="array" ref="AI70">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ70">
-        <f t="array" ref="AJ70">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK70">
-        <f t="array" ref="AK70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="11:37">
-      <c r="K71">
-        <f t="array" ref="K71">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f t="array" ref="L71">IFERROR(CONCATENATE((INDEX($N$7:$N$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f t="array" ref="M71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($N$7:$N$38&lt;&gt;"",IF($K$7:$K$38&lt;&gt;"",ROW($K$7:$K$38)-MIN(ROW($K$7:$K$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <f t="array" ref="Q71">IFERROR(CONCATENATE((INDEX($T$7:$T$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <f t="array" ref="R71">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <f t="array" ref="S71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($T$7:$T$38&lt;&gt;"",IF($Q$7:$Q$38&lt;&gt;"",ROW($Q$7:$Q$38)-MIN(ROW($Q$7:$Q$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <f t="array" ref="W71">IFERROR(CONCATENATE((INDEX($Z$7:$Z$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <f t="array" ref="X71">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <f t="array" ref="Y71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Z$7:$Z$38&lt;&gt;"",IF($W$7:$W$38&lt;&gt;"",ROW($W$7:$W$38)-MIN(ROW($W$7:$W$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <f t="array" ref="AC71">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <f t="array" ref="AD71">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <f t="array" ref="AE71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <f t="array" ref="AI71">IFERROR(CONCATENATE((INDEX($AL$7:$AL$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ71">
-        <f t="array" ref="AJ71">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK71">
-        <f t="array" ref="AK71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AL$7:$AL$38&lt;&gt;"",IF($AI$7:$AI$38&lt;&gt;"",ROW($AI$7:$AI$38)-MIN(ROW($AI$7:$AI$38))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <f t="array" ref="AK69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -5750,319 +5517,309 @@
     <mergeCell ref="AB5:AG5"/>
     <mergeCell ref="AH5:AM5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AD10">
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD14">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD22">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD23">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD25">
     <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD14">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD27">
     <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD30">
     <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThanOrEqual">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD18">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
     <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThanOrEqual">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD21">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD32">
     <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD23">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD33">
     <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ17">
+    <cfRule type="cellIs" dxfId="0" priority="89" operator="lessThanOrEqual">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD26">
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ34">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
     <cfRule type="cellIs" dxfId="0" priority="83" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD28">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD33">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD35">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD36">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE18">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK17">
+    <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20">
+    <cfRule type="cellIs" dxfId="0" priority="92" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="cellIs" dxfId="0" priority="100" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30">
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK34">
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
     <cfRule type="cellIs" dxfId="0" priority="84" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="0" priority="96" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ19">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="0" priority="111" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="cellIs" dxfId="0" priority="113" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="lessThanOrEqual">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="0" priority="117" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="0" priority="119" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="cellIs" dxfId="0" priority="121" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="0" priority="123" operator="lessThanOrEqual">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="0" priority="125" operator="lessThanOrEqual">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK19">
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="cellIs" dxfId="0" priority="108" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24">
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="0" priority="112" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK26">
-    <cfRule type="cellIs" dxfId="0" priority="114" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
-    <cfRule type="cellIs" dxfId="0" priority="116" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="cellIs" dxfId="0" priority="118" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="cellIs" dxfId="0" priority="120" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="cellIs" dxfId="0" priority="122" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="0" priority="124" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="cellIs" dxfId="0" priority="126" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="0" priority="100" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="R13">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
-      <formula>H10</formula>
+      <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
@@ -6070,19 +5827,19 @@
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16">
+  <conditionalFormatting sqref="R19">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThanOrEqual">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
-      <formula>H21</formula>
+      <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
@@ -6100,14 +5857,14 @@
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26">
+  <conditionalFormatting sqref="R27">
     <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R28">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
-      <formula>H28</formula>
+      <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31">
@@ -6125,14 +5882,9 @@
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34">
+  <conditionalFormatting sqref="R35">
     <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R36">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
-      <formula>H36</formula>
+      <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
@@ -6140,9 +5892,9 @@
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
+  <conditionalFormatting sqref="S13">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThanOrEqual">
-      <formula>I10</formula>
+      <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
@@ -6150,19 +5902,19 @@
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S16">
+  <conditionalFormatting sqref="S19">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
     <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
-      <formula>I21</formula>
+      <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
@@ -6180,14 +5932,14 @@
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
+  <conditionalFormatting sqref="S27">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
     <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
-      <formula>I28</formula>
+      <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
@@ -6205,14 +5957,9 @@
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S34">
+  <conditionalFormatting sqref="S35">
     <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S36">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
-      <formula>I36</formula>
+      <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
@@ -6220,163 +5967,103 @@
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17">
     <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
     <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
     <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22">
     <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
     <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
     <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X26">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
     <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X33">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17">
     <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" dxfId="0" priority="38" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
     <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="0" priority="44" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
     <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32">
     <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y26">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y33">
     <cfRule type="cellIs" dxfId="0" priority="50" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y33">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y34">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y36">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6385,75 +6072,70 @@
     <hyperlink ref="AA7" r:id="rId2"/>
     <hyperlink ref="AG7" r:id="rId3"/>
     <hyperlink ref="AM7" r:id="rId4"/>
-    <hyperlink ref="U10" r:id="rId5"/>
-    <hyperlink ref="AA10" r:id="rId6"/>
-    <hyperlink ref="AG10" r:id="rId7"/>
-    <hyperlink ref="AM10" r:id="rId8"/>
-    <hyperlink ref="AA11" r:id="rId9"/>
-    <hyperlink ref="AG11" r:id="rId10"/>
-    <hyperlink ref="U14" r:id="rId11"/>
-    <hyperlink ref="AA14" r:id="rId12"/>
+    <hyperlink ref="AG9" r:id="rId5"/>
+    <hyperlink ref="AG10" r:id="rId6"/>
+    <hyperlink ref="AA12" r:id="rId7"/>
+    <hyperlink ref="AM12" r:id="rId8"/>
+    <hyperlink ref="U13" r:id="rId9"/>
+    <hyperlink ref="AG13" r:id="rId10"/>
+    <hyperlink ref="AM13" r:id="rId11"/>
+    <hyperlink ref="U14" r:id="rId12"/>
     <hyperlink ref="AG14" r:id="rId13"/>
-    <hyperlink ref="AM14" r:id="rId14"/>
-    <hyperlink ref="U16" r:id="rId15"/>
-    <hyperlink ref="AG16" r:id="rId16"/>
-    <hyperlink ref="U18" r:id="rId17"/>
-    <hyperlink ref="AA18" r:id="rId18"/>
-    <hyperlink ref="AG18" r:id="rId19"/>
+    <hyperlink ref="U16" r:id="rId14"/>
+    <hyperlink ref="AG16" r:id="rId15"/>
+    <hyperlink ref="U17" r:id="rId16"/>
+    <hyperlink ref="AA17" r:id="rId17"/>
+    <hyperlink ref="AG17" r:id="rId18"/>
+    <hyperlink ref="AM17" r:id="rId19"/>
     <hyperlink ref="U19" r:id="rId20"/>
     <hyperlink ref="AA19" r:id="rId21"/>
-    <hyperlink ref="AM19" r:id="rId22"/>
-    <hyperlink ref="U21" r:id="rId23"/>
-    <hyperlink ref="AA21" r:id="rId24"/>
-    <hyperlink ref="AG21" r:id="rId25"/>
-    <hyperlink ref="AM21" r:id="rId26"/>
-    <hyperlink ref="U23" r:id="rId27"/>
-    <hyperlink ref="AA23" r:id="rId28"/>
-    <hyperlink ref="AG23" r:id="rId29"/>
-    <hyperlink ref="U24" r:id="rId30"/>
-    <hyperlink ref="AA24" r:id="rId31"/>
-    <hyperlink ref="AG24" r:id="rId32"/>
-    <hyperlink ref="AM24" r:id="rId33"/>
-    <hyperlink ref="U25" r:id="rId34"/>
-    <hyperlink ref="AA25" r:id="rId35"/>
-    <hyperlink ref="AG25" r:id="rId36"/>
-    <hyperlink ref="AM25" r:id="rId37"/>
-    <hyperlink ref="U26" r:id="rId38"/>
-    <hyperlink ref="AA26" r:id="rId39"/>
-    <hyperlink ref="AG26" r:id="rId40"/>
-    <hyperlink ref="AM26" r:id="rId41"/>
-    <hyperlink ref="U28" r:id="rId42"/>
-    <hyperlink ref="AA28" r:id="rId43"/>
-    <hyperlink ref="AG28" r:id="rId44"/>
-    <hyperlink ref="AM28" r:id="rId45"/>
-    <hyperlink ref="U29" r:id="rId46"/>
-    <hyperlink ref="AA29" r:id="rId47"/>
-    <hyperlink ref="AG29" r:id="rId48"/>
-    <hyperlink ref="AM29" r:id="rId49"/>
-    <hyperlink ref="U31" r:id="rId50"/>
-    <hyperlink ref="AA31" r:id="rId51"/>
+    <hyperlink ref="AG19" r:id="rId22"/>
+    <hyperlink ref="AM19" r:id="rId23"/>
+    <hyperlink ref="U20" r:id="rId24"/>
+    <hyperlink ref="AA20" r:id="rId25"/>
+    <hyperlink ref="AG20" r:id="rId26"/>
+    <hyperlink ref="AM20" r:id="rId27"/>
+    <hyperlink ref="U22" r:id="rId28"/>
+    <hyperlink ref="AA22" r:id="rId29"/>
+    <hyperlink ref="AG22" r:id="rId30"/>
+    <hyperlink ref="U23" r:id="rId31"/>
+    <hyperlink ref="AG23" r:id="rId32"/>
+    <hyperlink ref="AM23" r:id="rId33"/>
+    <hyperlink ref="U24" r:id="rId34"/>
+    <hyperlink ref="AA24" r:id="rId35"/>
+    <hyperlink ref="AG24" r:id="rId36"/>
+    <hyperlink ref="AM24" r:id="rId37"/>
+    <hyperlink ref="U25" r:id="rId38"/>
+    <hyperlink ref="AG25" r:id="rId39"/>
+    <hyperlink ref="AM25" r:id="rId40"/>
+    <hyperlink ref="U27" r:id="rId41"/>
+    <hyperlink ref="AG27" r:id="rId42"/>
+    <hyperlink ref="AM27" r:id="rId43"/>
+    <hyperlink ref="U28" r:id="rId44"/>
+    <hyperlink ref="AA28" r:id="rId45"/>
+    <hyperlink ref="AG28" r:id="rId46"/>
+    <hyperlink ref="AM28" r:id="rId47"/>
+    <hyperlink ref="U30" r:id="rId48"/>
+    <hyperlink ref="AG30" r:id="rId49"/>
+    <hyperlink ref="AM30" r:id="rId50"/>
+    <hyperlink ref="U31" r:id="rId51"/>
     <hyperlink ref="AG31" r:id="rId52"/>
     <hyperlink ref="AM31" r:id="rId53"/>
     <hyperlink ref="U32" r:id="rId54"/>
     <hyperlink ref="AA32" r:id="rId55"/>
     <hyperlink ref="AG32" r:id="rId56"/>
-    <hyperlink ref="AM32" r:id="rId57"/>
-    <hyperlink ref="U33" r:id="rId58"/>
-    <hyperlink ref="AA33" r:id="rId59"/>
-    <hyperlink ref="AG33" r:id="rId60"/>
-    <hyperlink ref="U34" r:id="rId61"/>
-    <hyperlink ref="AA34" r:id="rId62"/>
-    <hyperlink ref="AG34" r:id="rId63"/>
+    <hyperlink ref="U33" r:id="rId57"/>
+    <hyperlink ref="AA33" r:id="rId58"/>
+    <hyperlink ref="AG33" r:id="rId59"/>
+    <hyperlink ref="U34" r:id="rId60"/>
+    <hyperlink ref="AA34" r:id="rId61"/>
+    <hyperlink ref="AG34" r:id="rId62"/>
+    <hyperlink ref="AM34" r:id="rId63"/>
     <hyperlink ref="U35" r:id="rId64"/>
-    <hyperlink ref="AA35" r:id="rId65"/>
-    <hyperlink ref="AG35" r:id="rId66"/>
-    <hyperlink ref="AM35" r:id="rId67"/>
-    <hyperlink ref="U36" r:id="rId68"/>
-    <hyperlink ref="AA36" r:id="rId69"/>
-    <hyperlink ref="AG36" r:id="rId70"/>
-    <hyperlink ref="AM36" r:id="rId71"/>
+    <hyperlink ref="AG35" r:id="rId65"/>
+    <hyperlink ref="AM35" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId72"/>
+  <legacyDrawing r:id="rId67"/>
 </worksheet>
 </file>
--- a/KiCad/out/bom/FreeEEG32.xlsx
+++ b/KiCad/out/bom/FreeEEG32.xlsx
@@ -11,12 +11,12 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'FreeEEG32'!$I$1</definedName>
-    <definedName name="digikey_part_data">'FreeEEG32'!$J$5:$O$37</definedName>
-    <definedName name="farnell_part_data">'FreeEEG32'!$P$5:$U$37</definedName>
-    <definedName name="global_part_data">'FreeEEG32'!$A$5:$I$37</definedName>
-    <definedName name="mouser_part_data">'FreeEEG32'!$V$5:$AA$37</definedName>
-    <definedName name="newark_part_data">'FreeEEG32'!$AB$5:$AG$37</definedName>
-    <definedName name="rs_part_data">'FreeEEG32'!$AH$5:$AM$37</definedName>
+    <definedName name="digikey_part_data">'FreeEEG32'!$J$5:$O$41</definedName>
+    <definedName name="farnell_part_data">'FreeEEG32'!$P$5:$U$41</definedName>
+    <definedName name="global_part_data">'FreeEEG32'!$A$5:$I$41</definedName>
+    <definedName name="mouser_part_data">'FreeEEG32'!$V$5:$AA$41</definedName>
+    <definedName name="newark_part_data">'FreeEEG32'!$AB$5:$AG$41</definedName>
+    <definedName name="rs_part_data">'FreeEEG32'!$AH$5:$AM$41</definedName>
     <definedName name="TotalCost">'FreeEEG32'!$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -573,6 +573,15 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>MPU-6500</t>
+  </si>
+  <si>
+    <t>Housings_DFN_QFN:QFN-24-1EP_4x4mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>U6</t>
   </si>
   <si>
@@ -585,6 +594,18 @@
     <t>SN6505A</t>
   </si>
   <si>
+    <t>R2-R6</t>
+  </si>
+  <si>
+    <t>RC0402FR-0747KL</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0402</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
@@ -654,7 +675,19 @@
     <t>D_Schottky_SMD</t>
   </si>
   <si>
-    <t>C1,C5-C11,C16-C24,C26-C28,C34,C39-C50,C52,C57,C62-C72,C78,C83-C93,C99-C101,C103-C105,C107-C110,C115,C118</t>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>B3U1000P</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_SMD:SW_SPST_B3U-3000P-B</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>C1,C5-C11,C16-C24,C26-C28,C34,C39-C50,C52,C57,C62-C72,C78,C83-C93,C99-C101,C103-C105,C107-C110,C115,C118,C125-C127</t>
   </si>
   <si>
     <t>MC0402B104K160CT</t>
@@ -705,7 +738,7 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>Buttons_Switches_SMD:SW_SPST_B3U-1000P-B</t>
+    <t>B3U3000PMB</t>
   </si>
   <si>
     <t>NRST</t>
@@ -738,7 +771,10 @@
     <t>CP2102N-A01-GQFN24</t>
   </si>
   <si>
-    <t>Housings_DFN_QFN:QFN-24-1EP_4x4mm_Pitch0.5mm</t>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_SMD:SW_SPST_B3U-1000P</t>
   </si>
   <si>
     <t>C2,C12-C15,C25,C29-C33,C35-C38,C51,C53-C56,C58-C61,C73-C77,C79-C82,C94-C98,C116</t>
@@ -774,10 +810,10 @@
     <t>2.2u</t>
   </si>
   <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>MPU-6500</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R_EXT</t>
   </si>
   <si>
     <t>P8</t>
@@ -804,15 +840,6 @@
     <t>STM32F427ZI_4side_short</t>
   </si>
   <si>
-    <t>SW2,SW3</t>
-  </si>
-  <si>
-    <t>Buttons_Switches_SMD:SW_SPST_B3U-1100P-B</t>
-  </si>
-  <si>
-    <t>SWITCH_INV</t>
-  </si>
-  <si>
     <t>C106,C111,C112</t>
   </si>
   <si>
@@ -852,6 +879,12 @@
     <t>AD7770</t>
   </si>
   <si>
+    <t>SW4</t>
+  </si>
+  <si>
+    <t>BOOT_WIFI</t>
+  </si>
+  <si>
     <t>U43</t>
   </si>
   <si>
@@ -921,12 +954,21 @@
     <t>2507107</t>
   </si>
   <si>
+    <t>9239430</t>
+  </si>
+  <si>
     <t>9556915</t>
   </si>
   <si>
+    <t>1333652</t>
+  </si>
+  <si>
     <t>1758896</t>
   </si>
   <si>
+    <t>1333656</t>
+  </si>
+  <si>
     <t>1226224</t>
   </si>
   <si>
@@ -969,9 +1011,21 @@
     <t>595-SN6505ADBVT</t>
   </si>
   <si>
+    <t>603-RC0402FR-0747KL</t>
+  </si>
+  <si>
+    <t>538-39-00-0218</t>
+  </si>
+  <si>
     <t>604-APBD3224LZGKSYKC</t>
   </si>
   <si>
+    <t>863-MBR0520LT1G</t>
+  </si>
+  <si>
+    <t>653-B3U-1000P</t>
+  </si>
+  <si>
     <t>595-ISO7341CDW</t>
   </si>
   <si>
@@ -984,27 +1038,51 @@
     <t>634-CP2102NA01GQFN24</t>
   </si>
   <si>
+    <t>81-GRM155R60J105KE19</t>
+  </si>
+  <si>
     <t>595-TPD4E1B06DCKR</t>
   </si>
   <si>
+    <t>81-GRM18R60J225KE19D</t>
+  </si>
+  <si>
+    <t>538-105017-0001</t>
+  </si>
+  <si>
     <t>511-STM32F427ZIT6</t>
   </si>
   <si>
+    <t>81-GRM18R60J475KE19D</t>
+  </si>
+  <si>
+    <t>584-ADR4525BRZ</t>
+  </si>
+  <si>
     <t>595-TLV73333PDBVT</t>
   </si>
   <si>
     <t>584-AD7770ACPZ</t>
   </si>
   <si>
+    <t>81-GRM188R61A106KE9D</t>
+  </si>
+  <si>
     <t>Newark</t>
   </si>
   <si>
     <t>75Y3105</t>
   </si>
   <si>
+    <t>67R9937</t>
+  </si>
+  <si>
     <t>48K7498</t>
   </si>
   <si>
+    <t>78M0188</t>
+  </si>
+  <si>
     <t>33R0276</t>
   </si>
   <si>
@@ -1057,6 +1135,9 @@
   </si>
   <si>
     <t>463-432</t>
+  </si>
+  <si>
+    <t>419-867</t>
   </si>
   <si>
     <t>900-9891</t>
@@ -1554,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
@@ -1608,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I1" s="2">
         <v>100</v>
@@ -1616,36 +1697,36 @@
     </row>
     <row r="2" spans="1:39">
       <c r="H2" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I2" s="4">
-        <f>sum(I7:I37)</f>
+        <f>sum(I7:I41)</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>sum(M7:M37)</f>
+        <f>sum(M7:M41)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>sum(S7:S37)</f>
+        <f>sum(S7:S41)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="4">
-        <f>sum(Y7:Y37)</f>
+        <f>sum(Y7:Y41)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="4">
-        <f>sum(AE7:AE37)</f>
+        <f>sum(AE7:AE41)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="4">
-        <f>sum(AK7:AK37)</f>
+        <f>sum(AK7:AK41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I3" s="5">
         <f>TotalCost/BoardQty</f>
@@ -1665,7 +1746,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1673,7 +1754,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
@@ -1681,7 +1762,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1689,7 +1770,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="10" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
@@ -1697,7 +1778,7 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="11" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
@@ -1734,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>3</v>
@@ -1746,16 +1827,16 @@
         <v>2</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>3</v>
@@ -1764,16 +1845,16 @@
         <v>2</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X6" s="12" t="s">
         <v>3</v>
@@ -1782,16 +1863,16 @@
         <v>2</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AD6" s="12" t="s">
         <v>3</v>
@@ -1800,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AH6" s="12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AJ6" s="12" t="s">
         <v>3</v>
@@ -1818,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1829,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1849,87 +1930,19 @@
         <f>iferror(G7*H7,"")</f>
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>324</v>
-      </c>
-      <c r="R7" s="13">
-        <f>iferror(lookup(if(Q7="",G7,Q7),{0,1,10,100,250,500},{0.0,4.275285,4.275285,3.975265,3.77168,2.65732}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="13">
-        <f>iferror(if(Q7="",G7,Q7)*R7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V7">
-        <v>1191</v>
-      </c>
-      <c r="X7" s="13">
-        <f>iferror(lookup(if(W7="",G7,W7),{0,1,10,25,50,100,250,500,1000},{0.0,5.34,4.8,4.47,4.23,3.93,3.73,3.35,2.62}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="13">
-        <f>iferror(if(W7="",G7,W7)*X7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7">
-        <v>325</v>
-      </c>
-      <c r="AD7" s="13">
-        <f>iferror(lookup(if(AC7="",G7,AC7),{0,1,10,25,50,100},{0.0,5.32,4.82,4.46,4.25,3.98}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="13">
-        <f>iferror(if(AC7="",G7,AC7)*AD7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH7">
-        <v>250</v>
-      </c>
-      <c r="AJ7" s="13">
-        <f>iferror(lookup(if(AI7="",G7,AI7),{0,1,10},{0.0,5.63609,5.3575}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="13">
-        <f>iferror(if(AI7="",G7,AI7)*AJ7,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM7" s="14" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
       </c>
       <c r="G8">
         <f>BoardQty*1</f>
@@ -1942,6 +1955,74 @@
       <c r="I8" s="13">
         <f>iferror(G8*H8,"")</f>
         <v>0</v>
+      </c>
+      <c r="P8">
+        <v>324</v>
+      </c>
+      <c r="R8" s="13">
+        <f>iferror(lookup(if(Q8="",G8,Q8),{0,1,10,100,250,500},{0.0,4.275285,4.275285,3.975265,3.77168,2.65732}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <f>iferror(if(Q8="",G8,Q8)*R8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V8">
+        <v>1191</v>
+      </c>
+      <c r="X8" s="13">
+        <f>iferror(lookup(if(W8="",G8,W8),{0,1,10,25,50,100,250,500,1000},{0.0,5.34,4.8,4.47,4.23,3.93,3.73,3.35,2.62}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <f>iferror(if(W8="",G8,W8)*X8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB8">
+        <v>319</v>
+      </c>
+      <c r="AD8" s="13">
+        <f>iferror(lookup(if(AC8="",G8,AC8),{0,1,10,25,50,100},{0.0,5.32,4.82,4.46,4.25,3.98}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13">
+        <f>iferror(if(AC8="",G8,AC8)*AD8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH8">
+        <v>250</v>
+      </c>
+      <c r="AJ8" s="13">
+        <f>iferror(lookup(if(AI8="",G8,AI8),{0,1,10},{0.0,5.63609,5.3575}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="13">
+        <f>iferror(if(AI8="",G8,AI8)*AJ8,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM8" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1958,7 +2039,7 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <f>BoardQty*1</f>
+        <f>BoardQty*5</f>
         <v>0</v>
       </c>
       <c r="H9" s="13">
@@ -1969,8 +2050,56 @@
         <f>iferror(G9*H9,"")</f>
         <v>0</v>
       </c>
+      <c r="P9">
+        <v>131141</v>
+      </c>
+      <c r="R9" s="13">
+        <f>iferror(lookup(if(Q9="",G9,Q9),{0,1,100,500,2500,5000},{0.0,0.0070719,0.0070719,0.00610755,0.00353595,0.00267875}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <f>iferror(if(Q9="",G9,Q9)*R9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>137</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9">
+        <v>227106</v>
+      </c>
+      <c r="X9" s="13">
+        <f>iferror(lookup(if(W9="",G9,W9),{0,1,10,100,1000,2500,10000},{0.0,0.1,0.008,0.003,0.002,0.001,0.001}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <f>iferror(if(W9="",G9,W9)*X9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB9">
+        <v>10049</v>
+      </c>
+      <c r="AD9" s="13">
+        <f>iferror(lookup(if(AC9="",G9,AC9),{0,1,10,25,100,250,1000},{0.0,0.08,0.014,0.009,0.006,0.004,0.002}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="13">
+        <f>iferror(if(AC9="",G9,AC9)*AD9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>177</v>
+      </c>
       <c r="AG9" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1978,7 +2107,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1987,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H10" s="13">
@@ -1998,22 +2127,19 @@
         <f>iferror(G10*H10,"")</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="14" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
       </c>
       <c r="G11">
         <f>BoardQty*1</f>
@@ -2027,22 +2153,42 @@
         <f>iferror(G11*H11,"")</f>
         <v>0</v>
       </c>
+      <c r="V11">
+        <v>14345</v>
+      </c>
+      <c r="X11" s="13">
+        <f>iferror(lookup(if(W11="",G11,W11),{0,1,10,100,500,1000,2500,5000,10000,25000},{0.0,0.25,0.193,0.159,0.124,0.114,0.11,0.103,0.1,0.096}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <f>iferror(if(W11="",G11,W11)*X11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG11" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
       <c r="G12">
-        <f>BoardQty*2</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H12" s="13">
@@ -2053,56 +2199,28 @@
         <f>iferror(G12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1350</v>
-      </c>
-      <c r="X12" s="13">
-        <f>iferror(lookup(if(W12="",G12,W12),{0,1,10,100,1500,3000,9000,24000},{0.0,0.69,0.44,0.296,0.234,0.21,0.207,0.202}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
-        <f>iferror(if(W12="",G12,W12)*X12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>142</v>
-      </c>
       <c r="AA12" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH12">
-        <v>350</v>
-      </c>
-      <c r="AJ12" s="13">
-        <f>iferror(lookup(if(AI12="",G12,AI12),{0,1,25,100},{0.0,0.27859,0.27859,0.229301}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <f>iferror(if(AI12="",G12,AI12)*AJ12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM12" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
       <c r="G13">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H13" s="13">
@@ -2113,73 +2231,25 @@
         <f>iferror(G13*H13,"")</f>
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>33285</v>
-      </c>
-      <c r="R13" s="13">
-        <f>iferror(lookup(if(Q13="",G13,Q13),{0,1,80,250,750,1500},{0.0,0.096435,0.096435,0.096435,0.06429,0.053575}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="13">
-        <f>iferror(if(Q13="",G13,Q13)*R13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>126</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB13">
-        <v>825</v>
-      </c>
-      <c r="AD13" s="13">
-        <f>iferror(lookup(if(AC13="",G13,AC13),{0,1,10,25,50,100,500,1000},{0.0,0.32,0.221,0.178,0.135,0.092,0.078,0.063}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13">
-        <f>iferror(if(AC13="",G13,AC13)*AD13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH13">
-        <v>400</v>
-      </c>
-      <c r="AJ13" s="13">
-        <f>iferror(lookup(if(AI13="",G13,AI13),{0,1,100,200},{0.0,0.08572,0.08572,0.077148}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="13">
-        <f>iferror(if(AI13="",G13,AI13)*AJ13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM13" s="14" t="s">
-        <v>124</v>
+      <c r="AA13" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
       <c r="G14">
-        <f>BoardQty*70</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H14" s="13">
@@ -2190,56 +2260,56 @@
         <f>iferror(G14*H14,"")</f>
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>83473</v>
-      </c>
-      <c r="R14" s="13">
-        <f>iferror(lookup(if(Q14="",G14,Q14),{0,1,100,500,2500,5000},{0.0,0.0,0.0,0.0,0.0,0.0}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
-        <f>iferror(if(Q14="",G14,Q14)*R14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>127</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB14">
-        <v>50350</v>
-      </c>
-      <c r="AD14" s="13">
-        <f>iferror(lookup(if(AC14="",G14,AC14),{0,1,10,25,100,250,500,1000},{0.0,0.014,0.014,0.01,0.007,0.006,0.005,0.004}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="13">
-        <f>iferror(if(AC14="",G14,AC14)*AD14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG14" s="14" t="s">
-        <v>124</v>
+      <c r="V14">
+        <v>1350</v>
+      </c>
+      <c r="X14" s="13">
+        <f>iferror(lookup(if(W14="",G14,W14),{0,1,10,100,1500,3000,9000,24000},{0.0,0.69,0.44,0.296,0.234,0.21,0.207,0.202}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <f>iferror(if(W14="",G14,W14)*X14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH14">
+        <v>350</v>
+      </c>
+      <c r="AJ14" s="13">
+        <f>iferror(lookup(if(AI14="",G14,AI14),{0,1,25,100},{0.0,0.27859,0.27859,0.229301}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <f>iferror(if(AI14="",G14,AI14)*AJ14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM14" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
       <c r="G15">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H15" s="13">
@@ -2250,19 +2320,87 @@
         <f>iferror(G15*H15,"")</f>
         <v>0</v>
       </c>
+      <c r="P15">
+        <v>33265</v>
+      </c>
+      <c r="R15" s="13">
+        <f>iferror(lookup(if(Q15="",G15,Q15),{0,1,80,250,750,1500},{0.0,0.09997095,0.09997095,0.0912918,0.06289705,0.05603945}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <f>iferror(if(Q15="",G15,Q15)*R15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V15">
+        <v>29878</v>
+      </c>
+      <c r="X15" s="13">
+        <f>iferror(lookup(if(W15="",G15,W15),{0,1,10,100,1000,3000,9000,24000,45000,99000},{0.0,0.32,0.22,0.092,0.063,0.049,0.042,0.039,0.037,0.032}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <f>iferror(if(W15="",G15,W15)*X15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15">
+        <v>825</v>
+      </c>
+      <c r="AD15" s="13">
+        <f>iferror(lookup(if(AC15="",G15,AC15),{0,1,10,25,50,100,500,1000},{0.0,0.32,0.221,0.178,0.135,0.092,0.078,0.063}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <f>iferror(if(AC15="",G15,AC15)*AD15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH15">
+        <v>400</v>
+      </c>
+      <c r="AJ15" s="13">
+        <f>iferror(lookup(if(AI15="",G15,AI15),{0,1,100,200},{0.0,0.08572,0.08572,0.077148}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <f>iferror(if(AI15="",G15,AI15)*AJ15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM15" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
       </c>
       <c r="G16">
         <f>BoardQty*1</f>
@@ -2276,14 +2414,45 @@
         <f>iferror(G16*H16,"")</f>
         <v>0</v>
       </c>
+      <c r="P16">
+        <v>48165</v>
+      </c>
+      <c r="R16" s="13">
+        <f>iferror(lookup(if(Q16="",G16,Q16),{0,1,25,80,200,600,2000,6000,12000},{0.0,1.041498,0.8325555,0.754336,0.6246845,0.5582515,0.542179,0.531464,0.520749}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <f>iferror(if(Q16="",G16,Q16)*R16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>139</v>
+      </c>
       <c r="U16" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V16">
+        <v>30605</v>
+      </c>
+      <c r="X16" s="13">
+        <f>iferror(lookup(if(W16="",G16,W16),{0,1,25,50,100,250,500,1000,3500},{0.0,0.97,0.905,0.798,0.725,0.689,0.618,0.526,0.515}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <f>iferror(if(W16="",G16,W16)*X16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="AB16">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="AD16" s="13">
-        <f>iferror(lookup(if(AC16="",G16,AC16),{0,1,10,50,100,500},{0.0,3.19,2.77,2.43,1.92,1.62}),"")</f>
+        <f>iferror(lookup(if(AC16="",G16,AC16),{0,1,10,25,50,100,250,500},{0.0,0.748,0.704,0.668,0.632,0.556,0.54,0.52}),"")</f>
         <v>0</v>
       </c>
       <c r="AE16" s="13">
@@ -2291,27 +2460,44 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AG16" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AH16">
+        <v>100</v>
+      </c>
+      <c r="AJ16" s="13">
+        <f>iferror(lookup(if(AI16="",G16,AI16),{0,1,25,125},{0.0,1.2461545,1.2461545,1.142219}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <f>iferror(if(AI16="",G16,AI16)*AJ16,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM16" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
       <c r="G17">
-        <f>BoardQty*1</f>
+        <f>BoardQty*73</f>
         <v>0</v>
       </c>
       <c r="H17" s="13">
@@ -2322,56 +2508,53 @@
         <f>iferror(G17*H17,"")</f>
         <v>0</v>
       </c>
+      <c r="P17">
+        <v>83453</v>
+      </c>
+      <c r="R17" s="13">
+        <f>iferror(lookup(if(Q17="",G17,Q17),{0,1,100,500,2500,5000},{0.0,0.00482175,0.00482175,0.004286,0.0030002,0.0025716}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <f>iferror(if(Q17="",G17,Q17)*R17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>140</v>
+      </c>
       <c r="U17" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V17">
-        <v>641</v>
-      </c>
-      <c r="X17" s="13">
-        <f>iferror(lookup(if(W17="",G17,W17),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="13">
-        <f>iferror(if(W17="",G17,W17)*X17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA17" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AB17">
+        <v>50340</v>
+      </c>
+      <c r="AD17" s="13">
+        <f>iferror(lookup(if(AC17="",G17,AC17),{0,1,10,25,100,250,500,1000},{0.0,0.014,0.014,0.01,0.007,0.006,0.005,0.004}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="13">
+        <f>iferror(if(AC17="",G17,AC17)*AD17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>180</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH17">
-        <v>136</v>
-      </c>
-      <c r="AJ17" s="13">
-        <f>iferror(lookup(if(AI17="",G17,AI17),{0,1,2,10},{0.0,4.9985475,4.9985475,4.4842275}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="13">
-        <f>iferror(if(AI17="",G17,AI17)*AJ17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM17" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
       </c>
       <c r="G18">
         <f>BoardQty*1</f>
@@ -2391,10 +2574,10 @@
         <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
@@ -2411,59 +2594,42 @@
         <f>iferror(G19*H19,"")</f>
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>902</v>
-      </c>
-      <c r="R19" s="13">
-        <f>iferror(lookup(if(Q19="",G19,Q19),{0,1,5,10,40,100,400,1000},{0.0,6.246845,5.625375,4.52173,4.232425,3.718105,3.310935,2.860905}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="13">
-        <f>iferror(if(Q19="",G19,Q19)*R19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>128</v>
-      </c>
       <c r="U19" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V19">
-        <v>69</v>
-      </c>
-      <c r="X19" s="13">
-        <f>iferror(lookup(if(W19="",G19,W19),{0,1,10,25,50,100,250,500,1000},{0.0,5.73,5.13,4.61,4.32,4.2,3.78,3.38,2.97}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13">
-        <f>iferror(if(W19="",G19,W19)*X19,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AA19" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AB19">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="13">
+        <f>iferror(lookup(if(AC19="",G19,AC19),{0,1,10,50,100,500},{0.0,3.19,2.77,2.43,1.92,1.62}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13">
+        <f>iferror(if(AC19="",G19,AC19)*AD19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>181</v>
       </c>
       <c r="AG19" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM19" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <f>BoardQty*1</f>
@@ -2477,28 +2643,14 @@
         <f>iferror(G20*H20,"")</f>
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>785</v>
-      </c>
-      <c r="R20" s="13">
-        <f>iferror(lookup(if(Q20="",G20,Q20),{0,1,10,40,100,300,1000,3000,10000},{0.0,0.62147,0.62147,0.62147,0.53575,0.45003,0.36431,0.27859,0.27859}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="13">
-        <f>iferror(if(Q20="",G20,Q20)*R20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>129</v>
-      </c>
       <c r="U20" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="V20">
-        <v>10071</v>
+        <v>641</v>
       </c>
       <c r="X20" s="13">
-        <f>iferror(lookup(if(W20="",G20,W20),{0,1,10,100,500,1000,3000,9000},{0.0,0.88,0.678,0.515,0.438,0.351,0.287,0.277}),"")</f>
+        <f>iferror(lookup(if(W20="",G20,W20),{0,1,10,25,50,100,250,500,1000},{0.0,5.15,4.62,4.3,4.08,3.78,3.59,3.22,2.52}),"")</f>
         <v>0</v>
       </c>
       <c r="Y20" s="13">
@@ -2506,33 +2658,19 @@
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB20">
-        <v>1211</v>
-      </c>
-      <c r="AD20" s="13">
-        <f>iferror(lookup(if(AC20="",G20,AC20),{0,1,10,25,100,250,500,1000},{0.0,0.874,0.769,0.68,0.593,0.516,0.439,0.352}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="13">
-        <f>iferror(if(AC20="",G20,AC20)*AD20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AG20" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH20">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="AJ20" s="13">
-        <f>iferror(lookup(if(AI20="",G20,AI20),{0,1,10,50},{0.0,0.6053975,0.6053975,0.6032545}),"")</f>
+        <f>iferror(lookup(if(AI20="",G20,AI20),{0,1,2,10},{0.0,4.9985475,4.9985475,4.4842275}),"")</f>
         <v>0</v>
       </c>
       <c r="AK20" s="13">
@@ -2540,21 +2678,24 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AM20" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
       </c>
       <c r="G21">
         <f>BoardQty*1</f>
@@ -2568,19 +2709,42 @@
         <f>iferror(G21*H21,"")</f>
         <v>0</v>
       </c>
+      <c r="P21">
+        <v>244</v>
+      </c>
+      <c r="R21" s="13">
+        <f>iferror(lookup(if(Q21="",G21,Q21),{0,1,25,80,200,600,2000},{0.0,1.041498,0.8325555,0.7489785,0.6246845,0.5625375,0.544322}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <f>iferror(if(Q21="",G21,Q21)*R21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG21" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <f>BoardQty*1</f>
@@ -2595,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>237</v>
+        <v>902</v>
       </c>
       <c r="R22" s="13">
-        <f>iferror(lookup(if(Q22="",G22,Q22),{0,1,25,100},{0.0,2.046565,1.7144,1.52153}),"")</f>
+        <f>iferror(lookup(if(Q22="",G22,Q22),{0,1,5,10,40,100,400,1000},{0.0,6.246845,5.625375,4.52173,4.232425,3.718105,3.310935,2.860905}),"")</f>
         <v>0</v>
       </c>
       <c r="S22" s="13">
@@ -2606,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="V22">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="X22" s="13">
-        <f>iferror(lookup(if(W22="",G22,W22),{0,1,10,25,50,100,250,500,1000},{0.0,1.69,1.6,1.55,1.51,1.41,1.37,1.29,1.27}),"")</f>
+        <f>iferror(lookup(if(W22="",G22,W22),{0,1,10,25,50,100,250,500,1000},{0.0,5.73,5.13,4.61,4.32,4.2,3.78,3.38,2.97}),"")</f>
         <v>0</v>
       </c>
       <c r="Y22" s="13">
@@ -2623,44 +2787,33 @@
         <v>0</v>
       </c>
       <c r="Z22" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB22">
-        <v>237</v>
-      </c>
-      <c r="AD22" s="13">
-        <f>iferror(lookup(if(AC22="",G22,AC22),{0,1,100,250,500,1000},{0.0,2.8,2.29,2.1,1.95,1.83}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <f>iferror(if(AC22="",G22,AC22)*AD22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="AG22" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G23">
-        <f>BoardQty*39</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H23" s="13">
@@ -2672,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>92197</v>
+        <v>785</v>
       </c>
       <c r="R23" s="13">
-        <f>iferror(lookup(if(Q23="",G23,Q23),{0,1,100,500,2500,5000},{0.0,0.02143,0.02143,0.02143,0.010715,0.010715}),"")</f>
+        <f>iferror(lookup(if(Q23="",G23,Q23),{0,1,10,40,100,300,1000,3000,10000},{0.0,0.6246845,0.6246845,0.6225415,0.53575,0.4532445,0.3610955,0.282876,0.2732325}),"")</f>
         <v>0</v>
       </c>
       <c r="S23" s="13">
@@ -2683,16 +2836,33 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V23">
+        <v>10021</v>
+      </c>
+      <c r="X23" s="13">
+        <f>iferror(lookup(if(W23="",G23,W23),{0,1,10,100,500,1000,3000,9000},{0.0,0.88,0.678,0.515,0.438,0.351,0.287,0.277}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="13">
+        <f>iferror(if(W23="",G23,W23)*X23,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="AB23">
-        <v>10000</v>
+        <v>1211</v>
       </c>
       <c r="AD23" s="13">
-        <f>iferror(lookup(if(AC23="",G23,AC23),{0,1,5000},{0.0,0.019,0.019}),"")</f>
+        <f>iferror(lookup(if(AC23="",G23,AC23),{0,1,10,25,100,250,500,1000},{0.0,0.874,0.769,0.68,0.593,0.516,0.439,0.352}),"")</f>
         <v>0</v>
       </c>
       <c r="AE23" s="13">
@@ -2700,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="AF23" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="AG23" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH23">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AJ23" s="13">
-        <f>iferror(lookup(if(AI23="",G23,AI23),{0,1,100,500},{0.0,0.023573,0.023573,0.0182155}),"")</f>
+        <f>iferror(lookup(if(AI23="",G23,AI23),{0,1,10,50},{0.0,0.6053975,0.6053975,0.6032545}),"")</f>
         <v>0</v>
       </c>
       <c r="AK23" s="13">
@@ -2717,27 +2887,24 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="AM23" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <f>BoardQty*16</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H24" s="13">
@@ -2748,90 +2915,22 @@
         <f>iferror(G24*H24,"")</f>
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>2922</v>
-      </c>
-      <c r="R24" s="13">
-        <f>iferror(lookup(if(Q24="",G24,Q24),{0,1,10,100,250,500,1000},{0.0,0.6375425,0.330022,0.285019,0.252874,0.2196575,0.1875125}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="13">
-        <f>iferror(if(Q24="",G24,Q24)*R24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T24" t="s">
-        <v>132</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V24">
-        <v>8901</v>
-      </c>
-      <c r="X24" s="13">
-        <f>iferror(lookup(if(W24="",G24,W24),{0,1,10,100,1000,3000,9000,24000},{0.0,0.55,0.462,0.282,0.218,0.186,0.173,0.166}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="13">
-        <f>iferror(if(W24="",G24,W24)*X24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA24" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB24">
-        <v>2754</v>
-      </c>
-      <c r="AD24" s="13">
-        <f>iferror(lookup(if(AC24="",G24,AC24),{0,1,10,100,1000,2500,10000,25000,50000},{0.0,0.635,0.533,0.324,0.251,0.214,0.199,0.188,0.181}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="13">
-        <f>iferror(if(AC24="",G24,AC24)*AD24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG24" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH24">
-        <v>80</v>
-      </c>
-      <c r="AJ24" s="13">
-        <f>iferror(lookup(if(AI24="",G24,AI24),{0,1,20,200},{0.0,0.2475165,0.2475165,0.229301}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="13">
-        <f>iferror(if(AI24="",G24,AI24)*AJ24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM24" s="14" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
       <c r="G25">
-        <f>BoardQty*8</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
@@ -2843,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1570</v>
+        <v>237</v>
       </c>
       <c r="R25" s="13">
-        <f>iferror(lookup(if(Q25="",G25,Q25),{0,1,100,500,1000,2000},{0.0,0.053575,0.053575,0.032145,0.02143,0.02143}),"")</f>
+        <f>iferror(lookup(if(Q25="",G25,Q25),{0,1,25,100},{0.0,2.046565,1.7144,1.52153}),"")</f>
         <v>0</v>
       </c>
       <c r="S25" s="13">
@@ -2854,16 +2953,33 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V25">
+        <v>181</v>
+      </c>
+      <c r="X25" s="13">
+        <f>iferror(lookup(if(W25="",G25,W25),{0,1,10,25,50,100,250,500,1000},{0.0,1.69,1.6,1.55,1.51,1.41,1.37,1.29,1.27}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="13">
+        <f>iferror(if(W25="",G25,W25)*X25,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA25" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="AB25">
-        <v>1401</v>
+        <v>237</v>
       </c>
       <c r="AD25" s="13">
-        <f>iferror(lookup(if(AC25="",G25,AC25),{0,1,250,500,1000,5000},{0.0,0.039,0.029,0.026,0.024,0.021}),"")</f>
+        <f>iferror(lookup(if(AC25="",G25,AC25),{0,1,100,250,500,1000},{0.0,2.8,2.29,2.1,1.95,1.83}),"")</f>
         <v>0</v>
       </c>
       <c r="AE25" s="13">
@@ -2871,41 +2987,24 @@
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH25">
-        <v>150</v>
-      </c>
-      <c r="AJ25" s="13">
-        <f>iferror(lookup(if(AI25="",G25,AI25),{0,1,50,500},{0.0,0.047146,0.047146,0.0460745}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="13">
-        <f>iferror(if(AI25="",G25,AI25)*AJ25,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM25" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <f>BoardQty*1</f>
@@ -2919,22 +3018,90 @@
         <f>iferror(G26*H26,"")</f>
         <v>0</v>
       </c>
+      <c r="P26">
+        <v>48165</v>
+      </c>
+      <c r="R26" s="13">
+        <f>iferror(lookup(if(Q26="",G26,Q26),{0,1,25,80,200,600,2000,6000,12000},{0.0,1.041498,0.8325555,0.754336,0.6246845,0.5582515,0.542179,0.531464,0.520749}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
+        <f>iferror(if(Q26="",G26,Q26)*R26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>139</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V26">
+        <v>30605</v>
+      </c>
+      <c r="X26" s="13">
+        <f>iferror(lookup(if(W26="",G26,W26),{0,1,25,50,100,250,500,1000,3500},{0.0,0.97,0.905,0.798,0.725,0.689,0.618,0.526,0.515}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="13">
+        <f>iferror(if(W26="",G26,W26)*X26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB26">
+        <v>178</v>
+      </c>
+      <c r="AD26" s="13">
+        <f>iferror(lookup(if(AC26="",G26,AC26),{0,1,10,25,50,100,250,500},{0.0,0.748,0.704,0.668,0.632,0.556,0.54,0.52}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="13">
+        <f>iferror(if(AC26="",G26,AC26)*AD26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH26">
+        <v>100</v>
+      </c>
+      <c r="AJ26" s="13">
+        <f>iferror(lookup(if(AI26="",G26,AI26),{0,1,25,125},{0.0,1.2461545,1.2461545,1.142219}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="13">
+        <f>iferror(if(AI26="",G26,AI26)*AJ26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
       <c r="G27">
-        <f>BoardQty*1</f>
+        <f>BoardQty*39</f>
         <v>0</v>
       </c>
       <c r="H27" s="13">
@@ -2946,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>23673</v>
+        <v>92057</v>
       </c>
       <c r="R27" s="13">
-        <f>iferror(lookup(if(Q27="",G27,Q27),{0,1,10,25,50,100,250},{0.0,0.505748,0.4811035,0.4553875,0.430743,0.4082415,0.3846685}),"")</f>
+        <f>iferror(lookup(if(Q27="",G27,Q27),{0,1,100,500,2500,5000},{0.0,0.0218586,0.0218586,0.01703685,0.0139295,0.01275085}),"")</f>
         <v>0</v>
       </c>
       <c r="S27" s="13">
@@ -2957,16 +3124,33 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V27">
+        <v>572778</v>
+      </c>
+      <c r="X27" s="13">
+        <f>iferror(lookup(if(W27="",G27,W27),{0,1,10,100,1000,2500,10000},{0.0,0.11,0.013,0.008,0.006,0.005,0.005}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="13">
+        <f>iferror(if(W27="",G27,W27)*X27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="AB27">
-        <v>35517</v>
+        <v>10000</v>
       </c>
       <c r="AD27" s="13">
-        <f>iferror(lookup(if(AC27="",G27,AC27),{0,1,10,100,250,500,1000,2000},{0.0,0.73,0.667,0.571,0.517,0.476,0.408,0.354}),"")</f>
+        <f>iferror(lookup(if(AC27="",G27,AC27),{0,1,5000},{0.0,0.019,0.019}),"")</f>
         <v>0</v>
       </c>
       <c r="AE27" s="13">
@@ -2974,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="AG27" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH27">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="AJ27" s="13">
-        <f>iferror(lookup(if(AI27="",G27,AI27),{0,1,5,75},{0.0,0.454316,0.454316,0.398598}),"")</f>
+        <f>iferror(lookup(if(AI27="",G27,AI27),{0,1,100,500},{0.0,0.023573,0.023573,0.0182155}),"")</f>
         <v>0</v>
       </c>
       <c r="AK27" s="13">
@@ -2991,27 +3175,27 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="AM27" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
       </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28">
-        <f>BoardQty*1</f>
+        <f>BoardQty*16</f>
         <v>0</v>
       </c>
       <c r="H28" s="13">
@@ -3022,14 +3206,28 @@
         <f>iferror(G28*H28,"")</f>
         <v>0</v>
       </c>
+      <c r="P28">
+        <v>2922</v>
+      </c>
+      <c r="R28" s="13">
+        <f>iferror(lookup(if(Q28="",G28,Q28),{0,1,10,100,250,500,1000},{0.0,0.6375425,0.330022,0.285019,0.252874,0.2196575,0.1875125}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <f>iferror(if(Q28="",G28,Q28)*R28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>146</v>
+      </c>
       <c r="U28" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="V28">
-        <v>746</v>
+        <v>8901</v>
       </c>
       <c r="X28" s="13">
-        <f>iferror(lookup(if(W28="",G28,W28),{0,1,10,25,50,100,250,500,1000},{0.0,15.41,14.17,13.59,12.86,11.97,11.31,10.6,9.55}),"")</f>
+        <f>iferror(lookup(if(W28="",G28,W28),{0,1,10,100,1000,3000,9000,24000},{0.0,0.55,0.462,0.282,0.218,0.186,0.173,0.166}),"")</f>
         <v>0</v>
       </c>
       <c r="Y28" s="13">
@@ -3037,19 +3235,33 @@
         <v>0</v>
       </c>
       <c r="Z28" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="AA28" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AB28">
+        <v>2734</v>
+      </c>
+      <c r="AD28" s="13">
+        <f>iferror(lookup(if(AC28="",G28,AC28),{0,1,10,100,1000,2500,10000,25000,50000},{0.0,0.635,0.533,0.324,0.251,0.214,0.199,0.188,0.181}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="13">
+        <f>iferror(if(AC28="",G28,AC28)*AD28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>185</v>
       </c>
       <c r="AG28" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH28">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AJ28" s="13">
-        <f>iferror(lookup(if(AI28="",G28,AI28),{0,1,30},{0.0,14.647405,12.911575}),"")</f>
+        <f>iferror(lookup(if(AI28="",G28,AI28),{0,1,20,200},{0.0,0.2475165,0.2475165,0.229301}),"")</f>
         <v>0</v>
       </c>
       <c r="AK28" s="13">
@@ -3057,24 +3269,27 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AM28" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
+      <c r="F29" t="s">
+        <v>86</v>
       </c>
       <c r="G29">
-        <f>BoardQty*2</f>
+        <f>BoardQty*8</f>
         <v>0</v>
       </c>
       <c r="H29" s="13">
@@ -3085,22 +3300,87 @@
         <f>iferror(G29*H29,"")</f>
         <v>0</v>
       </c>
+      <c r="P29">
+        <v>1570</v>
+      </c>
+      <c r="R29" s="13">
+        <f>iferror(lookup(if(Q29="",G29,Q29),{0,1,100,500,1000,2000},{0.0,0.0488604,0.0488604,0.03268075,0.02582315,0.0246445}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
+        <f>iferror(if(Q29="",G29,Q29)*R29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>147</v>
+      </c>
+      <c r="U29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V29">
+        <v>41428</v>
+      </c>
+      <c r="X29" s="13">
+        <f>iferror(lookup(if(W29="",G29,W29),{0,1,10,100,500,1000,4000,8000},{0.0,0.149,0.057,0.039,0.032,0.027,0.021,0.018}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="13">
+        <f>iferror(if(W29="",G29,W29)*X29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB29">
+        <v>1381</v>
+      </c>
+      <c r="AD29" s="13">
+        <f>iferror(lookup(if(AC29="",G29,AC29),{0,1,250,500,1000,5000},{0.0,0.039,0.029,0.026,0.024,0.021}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="13">
+        <f>iferror(if(AC29="",G29,AC29)*AD29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH29">
+        <v>150</v>
+      </c>
+      <c r="AJ29" s="13">
+        <f>iferror(lookup(if(AI29="",G29,AI29),{0,1,50,500},{0.0,0.047146,0.047146,0.0460745}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="13">
+        <f>iferror(if(AI29="",G29,AI29)*AJ29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
       <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="G30">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H30" s="13">
@@ -3111,73 +3391,22 @@
         <f>iferror(G30*H30,"")</f>
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>19882</v>
-      </c>
-      <c r="R30" s="13">
-        <f>iferror(lookup(if(Q30="",G30,Q30),{0,1,100,500,1000,2000},{0.0,0.04286,0.04286,0.032145,0.02143,0.02143}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="13">
-        <f>iferror(if(Q30="",G30,Q30)*R30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>135</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB30">
-        <v>4000</v>
-      </c>
-      <c r="AD30" s="13">
-        <f>iferror(lookup(if(AC30="",G30,AC30),{0,1,1000,5000},{0.0,0.031,0.031,0.028}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="13">
-        <f>iferror(if(AC30="",G30,AC30)*AD30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG30" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH30">
-        <v>150</v>
-      </c>
-      <c r="AJ30" s="13">
-        <f>iferror(lookup(if(AI30="",G30,AI30),{0,1,50,250},{0.0,0.087863,0.087863,0.0760765}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="13">
-        <f>iferror(if(AI30="",G30,AI30)*AJ30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>179</v>
-      </c>
-      <c r="AM30" s="14" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G31">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H31" s="13">
@@ -3189,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1091</v>
+        <v>23543</v>
       </c>
       <c r="R31" s="13">
-        <f>iferror(lookup(if(Q31="",G31,Q31),{0,1,5,20,60,200,600},{0.0,8.475565,6.975465,5.93611,5.76467,4.811035,4.5003}),"")</f>
+        <f>iferror(lookup(if(Q31="",G31,Q31),{0,1,10,25,50,100,250},{0.0,0.505748,0.4811035,0.4553875,0.430743,0.4082415,0.3846685}),"")</f>
         <v>0</v>
       </c>
       <c r="S31" s="13">
@@ -3200,16 +3429,33 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V31">
+        <v>21140</v>
+      </c>
+      <c r="X31" s="13">
+        <f>iferror(lookup(if(W31="",G31,W31),{0,1,10,100,250,500,1000,2000,4000,10000},{0.0,0.729,0.667,0.57,0.517,0.476,0.408,0.394,0.381,0.354}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="13">
+        <f>iferror(if(W31="",G31,W31)*X31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA31" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="AB31">
-        <v>28</v>
+        <v>35517</v>
       </c>
       <c r="AD31" s="13">
-        <f>iferror(lookup(if(AC31="",G31,AC31),{0,1,10,25,50,100,250,500},{0.0,7.76,6.98,6.36,5.93,5.74,5.27,4.79}),"")</f>
+        <f>iferror(lookup(if(AC31="",G31,AC31),{0,1,10,100,250,500,1000,2000},{0.0,0.73,0.667,0.571,0.517,0.476,0.408,0.354}),"")</f>
         <v>0</v>
       </c>
       <c r="AE31" s="13">
@@ -3217,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="AG31" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH31">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AJ31" s="13">
-        <f>iferror(lookup(if(AI31="",G31,AI31),{0,1,10},{0.0,6.92189,6.225415}),"")</f>
+        <f>iferror(lookup(if(AI31="",G31,AI31),{0,1,5,75},{0.0,0.454316,0.454316,0.398598}),"")</f>
         <v>0</v>
       </c>
       <c r="AK31" s="13">
@@ -3234,24 +3480,24 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="AM31" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G32">
         <f>BoardQty*1</f>
@@ -3265,28 +3511,14 @@
         <f>iferror(G32*H32,"")</f>
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>1067</v>
-      </c>
-      <c r="R32" s="13">
-        <f>iferror(lookup(if(Q32="",G32,Q32),{0,1,20,50,150,400,1250,4000,10000},{0.0,0.4168135,0.3568095,0.2882335,0.244302,0.242159,0.2410875,0.2389445,0.2218005}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="13">
-        <f>iferror(if(Q32="",G32,Q32)*R32,"")</f>
-        <v>0</v>
-      </c>
-      <c r="T32" t="s">
-        <v>137</v>
-      </c>
       <c r="U32" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="V32">
-        <v>2204</v>
+        <v>746</v>
       </c>
       <c r="X32" s="13">
-        <f>iferror(lookup(if(W32="",G32,W32),{0,1,10,25,50,100,250,500,1000},{0.0,0.4,0.352,0.308,0.276,0.263,0.236,0.2,0.119}),"")</f>
+        <f>iferror(lookup(if(W32="",G32,W32),{0,1,10,25,50,100,250,500,1000},{0.0,15.41,14.17,13.59,12.86,11.97,11.31,10.6,9.55}),"")</f>
         <v>0</v>
       </c>
       <c r="Y32" s="13">
@@ -3294,27 +3526,30 @@
         <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AA32" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB32">
-        <v>173</v>
-      </c>
-      <c r="AD32" s="13">
-        <f>iferror(lookup(if(AC32="",G32,AC32),{0,1,10,100,1000,2000,5000,10000},{0.0,0.381,0.32,0.206,0.165,0.14,0.137,0.132}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="13">
-        <f>iferror(if(AC32="",G32,AC32)*AD32,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AG32" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AH32">
+        <v>16</v>
+      </c>
+      <c r="AJ32" s="13">
+        <f>iferror(lookup(if(AI32="",G32,AI32),{0,1,30},{0.0,14.647405,12.911575}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="13">
+        <f>iferror(if(AI32="",G32,AI32)*AJ32,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:39">
@@ -3322,16 +3557,16 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
         <v>100</v>
       </c>
       <c r="G33">
-        <f>BoardQty*4</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H33" s="13">
@@ -3343,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>43</v>
+        <v>19882</v>
       </c>
       <c r="R33" s="13">
-        <f>iferror(lookup(if(Q33="",G33,Q33),{0,1,10,25,50,100,250},{0.0,14.65812,12.654415,11.304325,10.86501,9.77208,9.397055}),"")</f>
+        <f>iferror(lookup(if(Q33="",G33,Q33),{0,1,100,500,1000,2000},{0.0,0.0409313,0.0409313,0.02860905,0.02346585,0.02132285}),"")</f>
         <v>0</v>
       </c>
       <c r="S33" s="13">
@@ -3354,16 +3589,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="V33">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="X33" s="13">
-        <f>iferror(lookup(if(W33="",G33,W33),{0,1,5,10,25,50,100,250,500},{0.0,14.59,13.65,13.25,12.26,11.6,11.27,10.24,9.58}),"")</f>
+        <f>iferror(lookup(if(W33="",G33,W33),{0,1,10,100,500,1000,4000,8000,24000},{0.0,0.13,0.047,0.033,0.028,0.022,0.017,0.016,0.014}),"")</f>
         <v>0</v>
       </c>
       <c r="Y33" s="13">
@@ -3371,16 +3606,16 @@
         <v>0</v>
       </c>
       <c r="Z33" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AA33" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AB33">
-        <v>10</v>
+        <v>4000</v>
       </c>
       <c r="AD33" s="13">
-        <f>iferror(lookup(if(AC33="",G33,AC33),{0,1,5,10,25,50,100,250,500},{0.0,14.6,13.64,13.27,12.24,11.57,11.28,10.25,9.59}),"")</f>
+        <f>iferror(lookup(if(AC33="",G33,AC33),{0,1,1000,5000},{0.0,0.031,0.031,0.028}),"")</f>
         <v>0</v>
       </c>
       <c r="AE33" s="13">
@@ -3388,27 +3623,44 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AG33" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="AH33">
+        <v>150</v>
+      </c>
+      <c r="AJ33" s="13">
+        <f>iferror(lookup(if(AI33="",G33,AI33),{0,1,50,250},{0.0,0.087863,0.087863,0.0760765}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="13">
+        <f>iferror(if(AI33="",G33,AI33)*AJ33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM33" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
       <c r="G34">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H34" s="13">
@@ -3419,17 +3671,45 @@
         <f>iferror(G34*H34,"")</f>
         <v>0</v>
       </c>
+      <c r="P34">
+        <v>1080</v>
+      </c>
+      <c r="R34" s="13">
+        <f>iferror(lookup(if(Q34="",G34,Q34),{0,1,5,20,60,200,600},{0.0,8.475565,6.975465,5.93611,5.76467,4.811035,4.5003}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="13">
+        <f>iferror(if(Q34="",G34,Q34)*R34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>150</v>
+      </c>
       <c r="U34" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V34">
+        <v>837</v>
+      </c>
+      <c r="X34" s="13">
+        <f>iferror(lookup(if(W34="",G34,W34),{0,1,10,25,50,100,250,500,1000},{0.0,7.76,6.97,6.36,5.93,5.73,5.27,4.79,4.48}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="13">
+        <f>iferror(if(W34="",G34,W34)*X34,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>171</v>
       </c>
       <c r="AA34" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AB34">
-        <v>2400</v>
+        <v>28</v>
       </c>
       <c r="AD34" s="13">
-        <f>iferror(lookup(if(AC34="",G34,AC34),{0,1,2400,4800},{0.0,1.88,1.84,1.77}),"")</f>
+        <f>iferror(lookup(if(AC34="",G34,AC34),{0,1,10,25,50,100,250,500},{0.0,7.76,6.98,6.36,5.93,5.74,5.27,4.79}),"")</f>
         <v>0</v>
       </c>
       <c r="AE34" s="13">
@@ -3437,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="AG34" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AH34">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AJ34" s="13">
-        <f>iferror(lookup(if(AI34="",G34,AI34),{0,1,25},{0.0,4.62888,3.94312}),"")</f>
+        <f>iferror(lookup(if(AI34="",G34,AI34),{0,1,10},{0.0,6.92189,6.225415}),"")</f>
         <v>0</v>
       </c>
       <c r="AK34" s="13">
@@ -3454,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="AM34" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:39">
@@ -3465,16 +3745,16 @@
         <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>107</v>
       </c>
       <c r="G35">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H35" s="13">
@@ -3486,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>129583</v>
+        <v>1067</v>
       </c>
       <c r="R35" s="13">
-        <f>iferror(lookup(if(Q35="",G35,Q35),{0,1,100,500,1000,2000},{0.0,0.06429,0.06429,0.04286,0.032145,0.032145}),"")</f>
+        <f>iferror(lookup(if(Q35="",G35,Q35),{0,1,20,50,150,400,1250,4000,10000},{0.0,0.4168135,0.3568095,0.2882335,0.244302,0.242159,0.2410875,0.2389445,0.2218005}),"")</f>
         <v>0</v>
       </c>
       <c r="S35" s="13">
@@ -3497,16 +3777,33 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="V35">
+        <v>2179</v>
+      </c>
+      <c r="X35" s="13">
+        <f>iferror(lookup(if(W35="",G35,W35),{0,1,10,25,50,100,250,500,1000},{0.0,0.4,0.352,0.308,0.276,0.263,0.236,0.2,0.119}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="13">
+        <f>iferror(if(W35="",G35,W35)*X35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="AB35">
-        <v>12000</v>
+        <v>173</v>
       </c>
       <c r="AD35" s="13">
-        <f>iferror(lookup(if(AC35="",G35,AC35),{0,1,1000,5000},{0.0,0.033,0.033,0.03}),"")</f>
+        <f>iferror(lookup(if(AC35="",G35,AC35),{0,1,10,100,1000,2000,5000,10000},{0.0,0.381,0.32,0.206,0.165,0.14,0.137,0.132}),"")</f>
         <v>0</v>
       </c>
       <c r="AE35" s="13">
@@ -3514,41 +3811,24 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="AG35" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH35">
-        <v>100</v>
-      </c>
-      <c r="AJ35" s="13">
-        <f>iferror(lookup(if(AI35="",G35,AI35),{0,1,100,500},{0.0,0.053575,0.053575,0.0417885}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="13">
-        <f>iferror(if(AI35="",G35,AI35)*AJ35,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM35" s="14" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
         <v>109</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" t="s">
-        <v>110</v>
       </c>
       <c r="G36">
         <f>BoardQty*4</f>
@@ -3562,16 +3842,70 @@
         <f>iferror(G36*H36,"")</f>
         <v>0</v>
       </c>
+      <c r="P36">
+        <v>43</v>
+      </c>
+      <c r="R36" s="13">
+        <f>iferror(lookup(if(Q36="",G36,Q36),{0,1,10,25,50,100,250},{0.0,14.65812,12.654415,11.304325,10.86501,9.77208,9.397055}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <f>iferror(if(Q36="",G36,Q36)*R36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>152</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V36">
+        <v>129</v>
+      </c>
+      <c r="X36" s="13">
+        <f>iferror(lookup(if(W36="",G36,W36),{0,1,5,10,25,50,100,250,500},{0.0,14.59,13.65,13.25,12.26,11.6,11.27,10.24,9.58}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="13">
+        <f>iferror(if(W36="",G36,W36)*X36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB36">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="13">
+        <f>iferror(lookup(if(AC36="",G36,AC36),{0,1,5,10,25,50,100,250,500},{0.0,14.6,13.64,13.27,12.24,11.57,11.28,10.25,9.59}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="13">
+        <f>iferror(if(AC36="",G36,AC36)*AD36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG36" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
       </c>
       <c r="G37">
         <f>BoardQty*1</f>
@@ -3585,1926 +3919,2406 @@
         <f>iferror(G37*H37,"")</f>
         <v>0</v>
       </c>
+      <c r="P37">
+        <v>244</v>
+      </c>
+      <c r="R37" s="13">
+        <f>iferror(lookup(if(Q37="",G37,Q37),{0,1,25,80,200,600,2000},{0.0,1.041498,0.8325555,0.7489785,0.6246845,0.5625375,0.544322}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="13">
+        <f>iferror(if(Q37="",G37,Q37)*R37,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>141</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG37" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <f>iferror(G38*H38,"")</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB38">
+        <v>2400</v>
+      </c>
+      <c r="AD38" s="13">
+        <f>iferror(lookup(if(AC38="",G38,AC38),{0,1,2400,4800},{0.0,1.88,1.84,1.77}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13">
+        <f>iferror(if(AC38="",G38,AC38)*AD38,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH38">
+        <v>7</v>
+      </c>
+      <c r="AJ38" s="13">
+        <f>iferror(lookup(if(AI38="",G38,AI38),{0,1,25},{0.0,4.62888,3.94312}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13">
+        <f>iferror(if(AI38="",G38,AI38)*AJ38,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM38" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="K39">
-        <f t="array" ref="K39">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f t="array" ref="L39">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <f t="array" ref="M39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f t="array" ref="Q39">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <f t="array" ref="R39">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="array" ref="S39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f t="array" ref="W39">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f t="array" ref="X39">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f t="array" ref="Y39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="array" ref="AC39">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <f t="array" ref="AD39">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f t="array" ref="AE39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <f t="array" ref="AI39">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <f t="array" ref="AJ39">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <f t="array" ref="AK39">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39">
+        <f>BoardQty*2</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <f>iferror(G39*H39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>128063</v>
+      </c>
+      <c r="R39" s="13">
+        <f>iferror(lookup(if(Q39="",G39,Q39),{0,1,100,500,1000,2000},{0.0,0.0683617,0.0683617,0.04682455,0.03503805,0.02968055}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="13">
+        <f>iferror(if(Q39="",G39,Q39)*R39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>153</v>
+      </c>
+      <c r="U39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="V39">
+        <v>307830</v>
+      </c>
+      <c r="X39" s="13">
+        <f>iferror(lookup(if(W39="",G39,W39),{0,1,10,100,500,1000,4000,8000,24000},{0.0,0.2,0.08,0.055,0.047,0.038,0.03,0.027,0.025}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="13">
+        <f>iferror(if(W39="",G39,W39)*X39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB39">
+        <v>8000</v>
+      </c>
+      <c r="AD39" s="13">
+        <f>iferror(lookup(if(AC39="",G39,AC39),{0,1,1000,5000},{0.0,0.033,0.033,0.03}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13">
+        <f>iferror(if(AC39="",G39,AC39)*AD39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH39">
+        <v>100</v>
+      </c>
+      <c r="AJ39" s="13">
+        <f>iferror(lookup(if(AI39="",G39,AI39),{0,1,100,500},{0.0,0.053575,0.053575,0.0417885}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="13">
+        <f>iferror(if(AI39="",G39,AI39)*AJ39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM39" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="K40">
-        <f t="array" ref="K40">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f t="array" ref="L40">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <f t="array" ref="M40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <f t="array" ref="Q40">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <f t="array" ref="R40">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <f t="array" ref="W40">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <f t="array" ref="X40">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <f t="array" ref="Y40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <f t="array" ref="AI40">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <f t="array" ref="AJ40">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <f t="array" ref="AK40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40">
+        <f>BoardQty*4</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <f>iferror(G40*H40,"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:39">
-      <c r="K41">
-        <f t="array" ref="K41">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <f t="array" ref="L41">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <f t="array" ref="M41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <f t="array" ref="Q41">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <f t="array" ref="R41">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <f t="array" ref="W41">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <f t="array" ref="X41">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <f t="array" ref="Y41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <f t="array" ref="AI41">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <f t="array" ref="AJ41">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <f t="array" ref="AK41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39">
-      <c r="K42">
-        <f t="array" ref="K42">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f t="array" ref="L42">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <f t="array" ref="M42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <f t="array" ref="Q42">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <f t="array" ref="R42">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <f t="array" ref="W42">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <f t="array" ref="X42">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <f t="array" ref="Y42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <f t="array" ref="AI42">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <f t="array" ref="AJ42">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <f t="array" ref="AK42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <f>BoardQty*1</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f>iferror(G41*H41,"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="K43">
-        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K43">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L43">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M43">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="array" ref="Q43">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q43">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="array" ref="R43">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R43">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W43">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="array" ref="X43">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X43">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="array" ref="Y43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y43">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD43">
-        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="array" ref="AI43">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI43">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="array" ref="AJ43">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK43">
-        <f t="array" ref="AK43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK43">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="K44">
-        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K44">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L44">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M44">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="array" ref="Q44">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q44">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R44">
-        <f t="array" ref="R44">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R44">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W44">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="array" ref="X44">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X44">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="array" ref="Y44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y44">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="array" ref="AI44">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI44">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="array" ref="AJ44">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK44">
-        <f t="array" ref="AK44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK44">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="K45">
-        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K45">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L45">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M45">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="array" ref="Q45">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q45">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R45">
-        <f t="array" ref="R45">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R45">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W45">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="array" ref="X45">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X45">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="array" ref="Y45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y45">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI45">
-        <f t="array" ref="AI45">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI45">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f t="array" ref="AJ45">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK45">
-        <f t="array" ref="AK45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK45">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="K46">
-        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K46">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L46">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M46">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="array" ref="Q46">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q46">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="array" ref="R46">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R46">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W46">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="array" ref="X46">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X46">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="array" ref="Y46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y46">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI46">
-        <f t="array" ref="AI46">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI46">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="array" ref="AJ46">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK46">
-        <f t="array" ref="AK46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK46">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L47">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M47">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="array" ref="Q47">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q47">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="array" ref="R47">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R47">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W47">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="array" ref="X47">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X47">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="array" ref="Y47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y47">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD47">
-        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI47">
-        <f t="array" ref="AI47">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI47">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK47">
-        <f t="array" ref="AK47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK47">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L48">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M48">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="array" ref="Q48">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q48">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R48">
-        <f t="array" ref="R48">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R48">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W48">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="array" ref="X48">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X48">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="array" ref="Y48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y48">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI48">
-        <f t="array" ref="AI48">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI48">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK48">
-        <f t="array" ref="AK48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK48">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:37">
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L49">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M49">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="array" ref="Q49">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q49">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R49">
-        <f t="array" ref="R49">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R49">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W49">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="array" ref="X49">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X49">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="array" ref="Y49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y49">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD49">
-        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="array" ref="AI49">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI49">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK49">
-        <f t="array" ref="AK49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK49">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:37">
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L50">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M50">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="array" ref="Q50">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q50">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R50">
-        <f t="array" ref="R50">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R50">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W50">
-        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W50">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="array" ref="X50">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X50">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="array" ref="Y50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y50">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD50">
-        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI50">
-        <f t="array" ref="AI50">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI50">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK50">
-        <f t="array" ref="AK50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK50">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:37">
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L51">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M51">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="array" ref="Q51">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q51">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R51">
-        <f t="array" ref="R51">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R51">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W51">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="array" ref="X51">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X51">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="array" ref="Y51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y51">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="array" ref="AI51">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI51">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK51">
-        <f t="array" ref="AK51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK51">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:37">
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L52">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M52">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="array" ref="Q52">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q52">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R52">
-        <f t="array" ref="R52">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R52">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W52">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="array" ref="X52">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X52">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="array" ref="Y52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y52">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD52">
-        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI52">
-        <f t="array" ref="AI52">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI52">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK52">
-        <f t="array" ref="AK52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK52">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:37">
       <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K53">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L53">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M53">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="array" ref="Q53">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q53">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R53">
-        <f t="array" ref="R53">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R53">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W53">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="array" ref="X53">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X53">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="array" ref="Y53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y53">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD53">
-        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI53">
-        <f t="array" ref="AI53">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI53">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ53">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK53">
-        <f t="array" ref="AK53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK53">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="11:37">
       <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K54">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L54">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M54">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="array" ref="Q54">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q54">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R54">
-        <f t="array" ref="R54">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R54">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W54">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="array" ref="X54">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X54">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="array" ref="Y54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y54">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD54">
-        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI54">
-        <f t="array" ref="AI54">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI54">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ54">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK54">
-        <f t="array" ref="AK54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK54">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="11:37">
       <c r="K55">
-        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K55">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L55">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M55">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="array" ref="Q55">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q55">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="array" ref="R55">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R55">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W55">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="array" ref="X55">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X55">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="array" ref="Y55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y55">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC55">
-        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD55">
-        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI55">
-        <f t="array" ref="AI55">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI55">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ55">
-        <f t="array" ref="AJ55">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ55">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK55">
-        <f t="array" ref="AK55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK55">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="11:37">
       <c r="K56">
-        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K56">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L56">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M56">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="array" ref="Q56">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q56">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="array" ref="R56">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R56">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W56">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="array" ref="X56">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X56">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="array" ref="Y56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y56">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC56">
-        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD56">
-        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI56">
-        <f t="array" ref="AI56">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI56">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="array" ref="AJ56">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ56">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK56">
-        <f t="array" ref="AK56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK56">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="11:37">
       <c r="K57">
-        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K57">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L57">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M57">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q57">
-        <f t="array" ref="Q57">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q57">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="array" ref="R57">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R57">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W57">
-        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W57">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="array" ref="X57">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X57">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="array" ref="Y57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y57">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC57">
-        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE57">
-        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI57">
-        <f t="array" ref="AI57">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI57">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ57">
-        <f t="array" ref="AJ57">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ57">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK57">
-        <f t="array" ref="AK57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK57">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="11:37">
       <c r="K58">
-        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K58">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L58">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M58">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="array" ref="Q58">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q58">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R58">
-        <f t="array" ref="R58">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R58">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W58">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X58">
-        <f t="array" ref="X58">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X58">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="array" ref="Y58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y58">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC58">
-        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD58">
-        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE58">
-        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI58">
-        <f t="array" ref="AI58">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI58">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ58">
-        <f t="array" ref="AJ58">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ58">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK58">
-        <f t="array" ref="AK58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK58">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="11:37">
       <c r="K59">
-        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K59">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L59">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M59">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="array" ref="Q59">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q59">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R59">
-        <f t="array" ref="R59">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R59">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W59">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="array" ref="X59">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X59">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="array" ref="Y59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y59">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC59">
-        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD59">
-        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI59">
-        <f t="array" ref="AI59">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI59">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="array" ref="AJ59">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ59">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK59">
-        <f t="array" ref="AK59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK59">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="11:37">
       <c r="K60">
-        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q60">
-        <f t="array" ref="Q60">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q60">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R60">
-        <f t="array" ref="R60">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R60">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W60">
-        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X60">
-        <f t="array" ref="X60">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X60">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="array" ref="Y60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y60">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC60">
-        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD60">
-        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI60">
-        <f t="array" ref="AI60">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI60">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="array" ref="AJ60">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ60">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK60">
-        <f t="array" ref="AK60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK60">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="11:37">
       <c r="K61">
-        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q61">
-        <f t="array" ref="Q61">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q61">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R61">
-        <f t="array" ref="R61">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R61">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W61">
-        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X61">
-        <f t="array" ref="X61">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X61">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="array" ref="Y61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y61">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC61">
-        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD61">
-        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI61">
-        <f t="array" ref="AI61">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI61">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f t="array" ref="AJ61">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ61">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK61">
-        <f t="array" ref="AK61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK61">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="11:37">
       <c r="K62">
-        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="array" ref="Q62">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q62">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="array" ref="R62">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R62">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X62">
-        <f t="array" ref="X62">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X62">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="array" ref="Y62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y62">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC62">
-        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD62">
-        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI62">
-        <f t="array" ref="AI62">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI62">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="array" ref="AJ62">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ62">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK62">
-        <f t="array" ref="AK62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK62">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="11:37">
       <c r="K63">
-        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="array" ref="Q63">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q63">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R63">
-        <f t="array" ref="R63">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R63">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S63">
-        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="array" ref="X63">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X63">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="array" ref="Y63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y63">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI63">
-        <f t="array" ref="AI63">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI63">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ63">
-        <f t="array" ref="AJ63">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ63">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK63">
-        <f t="array" ref="AK63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK63">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="11:37">
       <c r="K64">
-        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="array" ref="Q64">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q64">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="array" ref="R64">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R64">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S64">
-        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W64">
-        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X64">
-        <f t="array" ref="X64">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X64">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y64">
-        <f t="array" ref="Y64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y64">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC64">
-        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD64">
-        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI64">
-        <f t="array" ref="AI64">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI64">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f t="array" ref="AJ64">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ64">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK64">
-        <f t="array" ref="AK64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK64">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="11:37">
       <c r="K65">
-        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="array" ref="Q65">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q65">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="array" ref="R65">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R65">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S65">
-        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W65">
-        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X65">
-        <f t="array" ref="X65">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X65">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y65">
-        <f t="array" ref="Y65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y65">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC65">
-        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD65">
-        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE65">
-        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI65">
-        <f t="array" ref="AI65">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI65">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="array" ref="AJ65">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ65">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f t="array" ref="AK65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK65">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="11:37">
       <c r="K66">
-        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="array" ref="Q66">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q66">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="array" ref="R66">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R66">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S66">
-        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f t="array" ref="X66">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X66">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y66">
-        <f t="array" ref="Y66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y66">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC66">
-        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD66">
-        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE66">
-        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI66">
-        <f t="array" ref="AI66">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI66">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ66">
-        <f t="array" ref="AJ66">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ66">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK66">
-        <f t="array" ref="AK66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK66">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="11:37">
       <c r="K67">
-        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="array" ref="Q67">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q67">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="array" ref="R67">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R67">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S67">
-        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X67">
-        <f t="array" ref="X67">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X67">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="array" ref="Y67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y67">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD67">
-        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE67">
-        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI67">
-        <f t="array" ref="AI67">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI67">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ67">
-        <f t="array" ref="AJ67">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ67">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK67">
-        <f t="array" ref="AK67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK67">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="11:37">
       <c r="K68">
-        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="array" ref="Q68">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q68">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="array" ref="R68">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R68">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X68">
-        <f t="array" ref="X68">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X68">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y68">
-        <f t="array" ref="Y68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y68">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC68">
-        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD68">
-        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI68">
-        <f t="array" ref="AI68">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI68">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="array" ref="AJ68">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ68">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f t="array" ref="AK68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK68">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="11:37">
       <c r="K69">
-        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($N$7:$N$37&lt;&gt;"",IF($K$7:$K$37&lt;&gt;"",ROW($K$7:$K$37)-MIN(ROW($K$7:$K$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="array" ref="Q69">IFERROR(CONCATENATE((INDEX($T$7:$T$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="Q69">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="array" ref="R69">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="R69">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="S69">
-        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($T$7:$T$37&lt;&gt;"",IF($Q$7:$Q$37&lt;&gt;"",ROW($Q$7:$Q$37)-MIN(ROW($Q$7:$Q$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="W69">
-        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($Z$7:$Z$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="X69">
-        <f t="array" ref="X69">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="X69">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="Y69">
-        <f t="array" ref="Y69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Z$7:$Z$37&lt;&gt;"",IF($W$7:$W$37&lt;&gt;"",ROW($W$7:$W$37)-MIN(ROW($W$7:$W$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="Y69">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC69">
-        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),","),"")</f>
+        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="AD69">
-        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0"),","),"")</f>
+        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="AE69">
-        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AI69">
-        <f t="array" ref="AI69">IFERROR(CONCATENATE((INDEX($AL$7:$AL$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)))," "),"")</f>
+        <f t="array" ref="AI69">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ69">
-        <f t="array" ref="AJ69">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AJ69">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AK69">
-        <f t="array" ref="AK69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AL$7:$AL$37&lt;&gt;"",IF($AI$7:$AI$37&lt;&gt;"",ROW($AI$7:$AI$37)-MIN(ROW($AI$7:$AI$37))+1,""),""),ROW()-ROW(A$39)+1))),),"")</f>
+        <f t="array" ref="AK69">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="11:37">
+      <c r="K70">
+        <f t="array" ref="K70">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="array" ref="L70">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="array" ref="M70">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="array" ref="Q70">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="array" ref="R70">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="array" ref="S70">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="array" ref="W70">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f t="array" ref="X70">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f t="array" ref="Y70">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="array" ref="AC70">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <f t="array" ref="AD70">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <f t="array" ref="AE70">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <f t="array" ref="AI70">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <f t="array" ref="AJ70">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <f t="array" ref="AK70">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="11:37">
+      <c r="K71">
+        <f t="array" ref="K71">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="array" ref="L71">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f t="array" ref="M71">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="array" ref="Q71">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="array" ref="R71">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f t="array" ref="S71">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="array" ref="W71">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <f t="array" ref="X71">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f t="array" ref="Y71">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <f t="array" ref="AC71">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <f t="array" ref="AD71">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <f t="array" ref="AE71">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <f t="array" ref="AI71">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <f t="array" ref="AJ71">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <f t="array" ref="AK71">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="11:37">
+      <c r="K72">
+        <f t="array" ref="K72">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="array" ref="L72">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="array" ref="M72">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="array" ref="Q72">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="array" ref="R72">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="array" ref="S72">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="array" ref="W72">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f t="array" ref="X72">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f t="array" ref="Y72">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f t="array" ref="AC72">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <f t="array" ref="AD72">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <f t="array" ref="AE72">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <f t="array" ref="AI72">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <f t="array" ref="AJ72">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <f t="array" ref="AK72">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="11:37">
+      <c r="K73">
+        <f t="array" ref="K73">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="array" ref="L73">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="array" ref="M73">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="array" ref="Q73">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="array" ref="R73">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="array" ref="S73">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="array" ref="W73">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f t="array" ref="X73">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <f t="array" ref="Y73">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="array" ref="AC73">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <f t="array" ref="AD73">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <f t="array" ref="AE73">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <f t="array" ref="AI73">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <f t="array" ref="AJ73">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <f t="array" ref="AK73">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="11:37">
+      <c r="K74">
+        <f t="array" ref="K74">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="array" ref="L74">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f t="array" ref="M74">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="array" ref="Q74">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="array" ref="R74">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="array" ref="S74">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="array" ref="W74">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f t="array" ref="X74">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <f t="array" ref="Y74">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <f t="array" ref="AC74">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <f t="array" ref="AD74">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <f t="array" ref="AE74">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <f t="array" ref="AI74">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <f t="array" ref="AJ74">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <f t="array" ref="AK74">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="11:37">
+      <c r="K75">
+        <f t="array" ref="K75">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="array" ref="L75">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="array" ref="M75">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="array" ref="Q75">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="array" ref="R75">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="array" ref="S75">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="array" ref="W75">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="array" ref="X75">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f t="array" ref="Y75">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <f t="array" ref="AC75">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <f t="array" ref="AD75">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <f t="array" ref="AE75">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <f t="array" ref="AI75">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <f t="array" ref="AJ75">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <f t="array" ref="AK75">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="11:37">
+      <c r="K76">
+        <f t="array" ref="K76">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="array" ref="L76">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="array" ref="M76">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="array" ref="Q76">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="array" ref="R76">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="array" ref="S76">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="array" ref="W76">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="array" ref="X76">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f t="array" ref="Y76">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <f t="array" ref="AC76">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <f t="array" ref="AD76">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <f t="array" ref="AE76">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <f t="array" ref="AI76">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <f t="array" ref="AJ76">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <f t="array" ref="AK76">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="11:37">
+      <c r="K77">
+        <f t="array" ref="K77">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="array" ref="L77">IFERROR(CONCATENATE((INDEX($N$7:$N$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="array" ref="M77">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($N$7:$N$41&lt;&gt;"",IF($K$7:$K$41&lt;&gt;"",ROW($K$7:$K$41)-MIN(ROW($K$7:$K$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="array" ref="Q77">IFERROR(CONCATENATE((INDEX($T$7:$T$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="array" ref="R77">IFERROR(CONCATENATE(TEXT(INDEX($Q$7:$Q$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="array" ref="S77">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($T$7:$T$41&lt;&gt;"",IF($Q$7:$Q$41&lt;&gt;"",ROW($Q$7:$Q$41)-MIN(ROW($Q$7:$Q$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="array" ref="W77">IFERROR(CONCATENATE((INDEX($Z$7:$Z$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="array" ref="X77">IFERROR(CONCATENATE(TEXT(INDEX($W$7:$W$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f t="array" ref="Y77">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($Z$7:$Z$41&lt;&gt;"",IF($W$7:$W$41&lt;&gt;"",ROW($W$7:$W$41)-MIN(ROW($W$7:$W$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <f t="array" ref="AC77">IFERROR(CONCATENATE((INDEX($AF$7:$AF$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <f t="array" ref="AD77">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <f t="array" ref="AE77">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AF$7:$AF$41&lt;&gt;"",IF($AC$7:$AC$41&lt;&gt;"",ROW($AC$7:$AC$41)-MIN(ROW($AC$7:$AC$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <f t="array" ref="AI77">IFERROR(CONCATENATE((INDEX($AL$7:$AL$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <f t="array" ref="AJ77">IFERROR(CONCATENATE(TEXT(INDEX($AI$7:$AI$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <f t="array" ref="AK77">IFERROR(CONCATENATE((INDEX($A$7:$A$41,SMALL(IF($AL$7:$AL$41&lt;&gt;"",IF($AI$7:$AI$41&lt;&gt;"",ROW($AI$7:$AI$41)-MIN(ROW($AI$7:$AI$41))+1,""),""),ROW()-ROW(A$43)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -5517,339 +6331,384 @@
     <mergeCell ref="AB5:AG5"/>
     <mergeCell ref="AH5:AM5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AD13">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD14">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
-      <formula>H14</formula>
+  <conditionalFormatting sqref="AD15">
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
+      <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD16">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="89" operator="lessThanOrEqual">
       <formula>H16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD20">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD22">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
-      <formula>H22</formula>
+  <conditionalFormatting sqref="AD17">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD19">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
+      <formula>H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD27">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD30">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThanOrEqual">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD32">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD33">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThanOrEqual">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD34">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD35">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThanOrEqual">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD7">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
-    <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="lessThanOrEqual">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ17">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="lessThanOrEqual">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThanOrEqual">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="lessThanOrEqual">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThanOrEqual">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
+  <conditionalFormatting sqref="AD26">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD27">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AD28">
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="lessThanOrEqual">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
+  <conditionalFormatting sqref="AD29">
     <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD31">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ34">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD34">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="lessThanOrEqual">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AD35">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="lessThanOrEqual">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
+  <conditionalFormatting sqref="AD36">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD38">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="lessThanOrEqual">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD39">
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="lessThanOrEqual">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
     <cfRule type="cellIs" dxfId="0" priority="83" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
     <cfRule type="cellIs" dxfId="0" priority="88" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK17">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE17">
+    <cfRule type="cellIs" dxfId="0" priority="92" operator="lessThanOrEqual">
       <formula>I17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK23">
+  <conditionalFormatting sqref="AE19">
     <cfRule type="cellIs" dxfId="0" priority="94" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK24">
-    <cfRule type="cellIs" dxfId="0" priority="96" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
+  <conditionalFormatting sqref="AE25">
     <cfRule type="cellIs" dxfId="0" priority="98" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="0" priority="100" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="0" priority="116" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38">
+    <cfRule type="cellIs" dxfId="0" priority="118" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE39">
+    <cfRule type="cellIs" dxfId="0" priority="120" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ16">
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20">
+    <cfRule type="cellIs" dxfId="0" priority="129" operator="lessThanOrEqual">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ23">
+    <cfRule type="cellIs" dxfId="0" priority="131" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="0" priority="135" operator="lessThanOrEqual">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="0" priority="137" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="0" priority="139" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="0" priority="141" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="cellIs" dxfId="0" priority="143" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="0" priority="145" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ34">
+    <cfRule type="cellIs" dxfId="0" priority="147" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ38">
+    <cfRule type="cellIs" dxfId="0" priority="149" operator="lessThanOrEqual">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ39">
+    <cfRule type="cellIs" dxfId="0" priority="151" operator="lessThanOrEqual">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="lessThanOrEqual">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK16">
+    <cfRule type="cellIs" dxfId="0" priority="128" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20">
+    <cfRule type="cellIs" dxfId="0" priority="130" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="0" priority="132" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="cellIs" dxfId="0" priority="134" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AK27">
-    <cfRule type="cellIs" dxfId="0" priority="100" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="136" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK28">
-    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="138" operator="lessThanOrEqual">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="lessThanOrEqual">
-      <formula>I30</formula>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="cellIs" dxfId="0" priority="140" operator="lessThanOrEqual">
+      <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK31">
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="142" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="cellIs" dxfId="0" priority="144" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="cellIs" dxfId="0" priority="146" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AK34">
-    <cfRule type="cellIs" dxfId="0" priority="108" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="148" operator="lessThanOrEqual">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="0" priority="84" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
+  <conditionalFormatting sqref="AK38">
+    <cfRule type="cellIs" dxfId="0" priority="150" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK39">
+    <cfRule type="cellIs" dxfId="0" priority="152" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThanOrEqual">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
-      <formula>H20</formula>
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
+      <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThanOrEqual">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
       <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThanOrEqual">
-      <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
@@ -5857,74 +6716,99 @@
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThanOrEqual">
-      <formula>H30</formula>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThanOrEqual">
+      <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R34">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R39">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
-      <formula>I20</formula>
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
+      <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThanOrEqual">
       <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThanOrEqual">
-      <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25">
@@ -5932,210 +6816,378 @@
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S30">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThanOrEqual">
-      <formula>I30</formula>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="lessThanOrEqual">
+      <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="S33">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X15">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThanOrEqual">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThanOrEqual">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThanOrEqual">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThanOrEqual">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X39">
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThanOrEqual">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28">
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y31">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S33">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y33">
+    <cfRule type="cellIs" dxfId="0" priority="74" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S35">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y34">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThanOrEqual">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThanOrEqual">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThanOrEqual">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThanOrEqual">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThanOrEqual">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X33">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThanOrEqual">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
+  <conditionalFormatting sqref="Y36">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y39">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
     <cfRule type="cellIs" dxfId="0" priority="42" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
     <cfRule type="cellIs" dxfId="0" priority="44" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y33">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="lessThanOrEqual">
-      <formula>I7</formula>
+      <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="U7" r:id="rId1"/>
-    <hyperlink ref="AA7" r:id="rId2"/>
-    <hyperlink ref="AG7" r:id="rId3"/>
-    <hyperlink ref="AM7" r:id="rId4"/>
-    <hyperlink ref="AG9" r:id="rId5"/>
-    <hyperlink ref="AG10" r:id="rId6"/>
-    <hyperlink ref="AA12" r:id="rId7"/>
-    <hyperlink ref="AM12" r:id="rId8"/>
-    <hyperlink ref="U13" r:id="rId9"/>
-    <hyperlink ref="AG13" r:id="rId10"/>
-    <hyperlink ref="AM13" r:id="rId11"/>
-    <hyperlink ref="U14" r:id="rId12"/>
-    <hyperlink ref="AG14" r:id="rId13"/>
-    <hyperlink ref="U16" r:id="rId14"/>
-    <hyperlink ref="AG16" r:id="rId15"/>
-    <hyperlink ref="U17" r:id="rId16"/>
-    <hyperlink ref="AA17" r:id="rId17"/>
-    <hyperlink ref="AG17" r:id="rId18"/>
-    <hyperlink ref="AM17" r:id="rId19"/>
-    <hyperlink ref="U19" r:id="rId20"/>
-    <hyperlink ref="AA19" r:id="rId21"/>
-    <hyperlink ref="AG19" r:id="rId22"/>
-    <hyperlink ref="AM19" r:id="rId23"/>
-    <hyperlink ref="U20" r:id="rId24"/>
-    <hyperlink ref="AA20" r:id="rId25"/>
-    <hyperlink ref="AG20" r:id="rId26"/>
-    <hyperlink ref="AM20" r:id="rId27"/>
-    <hyperlink ref="U22" r:id="rId28"/>
-    <hyperlink ref="AA22" r:id="rId29"/>
-    <hyperlink ref="AG22" r:id="rId30"/>
-    <hyperlink ref="U23" r:id="rId31"/>
-    <hyperlink ref="AG23" r:id="rId32"/>
-    <hyperlink ref="AM23" r:id="rId33"/>
-    <hyperlink ref="U24" r:id="rId34"/>
-    <hyperlink ref="AA24" r:id="rId35"/>
-    <hyperlink ref="AG24" r:id="rId36"/>
-    <hyperlink ref="AM24" r:id="rId37"/>
-    <hyperlink ref="U25" r:id="rId38"/>
-    <hyperlink ref="AG25" r:id="rId39"/>
-    <hyperlink ref="AM25" r:id="rId40"/>
-    <hyperlink ref="U27" r:id="rId41"/>
-    <hyperlink ref="AG27" r:id="rId42"/>
-    <hyperlink ref="AM27" r:id="rId43"/>
-    <hyperlink ref="U28" r:id="rId44"/>
-    <hyperlink ref="AA28" r:id="rId45"/>
-    <hyperlink ref="AG28" r:id="rId46"/>
-    <hyperlink ref="AM28" r:id="rId47"/>
-    <hyperlink ref="U30" r:id="rId48"/>
-    <hyperlink ref="AG30" r:id="rId49"/>
-    <hyperlink ref="AM30" r:id="rId50"/>
-    <hyperlink ref="U31" r:id="rId51"/>
-    <hyperlink ref="AG31" r:id="rId52"/>
-    <hyperlink ref="AM31" r:id="rId53"/>
-    <hyperlink ref="U32" r:id="rId54"/>
-    <hyperlink ref="AA32" r:id="rId55"/>
-    <hyperlink ref="AG32" r:id="rId56"/>
-    <hyperlink ref="U33" r:id="rId57"/>
-    <hyperlink ref="AA33" r:id="rId58"/>
-    <hyperlink ref="AG33" r:id="rId59"/>
-    <hyperlink ref="U34" r:id="rId60"/>
-    <hyperlink ref="AA34" r:id="rId61"/>
-    <hyperlink ref="AG34" r:id="rId62"/>
-    <hyperlink ref="AM34" r:id="rId63"/>
-    <hyperlink ref="U35" r:id="rId64"/>
-    <hyperlink ref="AG35" r:id="rId65"/>
-    <hyperlink ref="AM35" r:id="rId66"/>
+    <hyperlink ref="U8" r:id="rId1"/>
+    <hyperlink ref="AA8" r:id="rId2"/>
+    <hyperlink ref="AG8" r:id="rId3"/>
+    <hyperlink ref="AM8" r:id="rId4"/>
+    <hyperlink ref="U9" r:id="rId5"/>
+    <hyperlink ref="AA9" r:id="rId6"/>
+    <hyperlink ref="AG9" r:id="rId7"/>
+    <hyperlink ref="AA11" r:id="rId8"/>
+    <hyperlink ref="AG11" r:id="rId9"/>
+    <hyperlink ref="AA12" r:id="rId10"/>
+    <hyperlink ref="AG12" r:id="rId11"/>
+    <hyperlink ref="AA13" r:id="rId12"/>
+    <hyperlink ref="AA14" r:id="rId13"/>
+    <hyperlink ref="AM14" r:id="rId14"/>
+    <hyperlink ref="U15" r:id="rId15"/>
+    <hyperlink ref="AA15" r:id="rId16"/>
+    <hyperlink ref="AG15" r:id="rId17"/>
+    <hyperlink ref="AM15" r:id="rId18"/>
+    <hyperlink ref="U16" r:id="rId19"/>
+    <hyperlink ref="AA16" r:id="rId20"/>
+    <hyperlink ref="AG16" r:id="rId21"/>
+    <hyperlink ref="AM16" r:id="rId22"/>
+    <hyperlink ref="U17" r:id="rId23"/>
+    <hyperlink ref="AG17" r:id="rId24"/>
+    <hyperlink ref="U19" r:id="rId25"/>
+    <hyperlink ref="AA19" r:id="rId26"/>
+    <hyperlink ref="AG19" r:id="rId27"/>
+    <hyperlink ref="U20" r:id="rId28"/>
+    <hyperlink ref="AA20" r:id="rId29"/>
+    <hyperlink ref="AG20" r:id="rId30"/>
+    <hyperlink ref="AM20" r:id="rId31"/>
+    <hyperlink ref="U21" r:id="rId32"/>
+    <hyperlink ref="AA21" r:id="rId33"/>
+    <hyperlink ref="AG21" r:id="rId34"/>
+    <hyperlink ref="U22" r:id="rId35"/>
+    <hyperlink ref="AA22" r:id="rId36"/>
+    <hyperlink ref="AG22" r:id="rId37"/>
+    <hyperlink ref="AM22" r:id="rId38"/>
+    <hyperlink ref="U23" r:id="rId39"/>
+    <hyperlink ref="AA23" r:id="rId40"/>
+    <hyperlink ref="AG23" r:id="rId41"/>
+    <hyperlink ref="AM23" r:id="rId42"/>
+    <hyperlink ref="U25" r:id="rId43"/>
+    <hyperlink ref="AA25" r:id="rId44"/>
+    <hyperlink ref="AG25" r:id="rId45"/>
+    <hyperlink ref="U26" r:id="rId46"/>
+    <hyperlink ref="AA26" r:id="rId47"/>
+    <hyperlink ref="AG26" r:id="rId48"/>
+    <hyperlink ref="AM26" r:id="rId49"/>
+    <hyperlink ref="U27" r:id="rId50"/>
+    <hyperlink ref="AA27" r:id="rId51"/>
+    <hyperlink ref="AG27" r:id="rId52"/>
+    <hyperlink ref="AM27" r:id="rId53"/>
+    <hyperlink ref="U28" r:id="rId54"/>
+    <hyperlink ref="AA28" r:id="rId55"/>
+    <hyperlink ref="AG28" r:id="rId56"/>
+    <hyperlink ref="AM28" r:id="rId57"/>
+    <hyperlink ref="U29" r:id="rId58"/>
+    <hyperlink ref="AA29" r:id="rId59"/>
+    <hyperlink ref="AG29" r:id="rId60"/>
+    <hyperlink ref="AM29" r:id="rId61"/>
+    <hyperlink ref="U31" r:id="rId62"/>
+    <hyperlink ref="AA31" r:id="rId63"/>
+    <hyperlink ref="AG31" r:id="rId64"/>
+    <hyperlink ref="AM31" r:id="rId65"/>
+    <hyperlink ref="U32" r:id="rId66"/>
+    <hyperlink ref="AA32" r:id="rId67"/>
+    <hyperlink ref="AG32" r:id="rId68"/>
+    <hyperlink ref="AM32" r:id="rId69"/>
+    <hyperlink ref="U33" r:id="rId70"/>
+    <hyperlink ref="AA33" r:id="rId71"/>
+    <hyperlink ref="AG33" r:id="rId72"/>
+    <hyperlink ref="AM33" r:id="rId73"/>
+    <hyperlink ref="U34" r:id="rId74"/>
+    <hyperlink ref="AA34" r:id="rId75"/>
+    <hyperlink ref="AG34" r:id="rId76"/>
+    <hyperlink ref="AM34" r:id="rId77"/>
+    <hyperlink ref="U35" r:id="rId78"/>
+    <hyperlink ref="AA35" r:id="rId79"/>
+    <hyperlink ref="AG35" r:id="rId80"/>
+    <hyperlink ref="U36" r:id="rId81"/>
+    <hyperlink ref="AA36" r:id="rId82"/>
+    <hyperlink ref="AG36" r:id="rId83"/>
+    <hyperlink ref="U37" r:id="rId84"/>
+    <hyperlink ref="AA37" r:id="rId85"/>
+    <hyperlink ref="AG37" r:id="rId86"/>
+    <hyperlink ref="U38" r:id="rId87"/>
+    <hyperlink ref="AA38" r:id="rId88"/>
+    <hyperlink ref="AG38" r:id="rId89"/>
+    <hyperlink ref="AM38" r:id="rId90"/>
+    <hyperlink ref="U39" r:id="rId91"/>
+    <hyperlink ref="AA39" r:id="rId92"/>
+    <hyperlink ref="AG39" r:id="rId93"/>
+    <hyperlink ref="AM39" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId67"/>
+  <legacyDrawing r:id="rId95"/>
 </worksheet>
 </file>